--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953463F8-F83A-4D54-B249-B36096F70371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BBDF97-5A2B-42E6-A2CB-EA466730F7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="2918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="3396">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -8788,6 +8788,1440 @@
   </si>
   <si>
     <t>notifications@intuit.com</t>
+  </si>
+  <si>
+    <t>pooja.goyal@publicissapient.com</t>
+  </si>
+  <si>
+    <t>parul.rana@publicissapient.com</t>
+  </si>
+  <si>
+    <t>sonam.madaan@publicissapient.com</t>
+  </si>
+  <si>
+    <t>Kritya.Sudha@publicissapient.com</t>
+  </si>
+  <si>
+    <t>priyanka.mishra@publicissapient.com</t>
+  </si>
+  <si>
+    <t>sonal.sharma@publicissapient.com</t>
+  </si>
+  <si>
+    <t>ashna.malik@publicissapient.com</t>
+  </si>
+  <si>
+    <t>ravi.bhushan@publicissapient.com</t>
+  </si>
+  <si>
+    <t>sakshi.aggarwal@publicissapient.com</t>
+  </si>
+  <si>
+    <t>sakshi.gupta@publicissapient.com</t>
+  </si>
+  <si>
+    <t>mayank.aggarwal2@publicissapient.com</t>
+  </si>
+  <si>
+    <t>mansi.maheshwari@publicissapient.com</t>
+  </si>
+  <si>
+    <t>janet.jose@publicissapient.com</t>
+  </si>
+  <si>
+    <t>hament.aggarwal@publicissapient.com</t>
+  </si>
+  <si>
+    <t>jasmin.saroja@publicissapient.com</t>
+  </si>
+  <si>
+    <t>mahamad.haneefa@publicissapient.com</t>
+  </si>
+  <si>
+    <t>sidharth.khanna@publicissapient.com</t>
+  </si>
+  <si>
+    <t>abhishek.goyal@publicissapient.com</t>
+  </si>
+  <si>
+    <t>amrita.ambastha@publicissapient.com</t>
+  </si>
+  <si>
+    <t>barath.g@publicissapient.com</t>
+  </si>
+  <si>
+    <t>namrta.sharma@publicissapient.com</t>
+  </si>
+  <si>
+    <t>rahul.kasautia@publicissapient.com</t>
+  </si>
+  <si>
+    <t>neeva.rathod@publicissapient.com</t>
+  </si>
+  <si>
+    <t>aarosha.grover@publicissapient.com</t>
+  </si>
+  <si>
+    <t>disha.gaur@publicissapient.com</t>
+  </si>
+  <si>
+    <t>anil.rawat@publicissapient.com</t>
+  </si>
+  <si>
+    <t>raushan.kumar1@publicissapient.com</t>
+  </si>
+  <si>
+    <t>gaurav.singh@publicissapient.com</t>
+  </si>
+  <si>
+    <t>INDIAHIRING_PBS_TEAM_IND@publicissapient.com</t>
+  </si>
+  <si>
+    <t>saraswati.kumari@publicissapient.com</t>
+  </si>
+  <si>
+    <t>adya.singh@publicissapient.com</t>
+  </si>
+  <si>
+    <t>shubham.goyal@publicissapient.com</t>
+  </si>
+  <si>
+    <t>sajil.ahmed@publicissapient.com</t>
+  </si>
+  <si>
+    <t>prerna.sinha@publicissapient.com</t>
+  </si>
+  <si>
+    <t>anujj.suri@publicissapient.com</t>
+  </si>
+  <si>
+    <t>vaibhav.ambike@publicissapient.com</t>
+  </si>
+  <si>
+    <t>sridevi.d@publicissapient.com</t>
+  </si>
+  <si>
+    <t>meadha.batra@publicissapient.com</t>
+  </si>
+  <si>
+    <t>adwait.kulkarni@publicissapient.com</t>
+  </si>
+  <si>
+    <t>nayana.tu@publicissapient.comNote</t>
+  </si>
+  <si>
+    <t>ranjux.mohanty@intel.com</t>
+  </si>
+  <si>
+    <t>priyankx.bhattacharya@intel.com</t>
+  </si>
+  <si>
+    <t>dakshathax.ms@intel.com</t>
+  </si>
+  <si>
+    <t>shovitx.horo@intel.com</t>
+  </si>
+  <si>
+    <t>balajix.guda@intel.com</t>
+  </si>
+  <si>
+    <t>Sreenivas.Subramoney@intel.com</t>
+  </si>
+  <si>
+    <t>ashis.maitra@intel.com</t>
+  </si>
+  <si>
+    <t>radhax.krishna.nm@intel.com</t>
+  </si>
+  <si>
+    <t>sahanashreex.ps@intel.com</t>
+  </si>
+  <si>
+    <t>rubax.vignesh.kannan@intel.com</t>
+  </si>
+  <si>
+    <t>Kalaiselvix.suryakumar@intel.com</t>
+  </si>
+  <si>
+    <t>kavyae@hexaware.com</t>
+  </si>
+  <si>
+    <t>Arshpreet.Singh@Finastra.com</t>
+  </si>
+  <si>
+    <t>Dhananjay.nehere@finastra.com</t>
+  </si>
+  <si>
+    <t>govind.mundra@finastra.com</t>
+  </si>
+  <si>
+    <t>denisseestefania.delatorreguzman@finastra.com</t>
+  </si>
+  <si>
+    <t>AnandKumar.Khivensra@finastra.com</t>
+  </si>
+  <si>
+    <t>MarkJoseph.Placido@Finastra.com</t>
+  </si>
+  <si>
+    <t>lending@finastra.com</t>
+  </si>
+  <si>
+    <t>yna.sayson@finastra.com</t>
+  </si>
+  <si>
+    <t>noureen.naaz@finastra.com</t>
+  </si>
+  <si>
+    <t>Maricon.Ruiz@finastra.com</t>
+  </si>
+  <si>
+    <t>lmallikarjunaiah@temenos.com</t>
+  </si>
+  <si>
+    <t>mdeards@temenos.com</t>
+  </si>
+  <si>
+    <t>Phani.srikanth@temenos.com</t>
+  </si>
+  <si>
+    <t>ashwini.gadde@temenos.com</t>
+  </si>
+  <si>
+    <t>muralidharv@temenos.com</t>
+  </si>
+  <si>
+    <t>partnersTCF@temenos.com</t>
+  </si>
+  <si>
+    <t>victor.leong@temenos.com</t>
+  </si>
+  <si>
+    <t>latam-contactus@temenos.com</t>
+  </si>
+  <si>
+    <t>Julie.Boyer@infor.com</t>
+  </si>
+  <si>
+    <t>airamae.ballena@infor.com</t>
+  </si>
+  <si>
+    <t>sheethal.pandey@infor.com</t>
+  </si>
+  <si>
+    <t>Shrikant.teli@infor.com</t>
+  </si>
+  <si>
+    <t>shubha.a@infor.com</t>
+  </si>
+  <si>
+    <t>deepti.singh@infor.com</t>
+  </si>
+  <si>
+    <t>floelyn.cu@infor.com</t>
+  </si>
+  <si>
+    <t>apac_earlytalent@infor.com</t>
+  </si>
+  <si>
+    <t>maryangelique.sawi@infor.com</t>
+  </si>
+  <si>
+    <t>kyladawn.umali@infor.com</t>
+  </si>
+  <si>
+    <t>priyamvada.dontiboyina@infor.com</t>
+  </si>
+  <si>
+    <t>rosette.baybay@infor.com</t>
+  </si>
+  <si>
+    <t>nipun.bathini@infor.com</t>
+  </si>
+  <si>
+    <t>Alberto.Islas@Infor.com</t>
+  </si>
+  <si>
+    <t>yamini.pant@infor.com</t>
+  </si>
+  <si>
+    <t>surendra.piduru@infor.com</t>
+  </si>
+  <si>
+    <t>Umamadhu.marella@infor.com</t>
+  </si>
+  <si>
+    <t>ivan.chia@infor.com</t>
+  </si>
+  <si>
+    <t>vasu.p@infor.com</t>
+  </si>
+  <si>
+    <t>documentation@infor.com</t>
+  </si>
+  <si>
+    <t>john.parsons@infor.com</t>
+  </si>
+  <si>
+    <t>EMEA.recruitment@infor.com</t>
+  </si>
+  <si>
+    <t>emea.talent@infor.com</t>
+  </si>
+  <si>
+    <t>sweekar.gulati@jll.com</t>
+  </si>
+  <si>
+    <t>kamal.sharma@jll.com</t>
+  </si>
+  <si>
+    <t>Shikhar.Rastogi@jll.com</t>
+  </si>
+  <si>
+    <t>Kajol.Gupta1@jll.com</t>
+  </si>
+  <si>
+    <t>meenu.chopra@jll.com</t>
+  </si>
+  <si>
+    <t>monika.vats@jll.com</t>
+  </si>
+  <si>
+    <t>Himanshi.dua@jll.com</t>
+  </si>
+  <si>
+    <t>raka.majumdar@jll.com</t>
+  </si>
+  <si>
+    <t>abhay.tiwari@jll.com</t>
+  </si>
+  <si>
+    <t>Moinuddin.patel@jll.com</t>
+  </si>
+  <si>
+    <t>Pooja.dhamesha@jll.com</t>
+  </si>
+  <si>
+    <t>khushmeet.singh@jll.com</t>
+  </si>
+  <si>
+    <t>Shivani.Mahajan@jll.com</t>
+  </si>
+  <si>
+    <t>sehanobis@jll.com</t>
+  </si>
+  <si>
+    <t>kunal.jawage@jll.com</t>
+  </si>
+  <si>
+    <t>anup.patnaik@jll.com</t>
+  </si>
+  <si>
+    <t>abhishek.arya@jll.com</t>
+  </si>
+  <si>
+    <t>Dilshad.ali@jll.com</t>
+  </si>
+  <si>
+    <t>antima.tyagi@jll.com</t>
+  </si>
+  <si>
+    <t>v.manikanta@jll.com</t>
+  </si>
+  <si>
+    <t>Sivakumaran.sekar@Jll.com</t>
+  </si>
+  <si>
+    <t>Rajsree.sehanobis@jll.com</t>
+  </si>
+  <si>
+    <t>k.ramkumar@jll.com</t>
+  </si>
+  <si>
+    <t>alokananda.dasbasu@jll.com</t>
+  </si>
+  <si>
+    <t>akash.singhgill@jll.com</t>
+  </si>
+  <si>
+    <t>rohit.bhasin@jll.com</t>
+  </si>
+  <si>
+    <t>sagar.singh@jll.com</t>
+  </si>
+  <si>
+    <t>sunil.dwivedi@jll.com</t>
+  </si>
+  <si>
+    <t>peter.jackson@jll.com</t>
+  </si>
+  <si>
+    <t>durgesh.guhagarkar@jll.com</t>
+  </si>
+  <si>
+    <t>hasanat.aman@jll.com</t>
+  </si>
+  <si>
+    <t>riya.handoo@jll.com</t>
+  </si>
+  <si>
+    <t>amit.bisoi@jll.com</t>
+  </si>
+  <si>
+    <t>praphul.damodhar@jll.com</t>
+  </si>
+  <si>
+    <t>sanket.jivangikar@jll.com</t>
+  </si>
+  <si>
+    <t>Dinesh.babut@jll.com</t>
+  </si>
+  <si>
+    <t>Pankaj.dobhal@jll.com</t>
+  </si>
+  <si>
+    <t>pratik.chakraborty@jll.com</t>
+  </si>
+  <si>
+    <t>Nitin.Kumar@jll.com</t>
+  </si>
+  <si>
+    <t>Tushar.gawande@jll.com</t>
+  </si>
+  <si>
+    <t>vishal.sharma@jll.com</t>
+  </si>
+  <si>
+    <t>Sandeep.mishra@jll.com</t>
+  </si>
+  <si>
+    <t>Amol.Jadhav12@jll.com</t>
+  </si>
+  <si>
+    <t>Shrikant.Yadav@jll.com</t>
+  </si>
+  <si>
+    <t>umesh.khandala@jll.com</t>
+  </si>
+  <si>
+    <t>Nilofar.khan@jll.com</t>
+  </si>
+  <si>
+    <t>ashwini.prajapati@jll.com</t>
+  </si>
+  <si>
+    <t>Randheer.Randheer@jll.com</t>
+  </si>
+  <si>
+    <t>vrinda.sahni@jll.com</t>
+  </si>
+  <si>
+    <t>h.mudale@jll.com</t>
+  </si>
+  <si>
+    <t>rishi.wadhwa@jll.com</t>
+  </si>
+  <si>
+    <t>swati.chaturvedi@jll.com</t>
+  </si>
+  <si>
+    <t>Preety.kumari@jll.com</t>
+  </si>
+  <si>
+    <t>Subhendu.Metya@jll.com</t>
+  </si>
+  <si>
+    <t>saket.sogani@jll.com</t>
+  </si>
+  <si>
+    <t>neha.bansal@jll.com</t>
+  </si>
+  <si>
+    <t>subinoy.saha@jll.com</t>
+  </si>
+  <si>
+    <t>Prachi.Chavan@jll.com</t>
+  </si>
+  <si>
+    <t>Mahesh.bhukya@jll.com</t>
+  </si>
+  <si>
+    <t>Asif.mujawar@jll.com</t>
+  </si>
+  <si>
+    <t>shashikant.agre@jll.com</t>
+  </si>
+  <si>
+    <t>Sachin.chopra@jll.com</t>
+  </si>
+  <si>
+    <t>Vikas.sehra@jll.com</t>
+  </si>
+  <si>
+    <t>prabakaran.durai@jll.com</t>
+  </si>
+  <si>
+    <t>Sakshi.Sakshi2@jll.com</t>
+  </si>
+  <si>
+    <t>anil.haldipur@jll.com</t>
+  </si>
+  <si>
+    <t>anjanikumar.singh@jll.com</t>
+  </si>
+  <si>
+    <t>manoj.kumarmaharana@jll.com</t>
+  </si>
+  <si>
+    <t>rajat.kochhar@jll.com</t>
+  </si>
+  <si>
+    <t>Shwet.nisha@jll.com</t>
+  </si>
+  <si>
+    <t>gopal.rana@JLL.com</t>
+  </si>
+  <si>
+    <t>Hari.Pillai@jll.com</t>
+  </si>
+  <si>
+    <t>rahel.jena@jll.com</t>
+  </si>
+  <si>
+    <t>sagar.singj@jll.com</t>
+  </si>
+  <si>
+    <t>Ram.SurenderKM@jll.com</t>
+  </si>
+  <si>
+    <t>s.chatterjee@jll.com</t>
+  </si>
+  <si>
+    <t>arjun.priyadarshi@jll.com</t>
+  </si>
+  <si>
+    <t>nirmal.rao@jll.com</t>
+  </si>
+  <si>
+    <t>Shubham.SSharma@jll.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandanprasad.bc@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">accommodations.france@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shubhi.srivastava@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">agnieszka.jasek-wardzichowska@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sadhna.kumari@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anupama.tv@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jugnu.kashyap@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marta.tobiasz@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicadmin@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">natalie.murison@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ishan.gautam@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marina.delafuente@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nexwave@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hind.chouitar@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedro.nagera@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">konstantinos.gazarian@amadeus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liron.Nimri@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason.Haston@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashwini.pimplikar@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicole.camacho@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike.Virello@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankit.agarwal@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meira@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shruti.arora@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">velinda.wilson@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">payal.dhote@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">media@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">louise.fajardo@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyanka.bansal@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shilpi.jaiswal@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">celso.platilla@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">christian.iliescu@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashwini.berad@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajani.das@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">haley.lange@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSInfo@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doug.lister@nice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ryan.linn@nice.com  </t>
+  </si>
+  <si>
+    <t>Ashwini.pimpilkar@nice.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shpradhan@ptc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sojagdale@ptc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tikumar@ptc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kboutchacha@ptc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aamoore@ptc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prpatil@ptc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vuforia-feedback@ptc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saupandey@ptc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prmishra@ptc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbortext-pm@ptc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devents@ptc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventsmarketing@ptc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dnyaneshwar.kale@cohesity.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrehal.bohra@cohesity.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amar.solanke@cohesity.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jody.waltzer@cohesity.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parker@cohesity.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gail.vaillancourt@cohesity.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebecca.charie@cohesity.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">erica.schemel@cohesity.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frank.schroeder@cohesity.com  </t>
+  </si>
+  <si>
+    <t>dnyaneshwar.kale@cohesity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parvv.Prabhakar@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aishita.magon-v@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shipra.sharma@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kashish.sharma@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deeksha.rawat@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdhankhar@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">janal.kurincak@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mjalil@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">khushboo.kamra@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NitishA@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishekk@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiara.sethi@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchal.sharma-v@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.goyal@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aishita.magon@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fansari@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunwarsamrat.singh@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakshi.agarwal@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchit.vachher@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">v.bhatia@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanshi.ruhela@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddhasmana@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ssarmista@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manasvita.Singh1-v@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uma.nandan-v@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakshi.narotra@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohan.samarth@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">megha.kaushik-v@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aman.vanderwart@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ksharma1@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vikrant.chaudhary@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ekta.tripathi-v@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vkanojia@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mehak.arora@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anna.singh@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kbhanot@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satabdib@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanya.sharma@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasmeet.Arora@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMalhotra@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rkaur@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramanpreet.kaur@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aastha.Kalkoti@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyanka.chhonker-v@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashutosh.sharma1-v@cvent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrikant.walvekar@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick.Sams@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohit.garg@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shefali.gupta@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tim.atyeo@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael.Mercado@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">radhika.mahajan@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicholas.joseph@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKGCareers@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dana.noone@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaibhav.Nagpure@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremy.Disher@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annemarie.palma@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hailey.Paternoster@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace.Jackson@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">siddhanth.nigam@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaurav.singh@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yoko.garn@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindsey.Zai@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dean.cowles@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chas.Guy@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">joe.delfino@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiffany.Machnic@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kristin.perrone@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ronnie.smith@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jake.verne@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tom.neve@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiainfo@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SalesAcademey@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tony.carter@ukg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kate.Gendi@ukg.com  </t>
+  </si>
+  <si>
+    <t>blake.molitor@ukg.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arun.rawat@veradigm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nehal.mishra@veradigm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clement.anthony@veradigm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranali.bhurke@veradigm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kalyani.muley@veradigm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clemeny.Anthony@veradigm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slrecruitments@veradigm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catherine.Wormington@veradigm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">payerinsights@veradigm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jill.Strassler@veradigm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">payersolutions@veradigm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindsey.perrin@veradigm.com  </t>
+  </si>
+  <si>
+    <t>Jason.Tape@veradigm.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrikrishna.wavle@teradata.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinesh.senapaty@teradata.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neha.jaiswal@teradata.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abdulqayyum.kadri@teradata.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunil.kamath@teradata.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">darren.baharrizki@teradata.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mayur.waghmode@teradata.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arvind.bashaboina@teradata.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carol.maginn@teradata.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">field.events@teradata.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhinava.verma@teradata.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event.Questions@teradata.com  </t>
+  </si>
+  <si>
+    <t>John.Myers@teradata.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankur.panghal@sprinklr.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jyoti.singla@sprinklr.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aakriti.tyagi@sprinklr.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mansi.bhayana@sprinklr.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ravikumar.d@sprinklr.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">richard.brownlie@sprinklr.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaibhav.bansal@sprinklr.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajay.apur@sprinklr.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">john.szabo@sprinklr.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tavish.chadha@sprinklr.com  </t>
+  </si>
+  <si>
+    <t>aayushman.mishra@sprinklr.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c-kalyani.markande@icertis.com  </t>
+  </si>
+  <si>
+    <t>pia.straub@icertis.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_rumman.reza@innovaccer.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_vijay.laxmi@innovaccer.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankur.kumar@innovaccer.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashish.singh@innovaccer.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jyoti.kaushik@innovaccer.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankita.agarwal@innovaccer.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">erin.boor@innovaccer.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_rahul.singh@innovaccer.com  </t>
+  </si>
+  <si>
+    <t>C_Rahul.singh@innovaccer.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shubham.sharma1@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avani.pathak@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheetal.gs@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">charu.gulati@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">felix.lobo@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyadarsini.swain@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">savneet.sandhu@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bathula.bharadwaja@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nikita.singh@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saurabh.adke@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dimple.prasad@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chris.abrehart@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nick.cooper@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">john.chiswell@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chris.calverley@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelly.machacek@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">charlie.fiander@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">henry.dearlove@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nancy.gigante@avalara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gvrbcgsk.roth@avalara.com  </t>
+  </si>
+  <si>
+    <t>pauloricardo.stradioti@avalara.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prashanta@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahulks@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gayatriv@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">santhoshl@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mtummalapenta@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nrani@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">asrivastava@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jrajasekaran@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jbkoshiya@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nsvadhaiya@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">srbansal@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aupadhyay@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nagarwalla@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arkrishnan@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pmpatel@tekion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rwilliams@tekion.com  </t>
+  </si>
+  <si>
+    <t>divyam@tekion.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siddhant.sethia@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lahari.tammirisi@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shailesh.maurya@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sherli.steffi@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amrita.sinha@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arpan.ramtek@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">babita.khemani@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shruti.joshi@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rashmi.dixith@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufal.mahajan@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtarun@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kevin.santhosh@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.tarun@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagar.sharma@leadsquared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashish.aggarwal@leadsquared.com  </t>
+  </si>
+  <si>
+    <t>sooraj.subramanian@leadsquared.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivansh.s@greyorange.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pratiksha.m@greyorange.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gourav.s@greyorange.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ravi.prakash@greyorange.com  </t>
+  </si>
+  <si>
+    <t>dhruv.p@greyorange.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charly.newton-coombs@e2open.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">srinivasarao.koppurauri@e2open.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jake.pitney@e2open.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sushmitha.g@e2open.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">summer.schutte@e2open.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">linda.asohan@e2open.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neeraj.bhargava@e2open.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bianca.zanetti@e2open.com  </t>
+  </si>
+  <si>
+    <t>phil.birch@e2open.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divya.yandava@subex.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamina.dadra@subex.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahul.k@subex.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">narpat.singh@subex.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">akila.alayil@subex.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sumanth.c@subex.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanmaya.kr@subex.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aniruddha.choudhury@subex.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rishav.sinha@subex.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@subex.com  </t>
+  </si>
+  <si>
+    <t>investorrelations@subex.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amittal@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dishali.wandile@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banushree.c@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">varun.ramesh@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosemary.c@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunil.raina@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sayanika.c@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">allen.louis@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suresh.c@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shubhangi.deshpande@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhishek.garg@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamlesh.Borde@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nikhil.c@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajeshwar.pillay@quickheal.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhruvi.desai01+Pm@quickheal.com  </t>
+  </si>
+  <si>
+    <t>omkar.shenolikar@quickheal.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darshit.mehta@zycus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankit.aggarwal@zycus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seepz.consultant@zycus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnati.Chheda@Zycus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyanka.sharma@zycus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kanishka.ghosh@zycus.com  </t>
+  </si>
+  <si>
+    <t>chiranjeev.sethi@zycus.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr@hackerrank.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">careers@thoughtworks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">susan.s@ericsson.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">careers@curemetrix.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr@uptake.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">akash.singh@razorpay.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs@samsara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyanka.sharma@netapp.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr@lenskart.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudhakar.r@accenture.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nashit@jpmorgan.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashutosh.srivastava@citi.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr@target.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs@salesforce.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">career@tcs.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anil.m@cognizant.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr@ibm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">careers@kpmg.com  </t>
   </si>
 </sst>
 </file>
@@ -8840,7 +10274,177 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9241,10 +10845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:A2918"/>
+  <dimension ref="A1:A3396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2914" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2934" sqref="A2934"/>
+    <sheetView tabSelected="1" topLeftCell="A3357" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3395" sqref="A3395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10029,7 +11633,7 @@
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -23843,18 +25447,2415 @@
         <v>2917</v>
       </c>
     </row>
+    <row r="2919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2919" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2920" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2921" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2922" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2923" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2924" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2925" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2926" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2927" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2928" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2929" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2930" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2931" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2932" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2933" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2934" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2935" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2936" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2937" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2938" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2939" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2940" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2941" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2942" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2943" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2944" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2945" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2946" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2947" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2948" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2949" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2950" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2951" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2952" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2953" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2954" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2955" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2956" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2957" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2958" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2959" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2960" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2961" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2962" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2963" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2964" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2965" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2966" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2967" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2968" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2969" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2970" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2971" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2972" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2973" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2974" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2975" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2976" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2977" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2978" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2979" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2980" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2981" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2982" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2983" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2984" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2985" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2986" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2987" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2988" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2989" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2990" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2991" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2992" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2993" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2994" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2995" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2996" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2997" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2998" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2999" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3000" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3001" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3002" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3003" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3004" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3005" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3006" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3007" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3008" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3009" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3010" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3011" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3012" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3013" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3014" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3015" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3016" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3017" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3018" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3019" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3020" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3021" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3022" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3023" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3024" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3025" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3026" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3027" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3028" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3029" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3030" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3031" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3032" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3033" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3034" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3035" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3036" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3037" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3038" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3039" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3040" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3041" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3042" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3043" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3044" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3045" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3046" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3047" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3048" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3049" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3050" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3051" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3052" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3053" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3054" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3055" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3056" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3057" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3058" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3059" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3060" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3061" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3062" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3063" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3064" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3065" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3066" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3067" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3068" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3069" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3070" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3071" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3072" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3073" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3074" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3075" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3076" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3077" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3078" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3079" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3080" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3081" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3082" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3083" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3084" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3085" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3086" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3087" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3088" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3089" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3090" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3091" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3092" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3093" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3094" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3095" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3096" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3097" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3098" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3099" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3100" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3101" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3102" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3103" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3104" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3105" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3106" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3107" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3108" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3109" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3110" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3111" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3112" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3113" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3114" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3115" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3116" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3117" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3118" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3119" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3120" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3121" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3122" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3123" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3124" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3125" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3126" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3127" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3128" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3129" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3130" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3131" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3132" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3133" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3134" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3135" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3136" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3137" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3138" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3139" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3140" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3141" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3142" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3143" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3144" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3145" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3146" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3147" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3148" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3149" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3150" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3151" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3152" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3153" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3154" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3155" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3156" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3157" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3158" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3159" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3160" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3161" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3162" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3163" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3164" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3165" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3166" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3167" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3168" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3169" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3170" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3171" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3172" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3173" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3174" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3175" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3176" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3177" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3178" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3179" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3180" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3181" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3182" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3183" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3184" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3185" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3186" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3187" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3188" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3189" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3190" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3191" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3192" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3193" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3194" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3195" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3196" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3197" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3198" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3199" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3200" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3201" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3202" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3203" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3204" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3205" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3206" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3207" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3208" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3209" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3210" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3211" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3212" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3213" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3214" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3215" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3216" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3217" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3218" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3219" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3220" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3221" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3222" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3223" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3224" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3225" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3226" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3227" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3228" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3229" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3230" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3231" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3232" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3233" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3234" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3235" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3236" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3237" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3238" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3239" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3240" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3241" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3242" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3243" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3244" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3245" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3246" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3247" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3248" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3249" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3250" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3251" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3252" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3253" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3254" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3255" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3256" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3257" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3258" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3259" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3260" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3261" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3262" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3263" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3264" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3265" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3266" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3267" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3268" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3269" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3270" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3271" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3272" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3273" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3274" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3275" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3276" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3277" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3278" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3279" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3280" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3281" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3282" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3283" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3284" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3285" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3286" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3287" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3288" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3289" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3290" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3291" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3292" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3293" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3294" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3295" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3296" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3297" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3298" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3299" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3300" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3301" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3302" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3303" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3304" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3305" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3306" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3307" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3308" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3309" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3310" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3311" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3312" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3313" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3314" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3315" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3316" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3317" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3318" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3319" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3320" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3321" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3322" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3323" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3324" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3325" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3326" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3327" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3328" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3329" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3330" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3331" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3332" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3333" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3334" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3335" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3336" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3337" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3338" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3339" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3340" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3341" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3342" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3343" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3344" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3345" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3346" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3347" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3348" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3349" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3350" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3351" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3352" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3353" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3354" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3355" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3356" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3357" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3358" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3359" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3360" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3361" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3362" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3363" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3364" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3365" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3366" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3367" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3368" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3369" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3370" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3371" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3372" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3373" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3374" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3375" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3376" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3377" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3378" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3379" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3380" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3381" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3382" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3383" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3384" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3385" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3386" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3387" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3388" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3389" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3390" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3391" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3392" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3393" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3394" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3395" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3396" t="s">
+        <v>3395</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1551 A1553:A1571 A1579:A1650 A1655:A1765 A1770:A1810 A1817:A1831 A1833:A1852 A1854:A1872 A1909:A2042 A2049:A2066 A2070:A2093 A2115:A2164 A2169:A2180 A2188:A2195 A2201:A2219 A2224:A2229 A2234:A2251 A2257:A2302 A2317:A2320 A2322:A2338 A2378:A2411 A2426:A2436 A2479:A2513 A2522:A2539 A2551:A2599 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A1048576">
+  <conditionalFormatting sqref="A1:A1551 A1553:A1571 A1579:A1650 A1655:A1765 A1770:A1810 A1817:A1831 A1833:A1852 A1854:A1872 A1909:A2042 A2049:A2066 A2070:A2093 A2115:A2164 A2169:A2180 A2188:A2195 A2201:A2219 A2224:A2229 A2234:A2251 A2257:A2302 A2317:A2320 A2322:A2338 A2378:A2411 A2426:A2436 A2479:A2513 A2522:A2539 A2551:A2599 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2601 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2635 A2637:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1013:A1044 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A639 A666:A763 A769:A795 A797:A862 A870:A935 A938:A990 A994:A1009 A1047:A1102 A1105:A1197 A1205:A1269 A1271:A1279 A1281:A1284 A1295 A1301:A1303 A1309:A1331 A1349:A1426 A1430 A1433:A1501 A1511:A1551 A1553:A1571 A1579:A1650 A1655:A1765 A1770:A1810 A1817:A1831 A1833:A1852 A1854:A1872 A1909:A2042 A2049:A2066 A2070:A2093 A2115:A2164 A2169:A2180 A2188:A2195 A2201:A2219 A2224:A2229 A2234:A2251 A2257:A2302 A2317:A2320 A2322:A2338 A2378:A2411 A2426:A2436 A2479:A2513 A2522:A2539 A2551:A2599 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
     <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2601 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1013:A1044 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A639 A666:A763 A769:A795 A797:A862 A870:A935 A938:A990 A994:A1009 A1047:A1102 A1105:A1197 A1205:A1269 A1271:A1279 A1281:A1284 A1295 A1301:A1303 A1309:A1331 A1349:A1426 A1430 A1433:A1501 A1511:A1551 A1553:A1571 A1579:A1650 A1655:A1765 A1770:A1810 A1817:A1831 A1833:A1852 A1854:A1872 A1909:A2042 A2049:A2066 A2070:A2093 A2115:A2164 A2169:A2180 A2188:A2195 A2201:A2219 A2224:A2229 A2234:A2251 A2257:A2302 A2317:A2320 A2322:A2338 A2378:A2411 A2426:A2436 A2479:A2513 A2522:A2539 A2551:A2599 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2635 A2637:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A1048576">
+  <conditionalFormatting sqref="A1:A3314 A3316:A3371 A3375:A3396 A3406:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -23863,6 +27864,7 @@
     <hyperlink ref="A1284" r:id="rId3" xr:uid="{A3978156-E658-4D25-BFB6-42D123C35BB9}"/>
     <hyperlink ref="A69" r:id="rId4" xr:uid="{7ACA5F15-BF6F-4E4B-AD53-DCCE6E223598}"/>
     <hyperlink ref="A497" r:id="rId5" xr:uid="{68CE9F8F-86C4-409D-9B0F-669EC39F478F}"/>
+    <hyperlink ref="A156" r:id="rId6" xr:uid="{4D81D815-B8BA-4D0F-8A3B-5C035B28AD1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BBDF97-5A2B-42E6-A2CB-EA466730F7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5ACA41-1167-4887-858F-0EE3668D4F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="3396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="3440">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -10222,6 +10222,138 @@
   </si>
   <si>
     <t xml:space="preserve">careers@kpmg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scam@mcafee.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neil_tyagi@mcafee.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">somethingsomething@mcafee.com  </t>
+  </si>
+  <si>
+    <t>valerie_lenihan@mcafee.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stephanie.jones1@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ichrak.mekni@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrinidhi.kannan@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">john.c@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sayantan.karmakar@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashish.jaiswal1@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomer.dobershtein@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">edward.connolly@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">callum.crowe@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecosystemproservices@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gille.smits@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dario.radosevic@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liviu.mandru@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">silentsentinel.infoservice@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leon.dsouza@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">justin.macdaniel@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anton.bouwer@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">consultant@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marsha.tart@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATInfo@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">offthebeat@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark.coughlan@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kruba.andalnesan@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drnaffiliate.managers@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">malgorzata.duniec@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaroslaw.Magera@motorolasolutions.com  </t>
+  </si>
+  <si>
+    <t>jeff.corr@motorolasolutions.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careers@darwinbox.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapna.rani@acuitykp.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nikhil.tyagi@acuitykp.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anandan.selvam@o9solutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_shilpa.narayana@o9solutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reddy.babu@o9solutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_suchismita.swami@o9solutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kausik.pradhan@o9solutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kusuma.manjunath@o9solutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vignesh.venkatesan@o9solutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minerva@o9solutions.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuvraj.uppal@mapmyindia.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">piyushmittal92555@gmail.com  </t>
   </si>
 </sst>
 </file>
@@ -10274,97 +10406,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10845,10 +10887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:A3396"/>
+  <dimension ref="A1:A3440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3357" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3395" sqref="A3395"/>
+    <sheetView tabSelected="1" topLeftCell="A3434" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3445" sqref="A3445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27837,25 +27879,248 @@
         <v>3395</v>
       </c>
     </row>
+    <row r="3397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3397" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3398" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3399" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3400" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3401" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3402" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3403" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3404" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3405" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3406" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3407" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3408" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3409" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3410" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3411" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3412" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3413" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3414" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3415" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3416" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3417" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3418" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3419" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3420" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3421" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3422" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3423" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3424" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3425" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3426" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3427" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3428" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3429" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3430" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3431" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3432" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3433" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3434" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3435" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3436" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3437" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3438" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3439" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3440" t="s">
+        <v>3439</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1551 A1553:A1571 A1579:A1650 A1655:A1765 A1770:A1810 A1817:A1831 A1833:A1852 A1854:A1872 A1909:A2042 A2049:A2066 A2070:A2093 A2115:A2164 A2169:A2180 A2188:A2195 A2201:A2219 A2224:A2229 A2234:A2251 A2257:A2302 A2317:A2320 A2322:A2338 A2378:A2411 A2426:A2436 A2479:A2513 A2522:A2539 A2551:A2599 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+  <conditionalFormatting sqref="A1:A1551 A1553:A1571 A1579:A1650 A1655:A1765 A1770:A1810 A1817:A1831 A1833:A1852 A1854:A1872 A1909:A2042 A2049:A2066 A2070:A2093 A2115:A2164 A2169:A2180 A2188:A2195 A2201:A2219 A2224:A2229 A2234:A2251 A2257:A2302 A2317:A2320 A2322:A2338 A2378:A2411 A2426:A2436 A2479:A2513 A2522:A2539 A2551:A2599 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A3440 A3444:A1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2601 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+  <conditionalFormatting sqref="A1:A2601 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A3440 A3444:A1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2635 A2637:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A1048576">
+  <conditionalFormatting sqref="A1:A2635 A2637:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A3440 A3444:A1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A3440 A3444:A1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
     <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1013:A1044 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A639 A666:A763 A769:A795 A797:A862 A870:A935 A938:A990 A994:A1009 A1047:A1102 A1105:A1197 A1205:A1269 A1271:A1279 A1281:A1284 A1295 A1301:A1303 A1309:A1331 A1349:A1426 A1430 A1433:A1501 A1511:A1551 A1553:A1571 A1579:A1650 A1655:A1765 A1770:A1810 A1817:A1831 A1833:A1852 A1854:A1872 A1909:A2042 A2049:A2066 A2070:A2093 A2115:A2164 A2169:A2180 A2188:A2195 A2201:A2219 A2224:A2229 A2234:A2251 A2257:A2302 A2317:A2320 A2322:A2338 A2378:A2411 A2426:A2436 A2479:A2513 A2522:A2539 A2551:A2599 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+  <conditionalFormatting sqref="A1:A3314 A3316:A3371 A3375:A3396 A3406:A3440 A3444:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1013:A1044 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A639 A666:A763 A769:A795 A797:A862 A870:A935 A938:A990 A994:A1009 A1047:A1102 A1105:A1197 A1205:A1269 A1271:A1279 A1281:A1284 A1295 A1301:A1303 A1309:A1331 A1349:A1426 A1430 A1433:A1501 A1511:A1551 A1553:A1571 A1579:A1650 A1655:A1765 A1770:A1810 A1817:A1831 A1833:A1852 A1854:A1872 A1909:A2042 A2049:A2066 A2070:A2093 A2115:A2164 A2169:A2180 A2188:A2195 A2201:A2219 A2224:A2229 A2234:A2251 A2257:A2302 A2317:A2320 A2322:A2338 A2378:A2411 A2426:A2436 A2479:A2513 A2522:A2539 A2551:A2599 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A3440 A3444:A1048576">
     <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3314 A3316:A3371 A3375:A3396 A3406:A1048576">
+  <conditionalFormatting sqref="A1:A3440 A3444:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5ACA41-1167-4887-858F-0EE3668D4F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D02018-1D96-44BE-B508-4B4E486DFE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$3571</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="3440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4194" uniqueCount="4194">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -1926,9 +1929,6 @@
     <t xml:space="preserve">gayatri.panikkar@socialbeat.in  </t>
   </si>
   <si>
-    <t xml:space="preserve">tuvhsk@gmail.com  </t>
-  </si>
-  <si>
     <t xml:space="preserve">akshayagrao@subhanu.com  </t>
   </si>
   <si>
@@ -10353,14 +10353,2279 @@
     <t xml:space="preserve">yuvraj.uppal@mapmyindia.com  </t>
   </si>
   <si>
-    <t xml:space="preserve">piyushmittal92555@gmail.com  </t>
+    <t xml:space="preserve">annjoly@fico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinakargade@fico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">claytondukes@fico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jackie@jackiemack.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4er@ampl.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SusanneHeipcke@fico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FICOScoreInfo@fico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clayton.Dukes@FICO.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficoworld@fico.com  </t>
+  </si>
+  <si>
+    <t>hbadda@informatica.com</t>
+  </si>
+  <si>
+    <t>pooj@informatica.com</t>
+  </si>
+  <si>
+    <t>joyjenkins@informatica.com</t>
+  </si>
+  <si>
+    <t>agowda@informatica.com</t>
+  </si>
+  <si>
+    <t>infaformicrosoft@informatica.com</t>
+  </si>
+  <si>
+    <t>pradeep@informatica.com</t>
+  </si>
+  <si>
+    <t>pku@informatica.com</t>
+  </si>
+  <si>
+    <t>dzevon@informatica.com</t>
+  </si>
+  <si>
+    <t>skannan@informatica.com</t>
+  </si>
+  <si>
+    <t>Mbracke@Informatica.com</t>
+  </si>
+  <si>
+    <t>anil.mallikarjuna@oracle.com</t>
+  </si>
+  <si>
+    <t>cyril.george@gm.com</t>
+  </si>
+  <si>
+    <t>talent@capillarytech.com</t>
+  </si>
+  <si>
+    <t>neha.lakhwani@capillarytech.com</t>
+  </si>
+  <si>
+    <t>sukhesh.vinayakam@capillarytech.com</t>
+  </si>
+  <si>
+    <t>jubin.mehta@capillarytech.com</t>
+  </si>
+  <si>
+    <t>snigdha.rawat@capillarytech.com</t>
+  </si>
+  <si>
+    <t>secretarial@capillarytech.com</t>
+  </si>
+  <si>
+    <t>hardik.gupta@capillarytech.com</t>
+  </si>
+  <si>
+    <t>mukta.naregal@capillarytech.com</t>
+  </si>
+  <si>
+    <t>Namrata.chandegave@alterahealth.com</t>
+  </si>
+  <si>
+    <t>Mahasweta.Chakraborty@alterahealth.com</t>
+  </si>
+  <si>
+    <t>richa.agarwal@alterahealth.com</t>
+  </si>
+  <si>
+    <t>manoj.pachpute@alterahealth.com</t>
+  </si>
+  <si>
+    <t>kiran.sharma@alterahealth.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaijeyanthi.k@capgemini.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w11-mfellerer@VMware.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scalableserver@VMware.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cto@gardnersystems.co.uk  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blogs.@VMware.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cci@vmware.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jtrotter@vmware.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yzadok@akamai.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tovadia@akamai.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flame@akamai.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chlouis@akamai.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chros@akamai.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yguedj@akamai.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gsayag@akamai.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adondish@akamai.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfederov@akamai.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfins@akamai.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">steeuwen@akamai.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anubha.saini@pharmeasy.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amrita.gurung@pharmeasy.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reema.shetty@pharmeasy.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarovar@pharmeasy.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">corporates@pharmeasy.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tejaswini.rajashekar@mathco.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kreethi.mishra@mathco.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarita.jha@mathco.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ishikakamani@urbancompany.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">malashree.k2@cmegroup.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiamme.fernandes@trent-tata.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GenAI@mathco.com  </t>
+  </si>
+  <si>
+    <t>namank@micron.com</t>
+  </si>
+  <si>
+    <t>amohdmansor@micron.com</t>
+  </si>
+  <si>
+    <t>smuniyappa@micron.com</t>
+  </si>
+  <si>
+    <t>jsurigi@micron.com</t>
+  </si>
+  <si>
+    <t>schelmilla@micron.com</t>
+  </si>
+  <si>
+    <t>shalemt@micron.com</t>
+  </si>
+  <si>
+    <t>ggrandhivenk@micron.com</t>
+  </si>
+  <si>
+    <t>zzoeloh@micron.com</t>
+  </si>
+  <si>
+    <t>pusparaja@micron.com</t>
+  </si>
+  <si>
+    <t>timchuang@micron.com</t>
+  </si>
+  <si>
+    <t>ubujala@micron.com</t>
+  </si>
+  <si>
+    <t>sivajyothia@micron.com</t>
+  </si>
+  <si>
+    <t>pgawatre@micron.com</t>
+  </si>
+  <si>
+    <t>thiruselvan@micron.com</t>
+  </si>
+  <si>
+    <t>revponakalla@micron.com</t>
+  </si>
+  <si>
+    <t>skharayat@micron.com</t>
+  </si>
+  <si>
+    <t>nitikap@micron.com</t>
+  </si>
+  <si>
+    <t>moisesespino@micron.com</t>
+  </si>
+  <si>
+    <t>info@vlsiforall.com</t>
+  </si>
+  <si>
+    <t>ysikarwar@micron.com</t>
+  </si>
+  <si>
+    <t>pvanapalli@micron.com</t>
+  </si>
+  <si>
+    <t>Parulp@micron.com</t>
+  </si>
+  <si>
+    <t>adrien.howard@ukg.com</t>
+  </si>
+  <si>
+    <t>brendan.kelly@ukg.com</t>
+  </si>
+  <si>
+    <t>chirag.agarwal@ukg.com</t>
+  </si>
+  <si>
+    <t>creighton.gerlach@ukg.com</t>
+  </si>
+  <si>
+    <t>dana.noone@ukg.com</t>
+  </si>
+  <si>
+    <t>debbie.schafer@ukg.com</t>
+  </si>
+  <si>
+    <t>deborah.maysonet@ukg.com</t>
+  </si>
+  <si>
+    <t>dean.cowles@ukg.com</t>
+  </si>
+  <si>
+    <t>erica.shirley@ukg.com</t>
+  </si>
+  <si>
+    <t>gaurav.singh@ukg.com</t>
+  </si>
+  <si>
+    <t>grace.jackson@ukg.com</t>
+  </si>
+  <si>
+    <t>hailey.paternoster@ukg.com</t>
+  </si>
+  <si>
+    <t>indiainfo@ukg.com</t>
+  </si>
+  <si>
+    <t>jake.verne@ukg.com</t>
+  </si>
+  <si>
+    <t>jatin.parkash@ukg.com</t>
+  </si>
+  <si>
+    <t>jeremy.disher@ukg.com</t>
+  </si>
+  <si>
+    <t>jess.foury@ukg.com</t>
+  </si>
+  <si>
+    <t>kate.gendi@ukg.com</t>
+  </si>
+  <si>
+    <t>kristin.perrone@ukg.com</t>
+  </si>
+  <si>
+    <t>lindsey.zai@ukg.com</t>
+  </si>
+  <si>
+    <t>luke.hackner@ukg.com</t>
+  </si>
+  <si>
+    <t>luke.shover@ukg.com</t>
+  </si>
+  <si>
+    <t>media@ukg.com</t>
+  </si>
+  <si>
+    <t>michael.mercado@ukg.com</t>
+  </si>
+  <si>
+    <t>nick.sams@ukg.com</t>
+  </si>
+  <si>
+    <t>nicholas.joseph@ukg.com</t>
+  </si>
+  <si>
+    <t>priya.mehrotra@ukg.com</t>
+  </si>
+  <si>
+    <t>radhika.mahajan@ukg.com</t>
+  </si>
+  <si>
+    <t>rohit.garg@ukg.com</t>
+  </si>
+  <si>
+    <t>ronnie.smith@ukg.com</t>
+  </si>
+  <si>
+    <t>salesacademey@ukg.com</t>
+  </si>
+  <si>
+    <t>shefali.gupta@ukg.com</t>
+  </si>
+  <si>
+    <t>shrikant.walvekar@ukg.com</t>
+  </si>
+  <si>
+    <t>siddhanth.nigam@ukg.com</t>
+  </si>
+  <si>
+    <t>tim.atyeo@ukg.com</t>
+  </si>
+  <si>
+    <t>tiffany.machnic@ukg.com</t>
+  </si>
+  <si>
+    <t>tom.neve@ukg.com</t>
+  </si>
+  <si>
+    <t>tony.carter@ukg.com</t>
+  </si>
+  <si>
+    <t>ukgcareers@ukg.com</t>
+  </si>
+  <si>
+    <t>vaibhav.nagpure@ukg.com</t>
+  </si>
+  <si>
+    <t>yoko.garn@ukg.com</t>
+  </si>
+  <si>
+    <t>dmunikrishnap@fortinet.com</t>
+  </si>
+  <si>
+    <t>alon.hadad@hpe.com</t>
+  </si>
+  <si>
+    <t>arun-shankar.maurya@hpe.com</t>
+  </si>
+  <si>
+    <t>arun.nagaraj@hpe.com</t>
+  </si>
+  <si>
+    <t>ashwini.miniyar@hpe.com</t>
+  </si>
+  <si>
+    <t>barb.kiernan@hpe.com</t>
+  </si>
+  <si>
+    <t>bijoyaditya.chowdhury@hpe.com</t>
+  </si>
+  <si>
+    <t>buvan.nair@hpe.com</t>
+  </si>
+  <si>
+    <t>education.ro@hpe.com</t>
+  </si>
+  <si>
+    <t>ellis-edward.wright@hpe.com</t>
+  </si>
+  <si>
+    <t>erate@hpe.com</t>
+  </si>
+  <si>
+    <t>fernie@hpe.com</t>
+  </si>
+  <si>
+    <t>gaurav.saini@hpe.com</t>
+  </si>
+  <si>
+    <t>govfunding@hpe.com</t>
+  </si>
+  <si>
+    <t>gunja.singh@hpe.com</t>
+  </si>
+  <si>
+    <t>harry.thomason@hpe.com</t>
+  </si>
+  <si>
+    <t>interns@hpe.com</t>
+  </si>
+  <si>
+    <t>jaden.rafferty@hpe.com</t>
+  </si>
+  <si>
+    <t>jean.giles@hpe.com</t>
+  </si>
+  <si>
+    <t>jennifer.martin@hpe.com</t>
+  </si>
+  <si>
+    <t>jrobbins@hpe.com</t>
+  </si>
+  <si>
+    <t>kim.agertoft@hpe.com</t>
+  </si>
+  <si>
+    <t>kyle.prass@hpe.com</t>
+  </si>
+  <si>
+    <t>max.beauchamp@hpe.com</t>
+  </si>
+  <si>
+    <t>melissa.brown@hpe.com</t>
+  </si>
+  <si>
+    <t>mike.d.rouch@hpe.com</t>
+  </si>
+  <si>
+    <t>morpheus_communityedition@hpe.com</t>
+  </si>
+  <si>
+    <t>matthew.sanchez@hpe.com</t>
+  </si>
+  <si>
+    <t>mychal.nichols@hpe.com</t>
+  </si>
+  <si>
+    <t>neha-ext@hpe.com</t>
+  </si>
+  <si>
+    <t>nikhilk@hpe.com</t>
+  </si>
+  <si>
+    <t>noor.mohammed-m@hpe.com</t>
+  </si>
+  <si>
+    <t>partner.response.center@hpe.com</t>
+  </si>
+  <si>
+    <t>peterr@hpe.com</t>
+  </si>
+  <si>
+    <t>prasannap@hpe.com</t>
+  </si>
+  <si>
+    <t>pratik-arun.singh@hpe.com</t>
+  </si>
+  <si>
+    <t>priya.d-costa@hpe.com</t>
+  </si>
+  <si>
+    <t>rajesh.b@hpe.com</t>
+  </si>
+  <si>
+    <t>rahul.verma@hpe.com</t>
+  </si>
+  <si>
+    <t>rakeshk@hpe.com</t>
+  </si>
+  <si>
+    <t>roopa.v@hpe.com</t>
+  </si>
+  <si>
+    <t>scott.carter@hpe.com</t>
+  </si>
+  <si>
+    <t>seena.saleena@hpe.com</t>
+  </si>
+  <si>
+    <t>shilpa.m-ext@hpe.com</t>
+  </si>
+  <si>
+    <t>steve.gobinet-ext@hpe.com</t>
+  </si>
+  <si>
+    <t>suman.r@hpe.com</t>
+  </si>
+  <si>
+    <t>syed.anshuddin@hpe.com</t>
+  </si>
+  <si>
+    <t>thomas.porteous@hpe.com</t>
+  </si>
+  <si>
+    <t>van-looveren@hpe.com</t>
+  </si>
+  <si>
+    <t>v-r-gnana.prasad@hpe.com</t>
+  </si>
+  <si>
+    <t>will.thorpe@hpe.com</t>
+  </si>
+  <si>
+    <t>wireless@hpe.com</t>
+  </si>
+  <si>
+    <t>wolfger.peelaers@hpe.com</t>
+  </si>
+  <si>
+    <t>yaniv.norman@hpe.com</t>
+  </si>
+  <si>
+    <t>yaswanth.b@hpe.com</t>
+  </si>
+  <si>
+    <t>zertovidar@hpe.com</t>
+  </si>
+  <si>
+    <t>ajesh.nair@upstox.com</t>
+  </si>
+  <si>
+    <t>campus-recruiting@theupstox.com</t>
+  </si>
+  <si>
+    <t>careers@upstox.com</t>
+  </si>
+  <si>
+    <t>compliance@rksv.in</t>
+  </si>
+  <si>
+    <t>compliance@upstox.com</t>
+  </si>
+  <si>
+    <t>complaints.mcx@upstox.com</t>
+  </si>
+  <si>
+    <t>complaints@upstox.com</t>
+  </si>
+  <si>
+    <t>infosec@upstox.com</t>
+  </si>
+  <si>
+    <t>nickil.gowda@upstox.com</t>
+  </si>
+  <si>
+    <t>nishith.maniar@theupstox.com</t>
+  </si>
+  <si>
+    <t>recruiting@theupstox.com</t>
+  </si>
+  <si>
+    <t>shrabani.baruah@rksv.in</t>
+  </si>
+  <si>
+    <t>ericssonedge.academia@ericsson.com</t>
+  </si>
+  <si>
+    <t>sanjay.odedra@ericsson.com</t>
+  </si>
+  <si>
+    <t>hr.support@ericsson.com</t>
+  </si>
+  <si>
+    <t>eipl.compliance@ericsson.com</t>
+  </si>
+  <si>
+    <t>asad.b.khan@ericsson.com</t>
+  </si>
+  <si>
+    <t>nisha.a.kumari@ericsson.com</t>
+  </si>
+  <si>
+    <t>kajal.sharma@ericsson.com</t>
+  </si>
+  <si>
+    <t>prafulla.deori@ericsson.com</t>
+  </si>
+  <si>
+    <t>meng.xie@ericsson.com</t>
+  </si>
+  <si>
+    <t>yunus.donmez@ericsson.com</t>
+  </si>
+  <si>
+    <t>kavitha.e@ericsson.com</t>
+  </si>
+  <si>
+    <t>daniel.iglesias@ericsson.com</t>
+  </si>
+  <si>
+    <t>mahmoud.hussein@ericsson.com</t>
+  </si>
+  <si>
+    <t>doug.booth@ericsson.com</t>
+  </si>
+  <si>
+    <t>aparajita.chaudhuri@ericsson.com</t>
+  </si>
+  <si>
+    <t>Mohamed.el.sawy@ericsson.com</t>
+  </si>
+  <si>
+    <t>Ahmed.yassin@ericsson.com</t>
+  </si>
+  <si>
+    <t>mohamed.ebeid@ericsson.com</t>
+  </si>
+  <si>
+    <t>salah.barakat@ericsson.com</t>
+  </si>
+  <si>
+    <t>fadi.pharaon@ericsson.com</t>
+  </si>
+  <si>
+    <t>shubham.b.kumar@ericsson.com</t>
+  </si>
+  <si>
+    <t>dkumar@theporter.in</t>
+  </si>
+  <si>
+    <t>rishabh.tyagi@theporter.in</t>
+  </si>
+  <si>
+    <t>deepak.pushparaj@theporter.in</t>
+  </si>
+  <si>
+    <t>vimal.chandran@theporter.in</t>
+  </si>
+  <si>
+    <t>yash.sureka@theporter.in</t>
+  </si>
+  <si>
+    <t>varun@yellow.ai</t>
+  </si>
+  <si>
+    <t>anubhav.singh@yellow.ai</t>
+  </si>
+  <si>
+    <t>rahul.jain@pinelabs.com</t>
+  </si>
+  <si>
+    <t>shailesh.singh@pinelabs.com</t>
+  </si>
+  <si>
+    <t>mukesh.malik@pinelabs.com</t>
+  </si>
+  <si>
+    <t>aswadev.suresh@pinelabs.com</t>
+  </si>
+  <si>
+    <t>nandini.sharma@razorpay.com</t>
+  </si>
+  <si>
+    <t>dhrupen.kumar@razorpay.com</t>
+  </si>
+  <si>
+    <t>priyanka.chugh@stl.tech</t>
+  </si>
+  <si>
+    <t>kaushal.joshi@stl.tech</t>
+  </si>
+  <si>
+    <t>robert.jones5@verizon.com</t>
+  </si>
+  <si>
+    <t>carlos.arcila@verizon.com</t>
+  </si>
+  <si>
+    <t>angel.gonzalez1@verizon.com</t>
+  </si>
+  <si>
+    <t>digitalready@verizon.com</t>
+  </si>
+  <si>
+    <t>legaladvisoryboard@verizon.com</t>
+  </si>
+  <si>
+    <t>now4wrc23gritworkshop@verizon.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarvagya.jain@pharmeasy.in </t>
+  </si>
+  <si>
+    <t>anmol.dang@pharmeasy.in</t>
+  </si>
+  <si>
+    <t>nikita.toshi@pharmeasy.in</t>
+  </si>
+  <si>
+    <t>roneesh.paulose@pharmeasy.in</t>
+  </si>
+  <si>
+    <t>vishnu.ps@pharmeasy.in</t>
+  </si>
+  <si>
+    <t>lingaraj.nayak@tigeranalytics.com</t>
+  </si>
+  <si>
+    <t>indhu.velusamy@cognizant.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumar.anant@navi.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manty.ciel@navi.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarun.jain@navi.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aman.ciel@navi.com  </t>
+  </si>
+  <si>
+    <t>Sukhjot.singh@navi.com</t>
+  </si>
+  <si>
+    <t>sunil.k@navi.com</t>
+  </si>
+  <si>
+    <t>julia_flores@cargill.com</t>
+  </si>
+  <si>
+    <t>khanitta_kayasit@cargill.com</t>
+  </si>
+  <si>
+    <t>Cliff_Rodriguez@cargill.com</t>
+  </si>
+  <si>
+    <t>vaishali_radhakrishnan@cargill.com</t>
+  </si>
+  <si>
+    <t>ann_horack@cargill.com</t>
+  </si>
+  <si>
+    <t>dave_espuerta@cargill.com</t>
+  </si>
+  <si>
+    <t>marcosricardo_infantesgarcia@cargill.com</t>
+  </si>
+  <si>
+    <t>laurence_mills@cargill.com</t>
+  </si>
+  <si>
+    <t>lucas_de_oliveira@cargill.com</t>
+  </si>
+  <si>
+    <t>josh_hushon@cargill.com</t>
+  </si>
+  <si>
+    <t>matthew_pickles@cargill.com</t>
+  </si>
+  <si>
+    <t>colombia_reclutamiento@cargill.com</t>
+  </si>
+  <si>
+    <t>HR-Guayaquil_reclutamiento@cargill.com</t>
+  </si>
+  <si>
+    <t>Kimberly_blancomarn@cargill.com</t>
+  </si>
+  <si>
+    <t>catalina_alfaro@cargill.com</t>
+  </si>
+  <si>
+    <t>Melania_Mora_Alvarez@cargill.com</t>
+  </si>
+  <si>
+    <t>M_mora@cargill.com</t>
+  </si>
+  <si>
+    <t>Cindy_trejosorozco@cargill.com</t>
+  </si>
+  <si>
+    <t>Recrutements.ci@cargill.com</t>
+  </si>
+  <si>
+    <t>Nicaragua_Reclutamiento@cargill.com</t>
+  </si>
+  <si>
+    <t>valeria_alvarezpardo@cargill.com</t>
+  </si>
+  <si>
+    <t>ana_gomezrojas@cargill.com</t>
+  </si>
+  <si>
+    <t>fale_conosco@cargill.com</t>
+  </si>
+  <si>
+    <t>rodrigo_teixeira@cargill.com</t>
+  </si>
+  <si>
+    <t>reclutamiento_Ecuador@cargill.com</t>
+  </si>
+  <si>
+    <t>david_olivo@cargill.com</t>
+  </si>
+  <si>
+    <t>susy_miranda@cargill.com</t>
+  </si>
+  <si>
+    <t>gloria_martinezderico@cargill.com</t>
+  </si>
+  <si>
+    <t>Kevin.Noe@target.com</t>
+  </si>
+  <si>
+    <t>Quentin.Wright@target.com</t>
+  </si>
+  <si>
+    <t>sunil.chhabria@target.com</t>
+  </si>
+  <si>
+    <t>Sai.Kukkadapu@target.com</t>
+  </si>
+  <si>
+    <t>vinay.m@target.com</t>
+  </si>
+  <si>
+    <t>Sumit.Jha@target.com</t>
+  </si>
+  <si>
+    <t>seema.das@target.com</t>
+  </si>
+  <si>
+    <t>danielle.mork@target.com</t>
+  </si>
+  <si>
+    <t>Preeti.Chatterjee@Target.com</t>
+  </si>
+  <si>
+    <t>anitha.a1@target.com</t>
+  </si>
+  <si>
+    <t>nidhi.sakunia@target.com</t>
+  </si>
+  <si>
+    <t>Jessica.Barker@Target.com</t>
+  </si>
+  <si>
+    <t>hari.cp@target.com</t>
+  </si>
+  <si>
+    <t>WholesaleOwnedBrands@target.com</t>
+  </si>
+  <si>
+    <t>rachel.nees@target.com</t>
+  </si>
+  <si>
+    <t>amrutha.r@target.com</t>
+  </si>
+  <si>
+    <t>Abdallah.Drea@target.com</t>
+  </si>
+  <si>
+    <t>smungara@opentext.com</t>
+  </si>
+  <si>
+    <t>rchattreedut@opentext.com</t>
+  </si>
+  <si>
+    <t>rshahpurkar@opentext.com</t>
+  </si>
+  <si>
+    <t>corbinc@opentext.com</t>
+  </si>
+  <si>
+    <t>hnutakki@opentext.com</t>
+  </si>
+  <si>
+    <t>baljinders@opentext.com</t>
+  </si>
+  <si>
+    <t>rvl@opentext.com</t>
+  </si>
+  <si>
+    <t>sramboini@opentext.com</t>
+  </si>
+  <si>
+    <t>hparveen@opentext.com</t>
+  </si>
+  <si>
+    <t>plobello@opentext.com</t>
+  </si>
+  <si>
+    <t>archanaa@opentext.com</t>
+  </si>
+  <si>
+    <t>akumars@opentext.com</t>
+  </si>
+  <si>
+    <t>gts-india-referrals@opentext.com</t>
+  </si>
+  <si>
+    <t>mjain2@opentext.com</t>
+  </si>
+  <si>
+    <t>bpatel3@opentext.com</t>
+  </si>
+  <si>
+    <t>abrahamr@opentext.com</t>
+  </si>
+  <si>
+    <t>sgulyani@opentext.com</t>
+  </si>
+  <si>
+    <t>vmarthala@opentext.com</t>
+  </si>
+  <si>
+    <t>ppadmanabhan@opentext.com</t>
+  </si>
+  <si>
+    <t>mmukundadap@opentext.com</t>
+  </si>
+  <si>
+    <t>rranjan2@opentext.com</t>
+  </si>
+  <si>
+    <t>jboggarapu@opentext.com</t>
+  </si>
+  <si>
+    <t>ejaiswal@opentext.com</t>
+  </si>
+  <si>
+    <t>mmukunddadap@opentext.com</t>
+  </si>
+  <si>
+    <t>mmorgan@opentext.com</t>
+  </si>
+  <si>
+    <t>sprasad7@opentext.com</t>
+  </si>
+  <si>
+    <t>smungara2@opentext.com</t>
+  </si>
+  <si>
+    <t>dpanneerselv@opentext.com</t>
+  </si>
+  <si>
+    <t>jessj@opentext.com</t>
+  </si>
+  <si>
+    <t>msrivastava@opentext.com</t>
+  </si>
+  <si>
+    <t>nmollah@opentext.com</t>
+  </si>
+  <si>
+    <t>jvaughan@opentext.com</t>
+  </si>
+  <si>
+    <t>jtranter@opentext.com</t>
+  </si>
+  <si>
+    <t>eegner@opentext.com</t>
+  </si>
+  <si>
+    <t>tpierre@opentext.com</t>
+  </si>
+  <si>
+    <t>SecurityServices@opentext.com</t>
+  </si>
+  <si>
+    <t>dolson@opentext.com</t>
+  </si>
+  <si>
+    <t>mahawkins@opentext.com</t>
+  </si>
+  <si>
+    <t>sasthana@opentext.com</t>
+  </si>
+  <si>
+    <t>mbieber@opentext.com</t>
+  </si>
+  <si>
+    <t>emrlink-sales@opentext.com</t>
+  </si>
+  <si>
+    <t>kaa@opentext.com</t>
+  </si>
+  <si>
+    <t>jabeens@opentext.com</t>
+  </si>
+  <si>
+    <t>rjivani@opentext.com</t>
+  </si>
+  <si>
+    <t>bmackenzie@opentext.com</t>
+  </si>
+  <si>
+    <t>rgupta9@opentext.com</t>
+  </si>
+  <si>
+    <t>aparkalaheri@opentext.com</t>
+  </si>
+  <si>
+    <t>pnowlan@opentext.com</t>
+  </si>
+  <si>
+    <t>dseverino@opentext.com</t>
+  </si>
+  <si>
+    <t>Wcole@opentext.com</t>
+  </si>
+  <si>
+    <t>rbooth@opentext.com</t>
+  </si>
+  <si>
+    <t>finchm@opentext.com</t>
+  </si>
+  <si>
+    <t>cottewill@opentext.com</t>
+  </si>
+  <si>
+    <t>jbrett@opentext.com</t>
+  </si>
+  <si>
+    <t>csahoo@opentext.com</t>
+  </si>
+  <si>
+    <t>Skarishma@opentext.com</t>
+  </si>
+  <si>
+    <t>mjain5@opentext.com</t>
+  </si>
+  <si>
+    <t>digitalopssales.tr@opentext.com</t>
+  </si>
+  <si>
+    <t>mkaya@opentext.com</t>
+  </si>
+  <si>
+    <t>fragen-an-den-presenter@opentext.com</t>
+  </si>
+  <si>
+    <t>sruthner@opentext.com</t>
+  </si>
+  <si>
+    <t>rupindar@browserstack.com</t>
+  </si>
+  <si>
+    <t>amrin@browserstack.com</t>
+  </si>
+  <si>
+    <t>princeton.b@browserstack.com</t>
+  </si>
+  <si>
+    <t>meghna@browserstack.com</t>
+  </si>
+  <si>
+    <t>pronoy.a@browserstack.com</t>
+  </si>
+  <si>
+    <t>jasjeet.s@browserstack.com</t>
+  </si>
+  <si>
+    <t>shreya.m@browserstack.com</t>
+  </si>
+  <si>
+    <t>kshitij.r@browserstack.com</t>
+  </si>
+  <si>
+    <t>shivangini@browserstack.com</t>
+  </si>
+  <si>
+    <t>bhaven@browserstack.com</t>
+  </si>
+  <si>
+    <t>abhinav.sr@browserstack.com</t>
+  </si>
+  <si>
+    <t>daksh.s@browserstack.com</t>
+  </si>
+  <si>
+    <t>faraday_ramos@optum.com</t>
+  </si>
+  <si>
+    <t>ricamay_balino@optum.com</t>
+  </si>
+  <si>
+    <t>nino_manalo@optum.com</t>
+  </si>
+  <si>
+    <t>laura.cornell@optum.com</t>
+  </si>
+  <si>
+    <t>laura.cisneros@optum.com</t>
+  </si>
+  <si>
+    <t>erin.miller1@optum.com</t>
+  </si>
+  <si>
+    <t>poonam_pawar@optum.com</t>
+  </si>
+  <si>
+    <t>jesus_labadia@optum.com</t>
+  </si>
+  <si>
+    <t>piyush_tyagi@optum.com</t>
+  </si>
+  <si>
+    <t>netdevind@optum.com</t>
+  </si>
+  <si>
+    <t>lera.dancel@optum.com</t>
+  </si>
+  <si>
+    <t>sai_kopparapu@optum.com</t>
+  </si>
+  <si>
+    <t>anjali_wani@optum.com</t>
+  </si>
+  <si>
+    <t>ted_hermosisima@optum.com</t>
+  </si>
+  <si>
+    <t>vikramraja.sampathraja@optum.com</t>
+  </si>
+  <si>
+    <t>helen_pairazaman@optum.com</t>
+  </si>
+  <si>
+    <t>abby_brend@optum.com</t>
+  </si>
+  <si>
+    <t>subhransu_tripathi@optum.com</t>
+  </si>
+  <si>
+    <t>njain@optum.com</t>
+  </si>
+  <si>
+    <t>ashokkumar.chindiri@optum.com</t>
+  </si>
+  <si>
+    <t>vijairaman.athmanathan@optum.com</t>
+  </si>
+  <si>
+    <t>sundar_akella@optum.com</t>
+  </si>
+  <si>
+    <t>rob_mccranie@optum.com</t>
+  </si>
+  <si>
+    <t>ida.mercy@optum.com</t>
+  </si>
+  <si>
+    <t>daimaris_raleigh@optum.com</t>
+  </si>
+  <si>
+    <t>kristine_tan@optum.com</t>
+  </si>
+  <si>
+    <t>vignesh.manivannan@optum.com</t>
+  </si>
+  <si>
+    <t>Valene.vetack@optum.com</t>
+  </si>
+  <si>
+    <t>Lindsey.bair@optum.com</t>
+  </si>
+  <si>
+    <t>pooja.pushparaj@optum.com</t>
+  </si>
+  <si>
+    <t>sharma_abhishek6@optum.com</t>
+  </si>
+  <si>
+    <t>Andrew_Kriss@optum.com</t>
+  </si>
+  <si>
+    <t>Shobana.n@optum.com</t>
+  </si>
+  <si>
+    <t>terri_tansil@optum.com</t>
+  </si>
+  <si>
+    <t>seenimani.anburajan@optum.com</t>
+  </si>
+  <si>
+    <t>kimberly_crotty@optum.com</t>
+  </si>
+  <si>
+    <t>erin_yanak@optum.com</t>
+  </si>
+  <si>
+    <t>askoptum@optum.com</t>
+  </si>
+  <si>
+    <t>maryjoyce.lorica@optum.com</t>
+  </si>
+  <si>
+    <t>reydiane.ramos@optum.com</t>
+  </si>
+  <si>
+    <t>marleana.matthews@optum.com</t>
+  </si>
+  <si>
+    <t>ashraffshaik.mohammad@optum.com</t>
+  </si>
+  <si>
+    <t>malay_shukla@optum.com</t>
+  </si>
+  <si>
+    <t>Jessica_guzman@optum.com</t>
+  </si>
+  <si>
+    <t>candace.gaddis@optum.com</t>
+  </si>
+  <si>
+    <t>jeremias_recamadas@optum.com</t>
+  </si>
+  <si>
+    <t>sandhya_k@optum.com</t>
+  </si>
+  <si>
+    <t>jarred_demoss@optum.com</t>
+  </si>
+  <si>
+    <t>randall.morrison@optum.com</t>
+  </si>
+  <si>
+    <t>chc_providersolutions@optum.com</t>
+  </si>
+  <si>
+    <t>marvin_bersubio@optum.com</t>
+  </si>
+  <si>
+    <t>rahul_dwivedi@optum.com</t>
+  </si>
+  <si>
+    <t>Laura_Cornell@Optum.com</t>
+  </si>
+  <si>
+    <t>bernd.blasczyk@sapiens.com</t>
+  </si>
+  <si>
+    <t>lacite@restaurants-sapiens.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gowri_gurusamy@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">santanu_chakraborty@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tejender_gothra@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">megha_tyagi@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikram_Koteswararao@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amar_mali@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jyothirmayee_arigala@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arnika_Wadhawan@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankit_vyas@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prasanthi_bontha@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritu_Sain@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deepika_birje@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">viswanathan_v@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megha_bansal@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anandakumar_raman@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rekha_malleshappa@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">namrata_yadav@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pradeep_solai@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">balamurali_krishna@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghanshyam_shinde@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhruv_tak@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farzana_andrabi@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nancy_khandelwal@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramesh_Chekuri@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sahil_kumar@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nandini_matla@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashwinkumar_pt@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sachin_singh@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFACampus@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">satish_parmeshwar@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajat_joshi@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">roopa_gopal@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankitaarun_mahale@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meghna_gupta@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">disha_jagzap@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">madhumita_singh@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sundeep_kumar@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">srividhya_p@epam.com  </t>
+  </si>
+  <si>
+    <t>medhaagarwal@policybazaar.com</t>
+  </si>
+  <si>
+    <t>Bhagyashreeverma@policybazaar.com</t>
+  </si>
+  <si>
+    <t>binetadas@policybazaar.com</t>
+  </si>
+  <si>
+    <t>krishanswarnkar@policybazaar.com</t>
+  </si>
+  <si>
+    <t>shrutikataria@policybazaar.com</t>
+  </si>
+  <si>
+    <t>himanshiverma@policybazaar.com</t>
+  </si>
+  <si>
+    <t>pranshulkatariya@policybazaar.com</t>
+  </si>
+  <si>
+    <t>chahatgupta@policybazaar.com</t>
+  </si>
+  <si>
+    <t>sumankumari@policybazaar.com</t>
+  </si>
+  <si>
+    <t>yashasvinibhat@policybazaar.com</t>
+  </si>
+  <si>
+    <t>debayandas@policybazaar.com</t>
+  </si>
+  <si>
+    <t>ashwanialonia@policybazaar.com</t>
+  </si>
+  <si>
+    <t>ankittiwari@policybazaar.com</t>
+  </si>
+  <si>
+    <t>Sumankumari1@policybazaar.com</t>
+  </si>
+  <si>
+    <t>Kanishkabisht@policybazaar.com</t>
+  </si>
+  <si>
+    <t>nikitajaiswal@policybazaar.com</t>
+  </si>
+  <si>
+    <t>Priyanshibajpai@policybazaar.com</t>
+  </si>
+  <si>
+    <t>manharleenkhurana@policybazaar.com</t>
+  </si>
+  <si>
+    <t>Tamannachauhan@policybazaar.com</t>
+  </si>
+  <si>
+    <t>Amannegi@policybazaar.com</t>
+  </si>
+  <si>
+    <t>lokeshyadav1@policybazaar.com</t>
+  </si>
+  <si>
+    <t>priyasingh@policybazaar.com</t>
+  </si>
+  <si>
+    <t>sumitverma@policybazaar.com</t>
+  </si>
+  <si>
+    <t>yuvrajajmani@policybazaar.com</t>
+  </si>
+  <si>
+    <t>zoyahasan@policybazaar.com</t>
+  </si>
+  <si>
+    <t>yashvisingh@policybazaar.com</t>
+  </si>
+  <si>
+    <t>soniyatomar@policybazaar.com</t>
+  </si>
+  <si>
+    <t>varunchikara@policybazaar.com</t>
+  </si>
+  <si>
+    <t>Pankaj@policybazaar.com</t>
+  </si>
+  <si>
+    <t>simranbagga@policybazaar.com</t>
+  </si>
+  <si>
+    <t>aryansharan@policybazaar.com</t>
+  </si>
+  <si>
+    <t>at-yuktimalhotra@policybazaar.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankit.kawadiya@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumit.sharma1@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">atal.sharma@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail-debasish.tripathy@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avinash.rajore@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kreeti.jha.ext@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arpit.singh@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prateek.kumar@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">akram.khan@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakesh.bhonde@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanmay.chakraborty@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">design@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amit.vashishtha@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pankaj.kumar@Bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishwajeet.nandi@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">puneet.saxena@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikash.pandey1@Bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ravi.ranjan2@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">veerabathiran.k@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaswinder.singh@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansoor.habib@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aashish.wadhwa@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saif.khan@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nirbhay.tiwari@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seema.sarawgi@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail-rakesh.bhonde@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gourav.garg@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanjay.rana@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sourav.ghosh@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadeep.kumar@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhishek.kanade@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gowtham.srinivasan@bharatpe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pradeep.pandey1@bharatpe.com  </t>
+  </si>
+  <si>
+    <t>honganh.nguyen@rakuten.com</t>
+  </si>
+  <si>
+    <t>info@webscrapingexpert.com</t>
+  </si>
+  <si>
+    <t>noel.anthony@rakuten.com</t>
+  </si>
+  <si>
+    <t>zinedine.makhloufi@rakuten.com</t>
+  </si>
+  <si>
+    <t>sharad.tiltiya@rakuten.com</t>
+  </si>
+  <si>
+    <t>rahul.mishra@rakuten.com</t>
+  </si>
+  <si>
+    <t>rakutencardlinkedoffers@rakuten.com</t>
+  </si>
+  <si>
+    <t>hoangson.nguyen@rakuten.com</t>
+  </si>
+  <si>
+    <t>cardlinkedoffers@rakuten.com</t>
+  </si>
+  <si>
+    <t>vandhana.v@rakuten.com</t>
+  </si>
+  <si>
+    <t>amit.a.gupta@rakuten.com</t>
+  </si>
+  <si>
+    <t>vikas.c.kumar@rakuten.com</t>
+  </si>
+  <si>
+    <t>rfv-rs_recruitment@rakuten.com</t>
+  </si>
+  <si>
+    <t>Ram.Sharma@Rakuten.com</t>
+  </si>
+  <si>
+    <t>srashti.shukla@rakuten.com</t>
+  </si>
+  <si>
+    <t>viki-RS_recruitment@rakuten.com</t>
+  </si>
+  <si>
+    <t>naushad.saifi@rakuten.com</t>
+  </si>
+  <si>
+    <t>yuliia.bilozer@rakuten.com</t>
+  </si>
+  <si>
+    <t>dipil.tomy@rakuten.com</t>
+  </si>
+  <si>
+    <t>saurabh.kumar@rakuten.com</t>
+  </si>
+  <si>
+    <t>manikanta.kamisetty@rakuten.com</t>
+  </si>
+  <si>
+    <t>santu.acharya@rakuten.com</t>
+  </si>
+  <si>
+    <t>nishant.gaurav@rakuten.com</t>
+  </si>
+  <si>
+    <t>prajakti.hatwar@rakuten.com</t>
+  </si>
+  <si>
+    <t>anil.nayak@rakuten.com</t>
+  </si>
+  <si>
+    <t>ar-sakshi.shrivas@rakuten.com</t>
+  </si>
+  <si>
+    <t>yogeetha.bm@manipalhospitals.com</t>
+  </si>
+  <si>
+    <t>anshul.tripathi1@sterlite.com</t>
+  </si>
+  <si>
+    <t>sweta.lal@orientbell.com</t>
+  </si>
+  <si>
+    <t>jinal.kariya@iifl.com</t>
+  </si>
+  <si>
+    <t>arana@phoenixcontact.co.in</t>
+  </si>
+  <si>
+    <t>jyoti.singla@sprinklr.com</t>
+  </si>
+  <si>
+    <t>ankur.panghal@sprinklr.com</t>
+  </si>
+  <si>
+    <t>aakriti.tyagi@sprinklr.com</t>
+  </si>
+  <si>
+    <t>mansi.bhayana@sprinklr.com</t>
+  </si>
+  <si>
+    <t>ravikumar.d@sprinklr.com</t>
+  </si>
+  <si>
+    <t>richard.brownlie@sprinklr.com</t>
+  </si>
+  <si>
+    <t>tavish.chadha@sprinklr.com</t>
+  </si>
+  <si>
+    <t>chandrasekha.dwivedi@servicenow.com</t>
+  </si>
+  <si>
+    <t>amstradeshows@servicenow.com</t>
+  </si>
+  <si>
+    <t>goolamnabbie.aziz@servicenow.com</t>
+  </si>
+  <si>
+    <t>olivia.hambert@servicenow.com</t>
+  </si>
+  <si>
+    <t>ankita.kokas@jiostar.com</t>
+  </si>
+  <si>
+    <t>sai.krishna@jiostar.com</t>
+  </si>
+  <si>
+    <t>entadsolutions@jiostar.com</t>
+  </si>
+  <si>
+    <t>kevin.raju@jiostar.com</t>
+  </si>
+  <si>
+    <t>anushreekini.tpa@jiostar.com</t>
+  </si>
+  <si>
+    <t>HR@Media.net</t>
+  </si>
+  <si>
+    <t>dan@danrayburn.com</t>
+  </si>
+  <si>
+    <t>desiplaytv@jiostar.com</t>
+  </si>
+  <si>
+    <t>Jackie.Thakkar@jiostar.com</t>
+  </si>
+  <si>
+    <t>aayushi.kedia@jiostar.com</t>
+  </si>
+  <si>
+    <t>salesenquiries@jiostar.com</t>
+  </si>
+  <si>
+    <t>Renata.fernandes@jiostar.com</t>
+  </si>
+  <si>
+    <t>Sandip.mohanty@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Nardus.booyse@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>henry.makgoba@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Donovan.schultz@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Daniel.tlailane@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Eliphas.mthimunye@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Chris.vanschalkwyk@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Charles.lessing@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Lucas.cofa@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Joseph.mlangeni@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Ettiene.berner@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>samuel.ndlovu@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>sara.simao@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Nithin.n.suresh@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>dtsea_hr@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>andi.a.nurfadila@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>adhir.harriepersadh@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>bigc.van_oosterbos@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>David.Simm@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>dcnapreowned@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>sandown@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>bmbrecursoshumanos@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>ewa.szczepanik@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>kariera.buses@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>info-retail@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>lukas.jiran@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>recrutaredtbr@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Mattias.Wahmstedt@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Mathias.Bergvall@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>info.setra@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>handlowy-dtfs@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>DCNAMarketing@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>tanuj.dutta@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>niklas.ihle@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>geral-alverca@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>recrutamento_mbt@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>tmt@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>mbox_seleccion_samano@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>guillaume.godron@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>hr-mbtnl@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>extern_lynn.vandecappelle@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>additive-manufacturing-solutions@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>juliani_guerreir.sousa@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>infocamionesybuses@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>nalleli.gonzalez@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>HRbusesmexico@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>recrut.molsheim@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>bicsupport@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>okan.otuz@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>salesnl@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>lorenzo.rondelli@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>gustavo.nunes@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>lkw-miete-mannheim@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>susann.wunsch@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>niels.lankhof@daimlertruck.com</t>
+  </si>
+  <si>
+    <t>Recruit.communications@volvo.com</t>
+  </si>
+  <si>
+    <t>volvo.jobs.hub@volvo.com</t>
+  </si>
+  <si>
+    <t>usedtrucks@volvo.com</t>
+  </si>
+  <si>
+    <t>Khushboo.kothari@volvo.com</t>
+  </si>
+  <si>
+    <t>yasmine.kousar@volvo.com</t>
+  </si>
+  <si>
+    <t>shreyashi.saha@volvo.com</t>
+  </si>
+  <si>
+    <t>spoorthi.das@volvo.com</t>
+  </si>
+  <si>
+    <t>deepak.sharma.2@volvo.com</t>
+  </si>
+  <si>
+    <t>prabu.krishnan@volvo.com</t>
+  </si>
+  <si>
+    <t>paul.fleet@volvo.com</t>
+  </si>
+  <si>
+    <t>fareeda.j.h@volvo.com</t>
+  </si>
+  <si>
+    <t>Debbie.walsh@volvo.com</t>
+  </si>
+  <si>
+    <t>steven.worts@volvo.com</t>
+  </si>
+  <si>
+    <t>nicholas.singh@volvo.com</t>
+  </si>
+  <si>
+    <t>kathiresaprabu.s@volvo.com</t>
+  </si>
+  <si>
+    <t>yugen.raj@volvo.com</t>
+  </si>
+  <si>
+    <t>sanjay.gnanaeswaran@volvo.com</t>
+  </si>
+  <si>
+    <t>steffen.wieners@volvo.com</t>
+  </si>
+  <si>
+    <t>visvanathan.naicker@volvo.com</t>
+  </si>
+  <si>
+    <t>sarah.frew@volvo.com</t>
+  </si>
+  <si>
+    <t>clara.bjorkberg@volvo.com</t>
+  </si>
+  <si>
+    <t>ryan.jones@volvo.com</t>
+  </si>
+  <si>
+    <t>sales.bess@volvo.com</t>
+  </si>
+  <si>
+    <t>Kyle.Zimmerman@volvo.com</t>
+  </si>
+  <si>
+    <t>Russell.keenan@volvo.com</t>
+  </si>
+  <si>
+    <t>ian.laverie@volvo.com</t>
+  </si>
+  <si>
+    <t>barry.knight@volvo.com</t>
+  </si>
+  <si>
+    <t>tommy.stewart@volvo.com</t>
+  </si>
+  <si>
+    <t>extern.sonali.jagadale@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>extern.janhavi.rane@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>tejas.khati@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>sagar.mankar@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>pritam.shinde@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>amit.sinha@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>vaibhav.ghadage@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>sagar.jadhav1@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>extern.tejashree.kawade@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>anshul.deshpande@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>mayuri.kulkarni@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>extern.punit.savala@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>extern.sejal.agarwal@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>snehal.chavan@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>extern.meetu.devi@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>extern.hemangi.kane@volkswagen.co.in</t>
+  </si>
+  <si>
+    <t>tanu.singh@airtel.com</t>
+  </si>
+  <si>
+    <t>shalini.rai@airtel.com</t>
+  </si>
+  <si>
+    <t>neha.kohli@airtel.com</t>
+  </si>
+  <si>
+    <t>chitransh.joshi@airtel.com</t>
+  </si>
+  <si>
+    <t>prakash.prusty@airtel.com</t>
+  </si>
+  <si>
+    <t>rahul.mishra3@airtel.com</t>
+  </si>
+  <si>
+    <t>labhanshi.sharma@airtel.com</t>
+  </si>
+  <si>
+    <t>lisaa.kataria@airtel.com</t>
+  </si>
+  <si>
+    <t>maneesh.r@airtel.com</t>
+  </si>
+  <si>
+    <t>ashwini.handoo@airtel.com</t>
+  </si>
+  <si>
+    <t>shivani.kesherwani@airtel.com</t>
+  </si>
+  <si>
+    <t>priyanshu.pandey@airtel.com</t>
+  </si>
+  <si>
+    <t>ashish3.sharma@airtel.com</t>
+  </si>
+  <si>
+    <t>adit.narayan@airtel.com</t>
+  </si>
+  <si>
+    <t>shraddha.shrinet@airtel.com</t>
+  </si>
+  <si>
+    <t>hemani.kohli1@airtel.com</t>
+  </si>
+  <si>
+    <t>vidya.nehe@airtel.com</t>
+  </si>
+  <si>
+    <t>santosh.kumari@airtel.com</t>
+  </si>
+  <si>
+    <t>shashank3.shekhar@airtel.com</t>
+  </si>
+  <si>
+    <t>ananya.singh@airtel.com</t>
+  </si>
+  <si>
+    <t>bharti.bansal@airtel.com</t>
+  </si>
+  <si>
+    <t>shriraksha.kulkarni@airtel.com</t>
+  </si>
+  <si>
+    <t>lucky.shahi@airtel.com</t>
+  </si>
+  <si>
+    <t>navpreet.kaur@airtel.com</t>
+  </si>
+  <si>
+    <t>laxmi.gautam@airtel.com</t>
+  </si>
+  <si>
+    <t>gitika.patiyal@airtel.com</t>
+  </si>
+  <si>
+    <t>adil.khan1@airtel.com</t>
+  </si>
+  <si>
+    <t>sweety.angiya@airtel.com</t>
+  </si>
+  <si>
+    <t>shivani.sundriyal@airtel.com</t>
+  </si>
+  <si>
+    <t>aditi.gupta@airtel.com</t>
+  </si>
+  <si>
+    <t>chetan.dasari@airtel.com</t>
+  </si>
+  <si>
+    <t>hari.o.pandey@airtel.com</t>
+  </si>
+  <si>
+    <t>faaiza.fatima@airtel.com</t>
+  </si>
+  <si>
+    <t>praveen.vijayarangan@airtel.com</t>
+  </si>
+  <si>
+    <t>zaheer.khan@airtel.com</t>
+  </si>
+  <si>
+    <t>pragati.acharya@airtel.com</t>
+  </si>
+  <si>
+    <t>varsha.kushwah@airtel.com</t>
+  </si>
+  <si>
+    <t>prashant.negi1@airtel.com</t>
+  </si>
+  <si>
+    <t>shivali.saxena@airtel.com</t>
+  </si>
+  <si>
+    <t>swati.dhasmana@airtel.com</t>
+  </si>
+  <si>
+    <t>savitha.bair@airtel.com</t>
+  </si>
+  <si>
+    <t>nishi.yadav@airtel.com</t>
+  </si>
+  <si>
+    <t>lata.k.kushwaha@airtel.com</t>
+  </si>
+  <si>
+    <t>sanjeeve.k@airtel.com</t>
+  </si>
+  <si>
+    <t>mehak.sharma@airtel.com</t>
+  </si>
+  <si>
+    <t>manvi.arora@airtel.com</t>
+  </si>
+  <si>
+    <t>sakshi.bhardwaj@airtel.com</t>
+  </si>
+  <si>
+    <t>ankita.singh@airtel.com</t>
+  </si>
+  <si>
+    <t>gaurav.tiwari@airtel.com</t>
+  </si>
+  <si>
+    <t>samiksha.negi@airtel.com</t>
+  </si>
+  <si>
+    <t>ravi.ahuja@airtel.com</t>
+  </si>
+  <si>
+    <t>sushit.sharma@airtel.com</t>
+  </si>
+  <si>
+    <t>anubha.saini@airtel.com</t>
+  </si>
+  <si>
+    <t>anjali.rawat@airtel.com</t>
+  </si>
+  <si>
+    <t>jayesh.sarvaiya@airtel.com</t>
+  </si>
+  <si>
+    <t>anil.nirmal@airtel.com</t>
+  </si>
+  <si>
+    <t>aanchal.nijhawan@airtel.com</t>
+  </si>
+  <si>
+    <t>priyanka7.singh@airtel.com</t>
+  </si>
+  <si>
+    <t>santu.dubey@airtel.com</t>
+  </si>
+  <si>
+    <t>noopur.mohe@airtel.com</t>
+  </si>
+  <si>
+    <t>neha.srivastava@airtel.com</t>
+  </si>
+  <si>
+    <t>suruchi.thakur@airtel.com</t>
+  </si>
+  <si>
+    <t>abhishek13.mishra@airtel.com</t>
+  </si>
+  <si>
+    <t>vishakha.arya@airtel.com</t>
+  </si>
+  <si>
+    <t>wasim.nagani@airtel.com</t>
+  </si>
+  <si>
+    <t>b.kirankumar@airtel.com</t>
+  </si>
+  <si>
+    <t>neha.thaledi@airtel.com</t>
+  </si>
+  <si>
+    <t>prakriti.mishra@airtel.com</t>
+  </si>
+  <si>
+    <t>shilpi.agarwal@airtel.com</t>
+  </si>
+  <si>
+    <t>punitb.majithia@airtel.com</t>
+  </si>
+  <si>
+    <t>shubhi.pathak@airtel.com</t>
+  </si>
+  <si>
+    <t>saloni.ajmera@airtel.com</t>
+  </si>
+  <si>
+    <t>saurabh.dubey@airtel.com</t>
+  </si>
+  <si>
+    <t>niteshwar.kumar@airtel.com</t>
+  </si>
+  <si>
+    <t>varsha.kushwaha@airtel.com</t>
+  </si>
+  <si>
+    <t>sandeep.m@airtel.com</t>
+  </si>
+  <si>
+    <t>shweta1.srivastava@airtel.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10372,6 +12637,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10398,25 +12670,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10887,654 +13150,775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:A3440"/>
+  <dimension ref="A1:B4194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3434" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3445" sqref="A3445"/>
+    <sheetView tabSelected="1" topLeftCell="A4183" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4195" sqref="A4195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="93.44140625" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
     <col min="3" max="3" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -13425,7 +15809,7 @@
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
+      <c r="A506" s="1" t="s">
         <v>505</v>
       </c>
     </row>
@@ -17310,12 +19694,12 @@
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1283" t="s">
+      <c r="A1283" s="1" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1284" s="1" t="s">
+      <c r="A1284" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -28099,37 +30483,3845 @@
         <v>3439</v>
       </c>
     </row>
+    <row r="3441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3441" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3442" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3443" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3444" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3445" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3446" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3447" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3448" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3449" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3450" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3451" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3452" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3453" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3454" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3455" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3456" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3457" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3458" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3459" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3460" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3461" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3462" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3463" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3464" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3465" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3466" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3467" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3468" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3469" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3470" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3471" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3472" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3473" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3474" s="1" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3475" s="1" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3476" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3477" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3478" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3479" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3480" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3481" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3482" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3483" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3484" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3485" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3486" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3487" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3488" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3489" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3490" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3491" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3492" s="1" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3493" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3494" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3495" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3496" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3497" s="1" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3498" s="1" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3499" s="1" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3500" s="1" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3501" s="1" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3502" s="1" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3503" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3504" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3505" s="1" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3506" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3507" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3508" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3509" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3510" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3511" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3512" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3513" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3514" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3515" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3516" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3517" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3518" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3519" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3520" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3521" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3522" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3523" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3524" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3525" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3526" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3527" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3528" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3529" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3530" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3531" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3532" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3533" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3534" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3535" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3536" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3537" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3538" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3539" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3540" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3541" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3542" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3543" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3544" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3545" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3546" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3547" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3548" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3549" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3550" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3551" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3552" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3553" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3554" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3555" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3556" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3557" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3558" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3559" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3560" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3561" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3562" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3563" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3564" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3565" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3566" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3567" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3568" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3569" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3570" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3571" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3572" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3573" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3574" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3575" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3576" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3577" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3578" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3579" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3580" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3581" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3582" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3583" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3584" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3585" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3586" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3587" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3588" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3589" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3590" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3591" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3592" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3593" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3594" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3595" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3596" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3597" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3598" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3599" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3600" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3601" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3602" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3603" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3604" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3605" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3606" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3607" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3608" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3609" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3610" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3611" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3612" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3613" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3614" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3615" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3616" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3617" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3618" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3619" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3620" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3621" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3622" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3623" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3624" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3625" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3626" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3627" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3628" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3629" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3630" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3631" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3632" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3633" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3634" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3635" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3636" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3637" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3638" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3639" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3640" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3641" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3642" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3643" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3644" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3645" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3646" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3647" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3648" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3649" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3650" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3651" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3652" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3653" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3654" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3655" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3656" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3657" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3658" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3659" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3660" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3661" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3662" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3663" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3664" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3665" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3666" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3667" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3668" s="1" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3669" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3670" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3671" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3672" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3673" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3674" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3675" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3676" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3677" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="3678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3678" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="3679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3679" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="3680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3680" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="3681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3681" s="1" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="3682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3682" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="3683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3683" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="3684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3684" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3685" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3686" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3687" s="1" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="3688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3688" s="1" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="3689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3689" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="3690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3690" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="3691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3691" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3692" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3693" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3694" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3695" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3696" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="3697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3697" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3698" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="3699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3699" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="3700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3700" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3701" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="3702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3702" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="3703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3703" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="3704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3704" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3705" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="3706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3706" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="3707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3707" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="3708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3708" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="3709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3709" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="3710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3710" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3711" t="s">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="3712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3712" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="3713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3713" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="3714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3714" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="3715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3715" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="3716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3716" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="3717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3717" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="3718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3718" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3719" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3720" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3721" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="3722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3722" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3723" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3724" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3725" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3726" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="3727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3727" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3728" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3729" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3730" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="3731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3731" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3732" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3733" s="1" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3734" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3735" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3736" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3737" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3738" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="3739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3739" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3740" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3741" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3742" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="3743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3743" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="3744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3744" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="3745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3745" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3746" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3747" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3748" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3749" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="3750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3750" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="3751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3751" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="3752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3752" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="3753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3753" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="3754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3754" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="3755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3755" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3756" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="3757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3757" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="3758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3758" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="3759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3759" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="3760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3760" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="3761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3761" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="3762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3762" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3763" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3764" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="3765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3765" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="3766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3766" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="3767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3767" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="3768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3768" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3769" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3770" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3771" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="3772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3772" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="3773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3773" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="3774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3774" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="3775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3775" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="3776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3776" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="3777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3777" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="3778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3778" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="3779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3779" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="3780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3780" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3781" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3782" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3783" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3784" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3785" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3786" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="3787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3787" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="3788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3788" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3789" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="3790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3790" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="3791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3791" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="3792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3792" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3793" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3794" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3795" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3796" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3797" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="3798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3798" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3799" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="3800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3800" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3801" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="3802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3802" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="3803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3803" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="3804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3804" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="3805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3805" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="3806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3806" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="3807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3807" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="3808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3808" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="3809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3809" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="3810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3810" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="3811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3811" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="3812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3812" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="3813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3813" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3814" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3815" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3816" t="s">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3817" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3818" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3819" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3820" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3821" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3822" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3823" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3824" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3825" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3826" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3827" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3828" t="s">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3829" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3830" t="s">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3831" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3832" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3833" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3834" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3835" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3836" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3837" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3838" t="s">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3839" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3840" t="s">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3841" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3842" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3843" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3844" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3845" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3846" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3847" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3848" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3849" t="s">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3850" t="s">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3851" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3852" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3853" t="s">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3854" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3855" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3856" t="s">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3857" t="s">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3858" t="s">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3859" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3860" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3861" t="s">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3862" t="s">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3863" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3864" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3865" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3866" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3867" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3868" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3869" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3870" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3871" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3872" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3873" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3874" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3875" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3876" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3877" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3878" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3879" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3880" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3881" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3882" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3883" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3884" t="s">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3885" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3886" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3887" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3888" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3889" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3890" t="s">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3891" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3892" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3893" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3894" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3895" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3896" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3897" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3898" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3899" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3900" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3901" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3902" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3903" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3904" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3905" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3906" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3907" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3908" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3909" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3910" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3911" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3912" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3913" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3914" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3915" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3916" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3917" t="s">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3918" t="s">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3919" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3920" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3921" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3922" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3923" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3924" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3925" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3926" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3927" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3928" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3929" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3930" t="s">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3931" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3932" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3933" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3934" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3935" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3936" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3937" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3938" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3939" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3940" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3941" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3942" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3943" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3944" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3945" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3946" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3947" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3948" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3949" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3950" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3951" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="3952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3952" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3953" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3954" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3955" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3956" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3957" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3958" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3959" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3960" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3961" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3962" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3963" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3964" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3965" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3966" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="3967" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3967" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3968" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3969" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3970" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3971" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3972" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3973" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3974" t="s">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3975" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3976" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="3977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3977" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3978" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3979" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3980" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3981" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="3982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3982" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3983" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3984" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3985" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3986" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3987" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3988" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3989" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3990" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3991" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="3992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3992" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="3993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3993" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="3994" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3994" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="3995" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3995" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="3996" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3996" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="3997" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3997" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="3998" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3998" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="3999" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3999" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="4000" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4000" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4001" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4002" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4003" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4004" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4005" t="s">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4006" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4007" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4008" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4009" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4010" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4011" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="4012" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4012" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4013" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4014" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4015" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4016" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4017" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4018" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4019" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4020" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4021" t="s">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4022" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4023" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4024" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4025" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4026" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="4027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4027" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4028" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4029" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4030" t="s">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4031" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4032" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4033" t="s">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4034" t="s">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4035" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4036" t="s">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4037" t="s">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4038" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4039" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4040" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4041" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4042" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4043" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4044" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4045" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4046" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4047" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4048" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4049" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4050" s="1" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4051" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4052" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4053" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4054" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4055" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4056" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4057" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4058" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4059" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4060" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4061" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4062" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4063" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4064" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4065" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4066" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4067" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4068" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4069" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4070" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4071" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4072" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4073" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4074" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4075" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4076" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4077" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4078" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4079" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4080" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4081" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4082" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4083" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4084" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4085" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4086" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4087" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4088" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4089" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4090" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4091" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4092" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4093" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4094" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4095" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4096" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4097" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4098" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4099" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4100" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4101" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4102" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4103" t="s">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4104" t="s">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4105" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4106" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4107" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4108" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4109" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4110" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4111" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4112" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4113" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4114" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4115" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4116" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4117" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4118" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4119" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4120" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4121" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4122" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4123" t="s">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4124" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4125" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4126" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4127" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4128" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4129" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4130" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4131" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4132" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4133" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4134" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4135" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4136" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4137" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4138" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4139" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4140" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4141" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4142" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="4143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4143" t="s">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="4144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4144" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="4145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4145" t="s">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="4146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4146" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="4147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4147" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="4148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4148" t="s">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="4149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4149" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4150" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4151" t="s">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4152" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4153" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4154" t="s">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4155" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4156" t="s">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="4157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4157" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4158" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4159" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4160" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4161" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="4162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4162" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="4163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4163" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="4164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4164" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="4165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4165" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4166" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="4167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4167" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="4168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4168" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="4169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4169" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="4170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4170" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="4171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4171" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="4172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4172" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="4173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4173" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="4174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4174" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="4175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4175" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="4176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4176" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="4177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4177" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="4178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4178" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="4179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4179" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="4180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4180" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="4181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4181" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="4182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4182" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="4183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4183" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="4184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4184" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="4185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4185" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="4186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4186" t="s">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="4187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4187" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="4188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4188" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="4189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4189" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="4190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4190" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="4191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4191" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="4192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4192" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="4193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4193" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="4194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4194" t="s">
+        <v>4193</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1551 A1553:A1571 A1579:A1650 A1655:A1765 A1770:A1810 A1817:A1831 A1833:A1852 A1854:A1872 A1909:A2042 A2049:A2066 A2070:A2093 A2115:A2164 A2169:A2180 A2188:A2195 A2201:A2219 A2224:A2229 A2234:A2251 A2257:A2302 A2317:A2320 A2322:A2338 A2378:A2411 A2426:A2436 A2479:A2513 A2522:A2539 A2551:A2599 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A3440 A3444:A1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+  <conditionalFormatting sqref="A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2601 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A3440 A3444:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+  <conditionalFormatting sqref="A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2635 A2637:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A3440 A3444:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+  <conditionalFormatting sqref="A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A3440 A3444:A1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3314 A3316:A3371 A3375:A3396 A3406:A3440 A3444:A1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1013:A1044 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A639 A666:A763 A769:A795 A797:A862 A870:A935 A938:A990 A994:A1009 A1047:A1102 A1105:A1197 A1205:A1269 A1271:A1279 A1281:A1284 A1295 A1301:A1303 A1309:A1331 A1349:A1426 A1430 A1433:A1501 A1511:A1551 A1553:A1571 A1579:A1650 A1655:A1765 A1770:A1810 A1817:A1831 A1833:A1852 A1854:A1872 A1909:A2042 A2049:A2066 A2070:A2093 A2115:A2164 A2169:A2180 A2188:A2195 A2201:A2219 A2224:A2229 A2234:A2251 A2257:A2302 A2317:A2320 A2322:A2338 A2378:A2411 A2426:A2436 A2479:A2513 A2522:A2539 A2551:A2599 A2605:A2619 A2627:A2631 A2638:A2688 A2700:A2740 A2770:A2799 A2804:A2834 A2839:A2845 A2848:A2892 A2894:A2958 A2989:A3090 A3101:A3129 A3135:A3151 A3155:A3196 A3204:A3228 A3235:A3254 A3256:A3314 A3316:A3371 A3375:A3396 A3406:A3440 A3444:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3440 A3444:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A239" r:id="rId1" xr:uid="{5825654D-468C-4EC2-A54B-BC3D3242EE16}"/>
     <hyperlink ref="A478" r:id="rId2" xr:uid="{4B6D3FC0-9F09-4B22-A08E-F37D2B08E6AF}"/>
-    <hyperlink ref="A1284" r:id="rId3" xr:uid="{A3978156-E658-4D25-BFB6-42D123C35BB9}"/>
+    <hyperlink ref="A1283" r:id="rId3" xr:uid="{A3978156-E658-4D25-BFB6-42D123C35BB9}"/>
     <hyperlink ref="A69" r:id="rId4" xr:uid="{7ACA5F15-BF6F-4E4B-AD53-DCCE6E223598}"/>
     <hyperlink ref="A497" r:id="rId5" xr:uid="{68CE9F8F-86C4-409D-9B0F-669EC39F478F}"/>
     <hyperlink ref="A156" r:id="rId6" xr:uid="{4D81D815-B8BA-4D0F-8A3B-5C035B28AD1C}"/>
+    <hyperlink ref="A506" r:id="rId7" xr:uid="{E45DD61B-26FC-42CD-9D4D-97E6B4055B7E}"/>
+    <hyperlink ref="A3668" r:id="rId8" xr:uid="{DFB081C8-AC8D-4EC1-99F6-50EF20493A61}"/>
+    <hyperlink ref="A3681" r:id="rId9" xr:uid="{8B7C7D49-7841-4C78-8298-FE54C61DA3F9}"/>
+    <hyperlink ref="A3498" r:id="rId10" xr:uid="{4C01E9F4-3FC8-4040-AD5E-F6F2446D4A66}"/>
+    <hyperlink ref="A3497" r:id="rId11" xr:uid="{082C214D-81D8-44D2-8487-03B5712CAC45}"/>
+    <hyperlink ref="A3499" r:id="rId12" xr:uid="{D4730765-1B2E-4E89-A8DE-29FD1A5D6C21}"/>
+    <hyperlink ref="A3500" r:id="rId13" xr:uid="{D0FDAFC1-96C3-45CB-AC85-F47EA60E9EBF}"/>
+    <hyperlink ref="A3501" r:id="rId14" xr:uid="{2A5536C7-E6BF-4A6F-AD45-F095183E44B6}"/>
+    <hyperlink ref="A3502" r:id="rId15" xr:uid="{829A3F71-7795-4FCF-A599-DDE9216CFAFA}"/>
+    <hyperlink ref="A3475" r:id="rId16" xr:uid="{5CD8B36C-3D83-401D-84D8-5E96CC251E87}"/>
+    <hyperlink ref="A3474" r:id="rId17" xr:uid="{292473D6-C819-4A5C-8557-9121BD6AB0D8}"/>
+    <hyperlink ref="A3684" r:id="rId18" xr:uid="{41FB7FBE-3725-4EDA-AA31-A5DB43E908F1}"/>
+    <hyperlink ref="A3688" r:id="rId19" xr:uid="{41213A1A-F81C-47D4-A376-D1EAD50BBB07}"/>
+    <hyperlink ref="A3687" r:id="rId20" xr:uid="{3839DB3F-C13D-4A9B-A4AD-42789C809C5D}"/>
+    <hyperlink ref="A3733" r:id="rId21" xr:uid="{EA46BE9F-E700-4516-9421-4A9CB0A51BD3}"/>
+    <hyperlink ref="A3492" r:id="rId22" xr:uid="{77331289-816C-41F7-8CEE-C7A84AEAB0D6}"/>
+    <hyperlink ref="A4050" r:id="rId23" xr:uid="{DE77D929-5804-4B21-9901-E74AE4EBC0CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D02018-1D96-44BE-B508-4B4E486DFE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530209AB-8BB6-4820-9ADD-E72BE4C8399A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4194" uniqueCount="4194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="4955">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -12619,6 +12619,2289 @@
   </si>
   <si>
     <t>shweta1.srivastava@airtel.com</t>
+  </si>
+  <si>
+    <t>ami@splunk.com</t>
+  </si>
+  <si>
+    <t>ashishmehta@splunk.com</t>
+  </si>
+  <si>
+    <t>maha.r@fractal.ai</t>
+  </si>
+  <si>
+    <t>kirti.bakshi@fractal.ai</t>
+  </si>
+  <si>
+    <t>vishnu.kotalwar@fractal.ai</t>
+  </si>
+  <si>
+    <t>Urvashi.kalloo@fractal.ai</t>
+  </si>
+  <si>
+    <t>lovely.kumari@fractal.ai</t>
+  </si>
+  <si>
+    <t>Shayla.Holmes@Fractal.ai</t>
+  </si>
+  <si>
+    <t>mansil.dua@fractal.ai</t>
+  </si>
+  <si>
+    <t>himika.singla@fractal.ai</t>
+  </si>
+  <si>
+    <t>priyanjali.panda@fractal.ai</t>
+  </si>
+  <si>
+    <t>nidhi.aggarwal@fractal.ai</t>
+  </si>
+  <si>
+    <t>sakshi.gupta@fractal.ai</t>
+  </si>
+  <si>
+    <t>manjotsingh.chug@fractal.ai</t>
+  </si>
+  <si>
+    <t>sanket.kamble@fractal.ai</t>
+  </si>
+  <si>
+    <t>trupti.jaisingpure@fractal.ai</t>
+  </si>
+  <si>
+    <t>gaurav.singh2@fractal.ai</t>
+  </si>
+  <si>
+    <t>abhay.tomar@fractal.ai</t>
+  </si>
+  <si>
+    <t>payal.singh@fractal.ai</t>
+  </si>
+  <si>
+    <t>manya.garg@fractal.ai</t>
+  </si>
+  <si>
+    <t>gagandeep.singh@fractal.ai</t>
+  </si>
+  <si>
+    <t>surojit.jalui@fractal.ai</t>
+  </si>
+  <si>
+    <t>shelly.kamran@fractal.ai</t>
+  </si>
+  <si>
+    <t>Shantanu.tiwari@fractal.ai</t>
+  </si>
+  <si>
+    <t>biplabketan.chakraborty@fractal.ai</t>
+  </si>
+  <si>
+    <t>saurabh.kumar@fractal.ai</t>
+  </si>
+  <si>
+    <t>nushrat.bhanu@fractal.ai</t>
+  </si>
+  <si>
+    <t>chakshu.sharma@fractal.ai</t>
+  </si>
+  <si>
+    <t>kumar.shashwat@fractal.ai</t>
+  </si>
+  <si>
+    <t>sakeeb.khan@fractal.ai</t>
+  </si>
+  <si>
+    <t>tanya.upadhyay@fractal.ai</t>
+  </si>
+  <si>
+    <t>faa@fractal.ai</t>
+  </si>
+  <si>
+    <t>amit.jaiswal@fractal.ai</t>
+  </si>
+  <si>
+    <t>Shilpa.Shastry@Fractal.ai</t>
+  </si>
+  <si>
+    <t>rohit.kapoor@fractal.ai</t>
+  </si>
+  <si>
+    <t>mayur.sugandhi@fractal.ai</t>
+  </si>
+  <si>
+    <t>harsh.kumar@fractal.ai</t>
+  </si>
+  <si>
+    <t>niranjan.gupta@fractal.ai</t>
+  </si>
+  <si>
+    <t>mayank.dedhia@fractal.ai</t>
+  </si>
+  <si>
+    <t>karthik.p@fractal.ai</t>
+  </si>
+  <si>
+    <t>Prateek.joshi@fractal.ai</t>
+  </si>
+  <si>
+    <t>veena@chargebee.com</t>
+  </si>
+  <si>
+    <t>Prachi.mittal@inmobi.com</t>
+  </si>
+  <si>
+    <t>ptd@inmobi.com</t>
+  </si>
+  <si>
+    <t>obadr@commvault.com</t>
+  </si>
+  <si>
+    <t>vinaykumar@commvault.com</t>
+  </si>
+  <si>
+    <t>rmanikandan@commvault.com</t>
+  </si>
+  <si>
+    <t>lcarr@commvault.com</t>
+  </si>
+  <si>
+    <t>storsey@commvault.com</t>
+  </si>
+  <si>
+    <t>kdreyerlund@commvault.com</t>
+  </si>
+  <si>
+    <t>hitachivantara@commvault.com</t>
+  </si>
+  <si>
+    <t>wbrower@commvault.com</t>
+  </si>
+  <si>
+    <t>HPE@Commvault.com</t>
+  </si>
+  <si>
+    <t>shivendra.singh@nutanix.com</t>
+  </si>
+  <si>
+    <t>Kavitha.pramod@nutanix.com</t>
+  </si>
+  <si>
+    <t>karim.reda@nutanix.com</t>
+  </si>
+  <si>
+    <t>suresh.kumar3@nutanix.com</t>
+  </si>
+  <si>
+    <t>abhinav.garg@nutanix.com</t>
+  </si>
+  <si>
+    <t>sindhuja.p@nutanix.com</t>
+  </si>
+  <si>
+    <t>thomas.jensen@nutanix.com</t>
+  </si>
+  <si>
+    <t>Nutanix.Cloud.APJ@nutanix.com</t>
+  </si>
+  <si>
+    <t>ask@nutanix.com</t>
+  </si>
+  <si>
+    <t>martin.miller@nutanix.com</t>
+  </si>
+  <si>
+    <t>bruce.jacobs@nutanix.com</t>
+  </si>
+  <si>
+    <t>aws@nutanix.com</t>
+  </si>
+  <si>
+    <t>ken.raskin@nutanix.com</t>
+  </si>
+  <si>
+    <t>Charles.Banks@Nutanix.com</t>
+  </si>
+  <si>
+    <t>valeria.rivera@nutanix.com</t>
+  </si>
+  <si>
+    <t>chris.ramby@nutanix.com</t>
+  </si>
+  <si>
+    <t>silvia.romeiro@nutanix.com</t>
+  </si>
+  <si>
+    <t>careers@arcesium.com</t>
+  </si>
+  <si>
+    <t>pradeep.narayanaswamy@rubrik.com</t>
+  </si>
+  <si>
+    <t>emma.casagrande@rubrik.com</t>
+  </si>
+  <si>
+    <t>ranjit.nair@rubrik.com</t>
+  </si>
+  <si>
+    <t>neeraj.ramesh@rubrik.com</t>
+  </si>
+  <si>
+    <t>chris.marlow@rubrik.com</t>
+  </si>
+  <si>
+    <t>recruiting-emea@rubrik.com</t>
+  </si>
+  <si>
+    <t>anshu.singh@rubrik.com</t>
+  </si>
+  <si>
+    <t>sneha.nair@rubrik.com</t>
+  </si>
+  <si>
+    <t>Grant.Diffendale@rubrik.com</t>
+  </si>
+  <si>
+    <t>Quinn.Taylor@rubrik.com</t>
+  </si>
+  <si>
+    <t>ebc@rubrik.com</t>
+  </si>
+  <si>
+    <t>kristine.daniels@rubrik.com</t>
+  </si>
+  <si>
+    <t>Lindsay.kirkendall@rubrik.com</t>
+  </si>
+  <si>
+    <t>danielle.tamulis@rippling.com</t>
+  </si>
+  <si>
+    <t>sdawoodani@rippling.com</t>
+  </si>
+  <si>
+    <t>anarayana@rippling.com</t>
+  </si>
+  <si>
+    <t>aganapathy@rippling.com</t>
+  </si>
+  <si>
+    <t>akthakur@rippling.com</t>
+  </si>
+  <si>
+    <t>vkumar@rippling.com</t>
+  </si>
+  <si>
+    <t>nicole.gianoukos@rippling.com</t>
+  </si>
+  <si>
+    <t>doreilly@rippling.com</t>
+  </si>
+  <si>
+    <t>stierney@rippling.com</t>
+  </si>
+  <si>
+    <t>jweinstein@stripe.com</t>
+  </si>
+  <si>
+    <t>stablecoins@stripe.com</t>
+  </si>
+  <si>
+    <t>pparthasarathy@stripe.com</t>
+  </si>
+  <si>
+    <t>jeon@stripe.com</t>
+  </si>
+  <si>
+    <t>gautam@stripe.com</t>
+  </si>
+  <si>
+    <t>crossbordertransfers@stripe.com</t>
+  </si>
+  <si>
+    <t>tamara@stripe.com</t>
+  </si>
+  <si>
+    <t>rhiscott@stripe.com</t>
+  </si>
+  <si>
+    <t>amelialinn@stripe.com</t>
+  </si>
+  <si>
+    <t>mack@stripe.com</t>
+  </si>
+  <si>
+    <t>cathay@stripe.com</t>
+  </si>
+  <si>
+    <t>halvarsson@stripe.com</t>
+  </si>
+  <si>
+    <t>mcp-payments@stripe.com</t>
+  </si>
+  <si>
+    <t>wip-pitches@stripe.com</t>
+  </si>
+  <si>
+    <t>retail@stripe.com</t>
+  </si>
+  <si>
+    <t>teresatarn@stripe.com</t>
+  </si>
+  <si>
+    <t>angy@stripe.com</t>
+  </si>
+  <si>
+    <t>krudolph@twilio.com</t>
+  </si>
+  <si>
+    <t>sunikumar@twilio.com</t>
+  </si>
+  <si>
+    <t>healthstart@palantir.com</t>
+  </si>
+  <si>
+    <t>hospitality@palantir.com</t>
+  </si>
+  <si>
+    <t>ams-expo@palantir.com</t>
+  </si>
+  <si>
+    <t>vic.vanhove@workday.com</t>
+  </si>
+  <si>
+    <t>oliver.jackson@workday.com</t>
+  </si>
+  <si>
+    <t>jack.fowler@workday.com</t>
+  </si>
+  <si>
+    <t>chris.boyce@workday.com</t>
+  </si>
+  <si>
+    <t>samantha.sachs@workday.com</t>
+  </si>
+  <si>
+    <t>andy.hamilton@workday.com</t>
+  </si>
+  <si>
+    <t>gabriella.schumacher@workday.com</t>
+  </si>
+  <si>
+    <t>michelle.chappell@workday.com</t>
+  </si>
+  <si>
+    <t>lorene.doulle@workday.com</t>
+  </si>
+  <si>
+    <t>chance.mack@workday.com</t>
+  </si>
+  <si>
+    <t>justin.dujardin@workday.com</t>
+  </si>
+  <si>
+    <t>zukunftpersonalgermany@workday.com</t>
+  </si>
+  <si>
+    <t>andrew.wilen@workday.com</t>
+  </si>
+  <si>
+    <t>prachi.jain@amagi.com</t>
+  </si>
+  <si>
+    <t>sales@b-cargill.com</t>
+  </si>
+  <si>
+    <t>sales@cargill.br.com</t>
+  </si>
+  <si>
+    <t>sales@cargillagricolabr.com</t>
+  </si>
+  <si>
+    <t>sindhu_dagennavar@cargill.com</t>
+  </si>
+  <si>
+    <t>Gary_Kay@cargill.com</t>
+  </si>
+  <si>
+    <t>beauty_americas@cargill.com</t>
+  </si>
+  <si>
+    <t>K_Ramesh@cargill.com</t>
+  </si>
+  <si>
+    <t>Krystal_Gage@Cargill.com</t>
+  </si>
+  <si>
+    <t>patissierchocolate@cargill.com</t>
+  </si>
+  <si>
+    <t>hien_vo@cargill.com</t>
+  </si>
+  <si>
+    <t>sweta.1.ghosh@nokia.com</t>
+  </si>
+  <si>
+    <t>tridev.kodamasingh@nokia.com</t>
+  </si>
+  <si>
+    <t>biswajeet.mishra@nokia.com</t>
+  </si>
+  <si>
+    <t>sachin.kumar_bhardwaj@nokia.com</t>
+  </si>
+  <si>
+    <t>mohammad.taufeeq_ahmed@nokia.com</t>
+  </si>
+  <si>
+    <t>sagheer.1.ahmed.ext@nokia.com</t>
+  </si>
+  <si>
+    <t>deepak.1.kaushik@nokia.com</t>
+  </si>
+  <si>
+    <t>bipin.k.singh@nokia.com</t>
+  </si>
+  <si>
+    <t>rohan.kadam@nokia.com</t>
+  </si>
+  <si>
+    <t>chinmaya.u@nokia.com</t>
+  </si>
+  <si>
+    <t>manoj.1.gupta@nokia.com</t>
+  </si>
+  <si>
+    <t>anurag.kumar@nokia.com</t>
+  </si>
+  <si>
+    <t>surojit.maitra@nokia.com</t>
+  </si>
+  <si>
+    <t>muhammad.ammar@nokia.com</t>
+  </si>
+  <si>
+    <t>mohsin.jamil.ext@nokia.com</t>
+  </si>
+  <si>
+    <t>youssef.kermoury@nokia.com</t>
+  </si>
+  <si>
+    <t>tier1cleantech@spglobal.com</t>
+  </si>
+  <si>
+    <t>sofia.marrakchi@spglobal.com</t>
+  </si>
+  <si>
+    <t>ankush.shukla@spglobal.com</t>
+  </si>
+  <si>
+    <t>ankit.gupta5@spglobal.com</t>
+  </si>
+  <si>
+    <t>tanvi.wadhwa@spglobal.com</t>
+  </si>
+  <si>
+    <t>madhavkumar@spglobal.com</t>
+  </si>
+  <si>
+    <t>meghana@spglobal.com</t>
+  </si>
+  <si>
+    <t>rachna.cherian@spglobal.com</t>
+  </si>
+  <si>
+    <t>girish.khubani@spglobal.com</t>
+  </si>
+  <si>
+    <t>saurabh.narula@spglobal.com</t>
+  </si>
+  <si>
+    <t>Rizwan.Saeed@spglobal.com</t>
+  </si>
+  <si>
+    <t>mayank.pratap.singh@spglobal.com</t>
+  </si>
+  <si>
+    <t>akshay.sehgal@spglobal.com</t>
+  </si>
+  <si>
+    <t>saeed.shoaraee@spglobal.com</t>
+  </si>
+  <si>
+    <t>anubhav.gupta@spglobal.com</t>
+  </si>
+  <si>
+    <t>rahul.sharma6@spglobal.com</t>
+  </si>
+  <si>
+    <t>Jonathan.Shew@spglobal.com</t>
+  </si>
+  <si>
+    <t>deepak.jain2@spglobal.com</t>
+  </si>
+  <si>
+    <t>Ujjwal.praharaj@spglobal.com</t>
+  </si>
+  <si>
+    <t>ayushyee.sareen@spglobal.com</t>
+  </si>
+  <si>
+    <t>asheesh.singh@spglobal.com</t>
+  </si>
+  <si>
+    <t>registry.sales@spglobal.com</t>
+  </si>
+  <si>
+    <t>abdul.rauf@spglobal.com</t>
+  </si>
+  <si>
+    <t>regreporting@spglobal.com</t>
+  </si>
+  <si>
+    <t>james.crompton@spglobal.com</t>
+  </si>
+  <si>
+    <t>carrie.mckendrick@spglobal.com</t>
+  </si>
+  <si>
+    <t>stefan.modrich@spglobal.com</t>
+  </si>
+  <si>
+    <t>fertilizer@spglobal.com</t>
+  </si>
+  <si>
+    <t>pricegroup@spglobal.com</t>
+  </si>
+  <si>
+    <t>tyler.hwang@spglobal.com</t>
+  </si>
+  <si>
+    <t>hassan.eltorie@spglobal.com</t>
+  </si>
+  <si>
+    <t>ci.support@spglobal.com</t>
+  </si>
+  <si>
+    <t>robert.lewis1@spglobal.com</t>
+  </si>
+  <si>
+    <t>susan.oatway@spglobal.com</t>
+  </si>
+  <si>
+    <t>eWindow@spglobal.com</t>
+  </si>
+  <si>
+    <t>eWindow_lon@spglobal.com</t>
+  </si>
+  <si>
+    <t>ci.consulting@spglobal.com</t>
+  </si>
+  <si>
+    <t>Ganeshan.Namboothiri@spglobal.com</t>
+  </si>
+  <si>
+    <t>coal@spglobal.com</t>
+  </si>
+  <si>
+    <t>douglas.giuffre@spglobal.com</t>
+  </si>
+  <si>
+    <t>barclay.gibbs@spglobal.com</t>
+  </si>
+  <si>
+    <t>minerals@spglobal.com</t>
+  </si>
+  <si>
+    <t>hr@freshworks.com</t>
+  </si>
+  <si>
+    <t>siddarth.mohan@freshworks.com</t>
+  </si>
+  <si>
+    <t>maike.flathmann@freshworks.com</t>
+  </si>
+  <si>
+    <t>arjun.anandam@freshworks.com</t>
+  </si>
+  <si>
+    <t>pavitra.yadav@freshworks.com</t>
+  </si>
+  <si>
+    <t>affiliates@freshworks.com</t>
+  </si>
+  <si>
+    <t>csr-india@freshworks.com</t>
+  </si>
+  <si>
+    <t>haripriya.ravichandaran@csr.freshworks.com</t>
+  </si>
+  <si>
+    <t>gomathi.muthu@csr.freshworks.com</t>
+  </si>
+  <si>
+    <t>mohdrayhanul.haque@freshworks.com</t>
+  </si>
+  <si>
+    <t>ahamed.m@csr.freshworks.com</t>
+  </si>
+  <si>
+    <t>rukmani.vishwanathan@freshworks.com</t>
+  </si>
+  <si>
+    <t>ankit.pandey@freshworks.com</t>
+  </si>
+  <si>
+    <t>jasperin.thangavelu@freshworks.com</t>
+  </si>
+  <si>
+    <t>kannan.sampath@freshworks.com</t>
+  </si>
+  <si>
+    <t>partner-communications@freshworks.com</t>
+  </si>
+  <si>
+    <t>kannans@zohocorp.com</t>
+  </si>
+  <si>
+    <t>kannans@zarget.com</t>
+  </si>
+  <si>
+    <t>kannan.s@synup.com</t>
+  </si>
+  <si>
+    <t>kannans@zoonest.com</t>
+  </si>
+  <si>
+    <t>Vishal.c@zohocorp.com</t>
+  </si>
+  <si>
+    <t>arun.prasad@zohocorp.com</t>
+  </si>
+  <si>
+    <t>oviya.rs@zohocorp.com</t>
+  </si>
+  <si>
+    <t>ebrahim.mohammed@zohocorp.com</t>
+  </si>
+  <si>
+    <t>secretarial@zohocorp.com</t>
+  </si>
+  <si>
+    <t>support@zohocorp.com</t>
+  </si>
+  <si>
+    <t>abuse@zohocorp.com</t>
+  </si>
+  <si>
+    <t>sairam.anand@zohocorp.com</t>
+  </si>
+  <si>
+    <t>kaja.moideen@zohocorp.com</t>
+  </si>
+  <si>
+    <t>kumaravel.ramakrishnan@zohocorp.com</t>
+  </si>
+  <si>
+    <t>mea-partners@zohocorp.com</t>
+  </si>
+  <si>
+    <t>ke-support@zohocorp.com</t>
+  </si>
+  <si>
+    <t>developer-community@zohocorp.com</t>
+  </si>
+  <si>
+    <t>mea-events@zohocorp.com</t>
+  </si>
+  <si>
+    <t>za-support@zohocorp.com</t>
+  </si>
+  <si>
+    <t>vagas.suporte@zohocorp.com</t>
+  </si>
+  <si>
+    <t>jessica.delani@zohocorp.com</t>
+  </si>
+  <si>
+    <t>reclutamiento@zohocorp.com</t>
+  </si>
+  <si>
+    <t>mayra.hernandez@zohocorp.com</t>
+  </si>
+  <si>
+    <t>alfredo.nava@zohocorp.com</t>
+  </si>
+  <si>
+    <t>ventas@zohocorp.com</t>
+  </si>
+  <si>
+    <t>vendas@zohocorp.com</t>
+  </si>
+  <si>
+    <t>pedro.costa@zohocorp.com</t>
+  </si>
+  <si>
+    <t>sponsors-latam@zohocorp.com</t>
+  </si>
+  <si>
+    <t>cn-sales@zohocorp.com</t>
+  </si>
+  <si>
+    <t>arjun.marwaha@deshaw.com</t>
+  </si>
+  <si>
+    <t>npwhrindia@intel.com</t>
+  </si>
+  <si>
+    <t>naveen.vemula@oracle.com</t>
+  </si>
+  <si>
+    <t>suman.rajeev@oracle.com</t>
+  </si>
+  <si>
+    <t>hrindia@lucent.com</t>
+  </si>
+  <si>
+    <t>dreamjob@sisc.in.sony.com.sg</t>
+  </si>
+  <si>
+    <t>bangalore@vxindia.veritas.com</t>
+  </si>
+  <si>
+    <t>resumes@india.hp.com</t>
+  </si>
+  <si>
+    <t>career@novell.com</t>
+  </si>
+  <si>
+    <t>careers@india.sun.com</t>
+  </si>
+  <si>
+    <t>india_jobs@cisco.com</t>
+  </si>
+  <si>
+    <t>itl.geitc@geind.ge.com</t>
+  </si>
+  <si>
+    <t>pscareers2000@philips.com</t>
+  </si>
+  <si>
+    <t>walkin@lgsi.com</t>
+  </si>
+  <si>
+    <t>jobs@reliance.com</t>
+  </si>
+  <si>
+    <t>chetan.ramina@magicbricks.com</t>
+  </si>
+  <si>
+    <t>ashish.singh3@magicbricks.com</t>
+  </si>
+  <si>
+    <t>sarah.faruqui@magicbricks.com</t>
+  </si>
+  <si>
+    <t>raunak.raj@magicbricks.com</t>
+  </si>
+  <si>
+    <t>Manish.chaubey1@magicbricks.com</t>
+  </si>
+  <si>
+    <t>yashi.tiwari1@magicbricks.com</t>
+  </si>
+  <si>
+    <t>kunal.wason@magicbricks.com</t>
+  </si>
+  <si>
+    <t>ritika.bhutoria@magicbricks.com</t>
+  </si>
+  <si>
+    <t>propfeed@magicbricks.com</t>
+  </si>
+  <si>
+    <t>rental.prop@magicbricks.com</t>
+  </si>
+  <si>
+    <t>propmb@magicbricks.com</t>
+  </si>
+  <si>
+    <t>projectsonmb@magicbricks.com</t>
+  </si>
+  <si>
+    <t>Prasun.kumar@magicbricks.com</t>
+  </si>
+  <si>
+    <t>sonali.kataria@magicbricks.com</t>
+  </si>
+  <si>
+    <t>vidushi.chugh@magicbricks.com</t>
+  </si>
+  <si>
+    <t>himani.chauhan@magicbricks.com</t>
+  </si>
+  <si>
+    <t>Deepshikha.Dubey@magicbricks.com</t>
+  </si>
+  <si>
+    <t>aishwarya.dhasmana@magicbricks.com</t>
+  </si>
+  <si>
+    <t>shaikh.rehaman@magicbricks.com</t>
+  </si>
+  <si>
+    <t>Amit.palariya@magicbricks.com</t>
+  </si>
+  <si>
+    <t>puneet.kochale@magicbricks.com</t>
+  </si>
+  <si>
+    <t>rahul.anand1@magicbricks.com</t>
+  </si>
+  <si>
+    <t>ananya.singh@magicbricks.com</t>
+  </si>
+  <si>
+    <t>nimesh.bhandari@magicbricks.com</t>
+  </si>
+  <si>
+    <t>nimisha.kumari@magicbricks.com</t>
+  </si>
+  <si>
+    <t>sheuli.das@magicbricks.com</t>
+  </si>
+  <si>
+    <t>vivek.shrivastava@magicbricks.com</t>
+  </si>
+  <si>
+    <t>roopashree.v@magicbricks.com</t>
+  </si>
+  <si>
+    <t>anakshi.rudra@magicbricks.com</t>
+  </si>
+  <si>
+    <t>tushar.gupta1@magicbricks.com</t>
+  </si>
+  <si>
+    <t>rajesh.kumbhar@magicbricks.com</t>
+  </si>
+  <si>
+    <t>chayanika.pathak@magicbricks.com</t>
+  </si>
+  <si>
+    <t>sanjay.chejara@magicbricks.com</t>
+  </si>
+  <si>
+    <t>ashish.gandevia@magicbricks.com</t>
+  </si>
+  <si>
+    <t>ashfik.zaman@magicbricks.com</t>
+  </si>
+  <si>
+    <t>surobhi.maiti@magicbricks.com</t>
+  </si>
+  <si>
+    <t>braj.singh@magicbricks.com</t>
+  </si>
+  <si>
+    <t>teamhr@magicbricks.com</t>
+  </si>
+  <si>
+    <t>hiring.bangalore@magicbricks.com</t>
+  </si>
+  <si>
+    <t>priya.almatastru1@magicbricks.com</t>
+  </si>
+  <si>
+    <t>akaash.hedau@magicbricks.com</t>
+  </si>
+  <si>
+    <t>ketki.soin@magicbricks.com</t>
+  </si>
+  <si>
+    <t>Punit.kumar1@magicbricks.com</t>
+  </si>
+  <si>
+    <t>syed.nabeel@magicbricks.com</t>
+  </si>
+  <si>
+    <t>nithin.papari@housing.com</t>
+  </si>
+  <si>
+    <t>reshma.pillai@housing.com</t>
+  </si>
+  <si>
+    <t>nuzhat.khan@housing.com</t>
+  </si>
+  <si>
+    <t>yaswanth.kumar@housing.com</t>
+  </si>
+  <si>
+    <t>kanika@housing.com</t>
+  </si>
+  <si>
+    <t>rohit.hasteer@housing.com</t>
+  </si>
+  <si>
+    <t>manveer.kaur@housing.com</t>
+  </si>
+  <si>
+    <t>paarth.tyagi@housing.com</t>
+  </si>
+  <si>
+    <t>isha.singhal@housing.com</t>
+  </si>
+  <si>
+    <t>jyotirmayee.s@bigbasket.com</t>
+  </si>
+  <si>
+    <t>kaushlendra.c@bigbasket.com</t>
+  </si>
+  <si>
+    <t>anindita.karmakar@bigbasket.com</t>
+  </si>
+  <si>
+    <t>Email-Apoorva.shukla@bigbasket.com</t>
+  </si>
+  <si>
+    <t>Chandrasekaran.m@bigbasket.com</t>
+  </si>
+  <si>
+    <t>a.vineethkumarreddy@bigbasket.com</t>
+  </si>
+  <si>
+    <t>dinesh.chintala@bigbasket.com</t>
+  </si>
+  <si>
+    <t>p.venkataramana@bigbasket.com</t>
+  </si>
+  <si>
+    <t>bharathi.s@bigbasket.com</t>
+  </si>
+  <si>
+    <t>satyanarayan.sahoo@bigbasket.com</t>
+  </si>
+  <si>
+    <t>Nitika.rathee@bigbasket.com</t>
+  </si>
+  <si>
+    <t>dhanushmore@urbancompany.com</t>
+  </si>
+  <si>
+    <t>piyushgarg@urbancompany.com</t>
+  </si>
+  <si>
+    <t>matinqureshi@urbancompany.com</t>
+  </si>
+  <si>
+    <t>viveksharma1@urbancompany.com</t>
+  </si>
+  <si>
+    <t>mathivardhan@urbancompany.com</t>
+  </si>
+  <si>
+    <t>kumarrishikesh@urbancompany.com</t>
+  </si>
+  <si>
+    <t>amitgoswami.ext@urbancompany.com</t>
+  </si>
+  <si>
+    <t>nikhilsingh1@urbancompany.com</t>
+  </si>
+  <si>
+    <t>shrinathms@urbancompany.com</t>
+  </si>
+  <si>
+    <t>harrygeorge@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sumantadutta@urbancompany.com</t>
+  </si>
+  <si>
+    <t>vivekrao@urbancompany.com</t>
+  </si>
+  <si>
+    <t>varshanalakonda.int@urbancompany.com</t>
+  </si>
+  <si>
+    <t>shubhivashistha.int@urbancompany.com</t>
+  </si>
+  <si>
+    <t>anmolpratapsingh@urbancompany.com</t>
+  </si>
+  <si>
+    <t>akashsinghal@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sumanshrivastava@urbancompany.com</t>
+  </si>
+  <si>
+    <t>ashokkosireddy@urbancompany.com</t>
+  </si>
+  <si>
+    <t>tanmoybhowal@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sanketmaragaje@urbancompany.com</t>
+  </si>
+  <si>
+    <t>arunsharma@urbancompany.com</t>
+  </si>
+  <si>
+    <t>deepakkumar3@urbancompany.com</t>
+  </si>
+  <si>
+    <t>shivampandey@urbancompany.com</t>
+  </si>
+  <si>
+    <t>nadeemhassan@urbancompany.com</t>
+  </si>
+  <si>
+    <t>rabiharijan@urbancompany.com</t>
+  </si>
+  <si>
+    <t>pritamsarkar@urbancompany.com</t>
+  </si>
+  <si>
+    <t>deveshwar@urbancompany.com</t>
+  </si>
+  <si>
+    <t>rahulurs@urbancompany.com</t>
+  </si>
+  <si>
+    <t>ayushpanpaliya@urbancompany.com</t>
+  </si>
+  <si>
+    <t>niteshtiwari@urbancompany.com</t>
+  </si>
+  <si>
+    <t>joelawrancesagayanathan@urbancompany.com</t>
+  </si>
+  <si>
+    <t>shreenivasjamadar@urbancompany.com</t>
+  </si>
+  <si>
+    <t>praavi@urbancompany.com</t>
+  </si>
+  <si>
+    <t>gauravmarotia@urbancompany.com</t>
+  </si>
+  <si>
+    <t>naveenchander@urbancompany.com</t>
+  </si>
+  <si>
+    <t>bhanuchandarboda@urbancompany.com</t>
+  </si>
+  <si>
+    <t>ishachhabra@urbancompany.com</t>
+  </si>
+  <si>
+    <t>saadsuleman@urbancompany.com</t>
+  </si>
+  <si>
+    <t>apekshagupta@urbancompany.com</t>
+  </si>
+  <si>
+    <t>siddharthbhatt@urbancompany.com</t>
+  </si>
+  <si>
+    <t>karunakumari@urbancompany.com</t>
+  </si>
+  <si>
+    <t>aashishgupta@urbancompany.com</t>
+  </si>
+  <si>
+    <t>tanvishinde@urbancompany.com</t>
+  </si>
+  <si>
+    <t>yasharya@urbancompany.com</t>
+  </si>
+  <si>
+    <t>amandave@urbancompany.com</t>
+  </si>
+  <si>
+    <t>mohammadsarwana@urbancompany.com</t>
+  </si>
+  <si>
+    <t>muzzamilrahman@urbancompany.com</t>
+  </si>
+  <si>
+    <t>subarnatribedi@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sakshipriya@urbancompany.com</t>
+  </si>
+  <si>
+    <t>kantabathinaraja@urbancompany.com</t>
+  </si>
+  <si>
+    <t>kishansuyal.ext@urbancompany.com</t>
+  </si>
+  <si>
+    <t>janviadvani.ext@urbancompany.com</t>
+  </si>
+  <si>
+    <t>shaktithakur@urbancompany.com</t>
+  </si>
+  <si>
+    <t>amarsingh@urbancompany.com</t>
+  </si>
+  <si>
+    <t>tveshajainn@urbancompany.com</t>
+  </si>
+  <si>
+    <t>amityadav@urbancompany.com</t>
+  </si>
+  <si>
+    <t>nikhiljhunjhunwala@urbancompany.com</t>
+  </si>
+  <si>
+    <t>shreyaarora@urbancompany.com</t>
+  </si>
+  <si>
+    <t>rakeshkaushik@urbancompany.com</t>
+  </si>
+  <si>
+    <t>radhikabadhan@urbancompany.com</t>
+  </si>
+  <si>
+    <t>shikharrastogi1@urbancompany.com</t>
+  </si>
+  <si>
+    <t>mitanshaaggarwal.ext@urbancompany.com</t>
+  </si>
+  <si>
+    <t>anusmitamohapatra@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sachinverma@urbancompany.com</t>
+  </si>
+  <si>
+    <t>souravgharami@urbancompany.com</t>
+  </si>
+  <si>
+    <t>hatishkumar@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sudheeranariyandath@urbancompany.com</t>
+  </si>
+  <si>
+    <t>rahulkumar2@urbancompany.com</t>
+  </si>
+  <si>
+    <t>ramgupta@urbancompany.com</t>
+  </si>
+  <si>
+    <t>mahigautam@urbancompany.com</t>
+  </si>
+  <si>
+    <t>abhisheknigam@urbancompany.com</t>
+  </si>
+  <si>
+    <t>mohaksarawgi@urbancompany.com</t>
+  </si>
+  <si>
+    <t>abhaygupta1@urbancompany.com</t>
+  </si>
+  <si>
+    <t>manaswinichaturvedi@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sonujha@urbancompany.com</t>
+  </si>
+  <si>
+    <t>kaushikpatro@urbancompany.com</t>
+  </si>
+  <si>
+    <t>souravmallick@urbancompany.com</t>
+  </si>
+  <si>
+    <t>aeishwaryakanwatia@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sumitbhalerao@urbancompany.com</t>
+  </si>
+  <si>
+    <t>rachitagarwal@urbancompany.com</t>
+  </si>
+  <si>
+    <t>tushar1@urbancompany.com</t>
+  </si>
+  <si>
+    <t>yashkurhe@urbancompany.com</t>
+  </si>
+  <si>
+    <t>georgekuriakose@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sanjaykori@urbancompany.com</t>
+  </si>
+  <si>
+    <t>rajatagrawal@urbancompany.com</t>
+  </si>
+  <si>
+    <t>prashantraj@urbancompany.com</t>
+  </si>
+  <si>
+    <t>kiranvarman@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sahanaav@urbancompany.com</t>
+  </si>
+  <si>
+    <t>shubhanshusinha@urbancompany.com</t>
+  </si>
+  <si>
+    <t>mohammadsameer@urbancompany.com</t>
+  </si>
+  <si>
+    <t>ishandave1@urbancompany.com</t>
+  </si>
+  <si>
+    <t>suyashpriya@urbancompany.com</t>
+  </si>
+  <si>
+    <t>shashankbhadauria@urbancompany.com</t>
+  </si>
+  <si>
+    <t>vivekgarg@urbancompany.com</t>
+  </si>
+  <si>
+    <t>dikshabhargava@urbancompany.com</t>
+  </si>
+  <si>
+    <t>anjalihirde.int@urbancompany.com</t>
+  </si>
+  <si>
+    <t>deborshidas@urbancompany.com</t>
+  </si>
+  <si>
+    <t>anjalirawat@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sathya.g@lenskart.com</t>
+  </si>
+  <si>
+    <t>mansa.bihani2@lenskart.com</t>
+  </si>
+  <si>
+    <t>riya.khanna@lenskart.in</t>
+  </si>
+  <si>
+    <t>hardik.ahuja@lenskart.com</t>
+  </si>
+  <si>
+    <t>bhavesh.yadav@lenskart.com</t>
+  </si>
+  <si>
+    <t>meenakshi@lenskart.com</t>
+  </si>
+  <si>
+    <t>amit.kumar1@lenskart.com</t>
+  </si>
+  <si>
+    <t>priya.solanki@lenskart.com</t>
+  </si>
+  <si>
+    <t>divyanshu.bansal@lenskart.in</t>
+  </si>
+  <si>
+    <t>satish.s@lenskart.in</t>
+  </si>
+  <si>
+    <t>prasad.gaikward@lenskart.com</t>
+  </si>
+  <si>
+    <t>rudra.singh@lenskart.com</t>
+  </si>
+  <si>
+    <t>nikita.gupta@lenskart.in</t>
+  </si>
+  <si>
+    <t>yogesh.jain@lenskart.com</t>
+  </si>
+  <si>
+    <t>akshay.jain@lenskart.com</t>
+  </si>
+  <si>
+    <t>aehtesham.khurshid@lenskart.com</t>
+  </si>
+  <si>
+    <t>astha.pahwa@lenskart.com</t>
+  </si>
+  <si>
+    <t>manika.agarwal@lenskart.com</t>
+  </si>
+  <si>
+    <t>rahul.rupani@lenskart.com</t>
+  </si>
+  <si>
+    <t>prashasti.srivastava@lenskart.com</t>
+  </si>
+  <si>
+    <t>ashish.soni@lenskart.mobi</t>
+  </si>
+  <si>
+    <t>divyant.gahlod@lenskart.com</t>
+  </si>
+  <si>
+    <t>neha.joshi@lenskart.in</t>
+  </si>
+  <si>
+    <t>yugank.srivastava@lenskart.com</t>
+  </si>
+  <si>
+    <t>shubham.saxena@lenskart.com</t>
+  </si>
+  <si>
+    <t>prachi.jain@lenskart.com</t>
+  </si>
+  <si>
+    <t>anouksha.sachdeva@lenskart.com</t>
+  </si>
+  <si>
+    <t>muskan.goel@lenskart.in</t>
+  </si>
+  <si>
+    <t>tanmaya.joshi@lenskart.in</t>
+  </si>
+  <si>
+    <t>r.nishanthi@lenskartacademy.com</t>
+  </si>
+  <si>
+    <t>archit.mathur@lenskart.com</t>
+  </si>
+  <si>
+    <t>kapil.jain@lenskart.com</t>
+  </si>
+  <si>
+    <t>ujjwal.mistry@lenskart.com</t>
+  </si>
+  <si>
+    <t>anishka@lenskart.com</t>
+  </si>
+  <si>
+    <t>aanchal.sharma@lenskart.com</t>
+  </si>
+  <si>
+    <t>prakriti.tripathi@lenskart.com</t>
+  </si>
+  <si>
+    <t>tarun.sukhlecha@lenskart.com</t>
+  </si>
+  <si>
+    <t>priya.ramola@lenskart.com</t>
+  </si>
+  <si>
+    <t>sudeep.das@lenskart.com</t>
+  </si>
+  <si>
+    <t>anish.anish@lenskart.com</t>
+  </si>
+  <si>
+    <t>vinnakota.chandrahaas@lenskart.com</t>
+  </si>
+  <si>
+    <t>anuj@lenskart.com</t>
+  </si>
+  <si>
+    <t>akhilesh.padhy@razorpay.com</t>
+  </si>
+  <si>
+    <t>farah.salleh@razorpay.com</t>
+  </si>
+  <si>
+    <t>vinodhkumar_prakasha@epam.com</t>
+  </si>
+  <si>
+    <t>chanda_vaze@epam.com</t>
+  </si>
+  <si>
+    <t>kshama_jain@epam.com</t>
+  </si>
+  <si>
+    <t>deepika_birje@epam.com</t>
+  </si>
+  <si>
+    <t>rakshit_badge@epam.com</t>
+  </si>
+  <si>
+    <t>surya_prakash@epam.com</t>
+  </si>
+  <si>
+    <t>kotyada_sivasampreeth@epam.com</t>
+  </si>
+  <si>
+    <t>ashwinkumar_pt@epam.com</t>
+  </si>
+  <si>
+    <t>santanu_chakraborty@epam.com</t>
+  </si>
+  <si>
+    <t>ritu_sain@epam.com</t>
+  </si>
+  <si>
+    <t>sachin_singh@epam.com</t>
+  </si>
+  <si>
+    <t>nandini_matla@epam.com</t>
+  </si>
+  <si>
+    <t>megha_bansal@epam.com</t>
+  </si>
+  <si>
+    <t>gowri_gurusamy@epam.com</t>
+  </si>
+  <si>
+    <t>shekhar_bajoria@epam.com</t>
+  </si>
+  <si>
+    <t>farzana_andrabi@epam.com</t>
+  </si>
+  <si>
+    <t>ashwan_allam@epam.com</t>
+  </si>
+  <si>
+    <t>nancy_khandelwal@epam.com</t>
+  </si>
+  <si>
+    <t>namrata_yadav@epam.com</t>
+  </si>
+  <si>
+    <t>subiya_subiya@epam.com</t>
+  </si>
+  <si>
+    <t>ankitaarun_mahale@epam.com</t>
+  </si>
+  <si>
+    <t>viswanathan_v@epam.com</t>
+  </si>
+  <si>
+    <t>tejender_gothra@epam.com</t>
+  </si>
+  <si>
+    <t>rao_dharmarajula@epam.com</t>
+  </si>
+  <si>
+    <t>rajat_joshi@epam.com</t>
+  </si>
+  <si>
+    <t>roopa_gopal@epam.com</t>
+  </si>
+  <si>
+    <t>vikram_koteswararao@epam.com</t>
+  </si>
+  <si>
+    <t>megha_tyagi@epam.com</t>
+  </si>
+  <si>
+    <t>deepika_birej@epam.com</t>
+  </si>
+  <si>
+    <t>jyothirmayee_arigala@epam.com</t>
+  </si>
+  <si>
+    <t>disha_jagzap@epam.com</t>
+  </si>
+  <si>
+    <t>madhumita_singh@epam.com</t>
+  </si>
+  <si>
+    <t>arnika_wadhawan@epam.com</t>
+  </si>
+  <si>
+    <t>pradeep_solai@epam.com</t>
+  </si>
+  <si>
+    <t>srividhya_p@epam.com</t>
+  </si>
+  <si>
+    <t>azhar_ahmed@epam.com</t>
+  </si>
+  <si>
+    <t>neethusoni_h@epam.com</t>
+  </si>
+  <si>
+    <t>dhruv_tak@epam.com</t>
+  </si>
+  <si>
+    <t>swati_kumari@epam.com</t>
+  </si>
+  <si>
+    <t>balaji_k@epam.com</t>
+  </si>
+  <si>
+    <t>ghanshyam_shinde@epam.com</t>
+  </si>
+  <si>
+    <t>ankit_vyas@epam.com</t>
+  </si>
+  <si>
+    <t>rajalakshmi_nedumaran@epam.com</t>
+  </si>
+  <si>
+    <t>shreepal_agrawal@epam.com</t>
+  </si>
+  <si>
+    <t>ugesa_elumalai@epam.com</t>
+  </si>
+  <si>
+    <t>piyush_gupta1@epam.com</t>
+  </si>
+  <si>
+    <t>shaikabdul_rehman@epam.com</t>
+  </si>
+  <si>
+    <t>anandakumar_raman@epam.com</t>
+  </si>
+  <si>
+    <t>wasim_kanwade@epam.com</t>
+  </si>
+  <si>
+    <t>aswini_nandigam@epam.com</t>
+  </si>
+  <si>
+    <t>vikas_gadekar@epam.com</t>
+  </si>
+  <si>
+    <t>nancy_chugh@epam.com</t>
+  </si>
+  <si>
+    <t>vishal_jha@epam.com</t>
+  </si>
+  <si>
+    <t>bharath_narla@epam.com</t>
+  </si>
+  <si>
+    <t>devikha_balu@epam.com</t>
+  </si>
+  <si>
+    <t>ray.mills@databricks.com</t>
+  </si>
+  <si>
+    <t>dina.hussain@databricks.com</t>
+  </si>
+  <si>
+    <t>michael.rooke@databricks.com</t>
+  </si>
+  <si>
+    <t>melissa.altamirano@databricks.com</t>
+  </si>
+  <si>
+    <t>abhishek.rai@databricks.com</t>
+  </si>
+  <si>
+    <t>francesca.paternoster@databricks.com</t>
+  </si>
+  <si>
+    <t>william.harmer@databricks.com</t>
+  </si>
+  <si>
+    <t>vishali.rathod@databricks.com</t>
+  </si>
+  <si>
+    <t>data-classification-feedback@databricks.com</t>
+  </si>
+  <si>
+    <t>kiersten.huddleston@databricks.com</t>
+  </si>
+  <si>
+    <t>cri.academia@databricks.com</t>
+  </si>
+  <si>
+    <t>bill.davis@databricks.com</t>
+  </si>
+  <si>
+    <t>dasf@databricks.com</t>
+  </si>
+  <si>
+    <t>stephen.orban@databricks.com</t>
+  </si>
+  <si>
+    <t>rmathew@zscaler.com</t>
+  </si>
+  <si>
+    <t>rj_rivera@optum.com</t>
+  </si>
+  <si>
+    <t>angela_sarceda@optum.com</t>
+  </si>
+  <si>
+    <t>kausar_sana@optum.com</t>
+  </si>
+  <si>
+    <t>joe_durrance@optum.com</t>
+  </si>
+  <si>
+    <t>Beckie_Ross@Optum.com</t>
+  </si>
+  <si>
+    <t>vimala.m@optum.com</t>
+  </si>
+  <si>
+    <t>vijay_singh120@optum.com</t>
+  </si>
+  <si>
+    <t>casey_smith@optum.com</t>
+  </si>
+  <si>
+    <t>emanuel.tosado@optum.com</t>
+  </si>
+  <si>
+    <t>Lindsi.Scapellato@Optum.com</t>
+  </si>
+  <si>
+    <t>navaneetha.krishnan43@optum.com</t>
+  </si>
+  <si>
+    <t>desmond.echano@optum.com</t>
+  </si>
+  <si>
+    <t>emmalove.gomez@optum.com</t>
+  </si>
+  <si>
+    <t>Elizabeth_Salas1@optum.com</t>
+  </si>
+  <si>
+    <t>natasha.bansal@autodesk.com</t>
+  </si>
+  <si>
+    <t>gallery@autodesk.com</t>
+  </si>
+  <si>
+    <t>pravallika.kaldhari@autodesk.com</t>
+  </si>
+  <si>
+    <t>steen.alvarez.jacobsen@autodesk.com</t>
+  </si>
+  <si>
+    <t>cloudvendormanagementhiring@autodesk.com</t>
+  </si>
+  <si>
+    <t>natasha.bansak@autodesk.com</t>
+  </si>
+  <si>
+    <t>data.exchange.support@autodesk.com</t>
+  </si>
+  <si>
+    <t>Brett.Parker@Autodesk.com</t>
+  </si>
+  <si>
+    <t>fusion360.hardwarepartners@autodesk.com</t>
+  </si>
+  <si>
+    <t>frank.rozeboom@autodesk.com</t>
+  </si>
+  <si>
+    <t>designstudio@autodesk.com</t>
+  </si>
+  <si>
+    <t>netfabb.pm@autodesk.com</t>
+  </si>
+  <si>
+    <t>maximilian.haemmerl@autodesk.com</t>
+  </si>
+  <si>
+    <t>aps.marketing@autodesk.com</t>
+  </si>
+  <si>
+    <t>marylyn.radius@autodesk.com</t>
+  </si>
+  <si>
+    <t>ambassador@autodesk.com</t>
+  </si>
+  <si>
+    <t>victoria.dewi@autodesk.com</t>
+  </si>
+  <si>
+    <t>giacomo.dagostino@autodesk.com</t>
+  </si>
+  <si>
+    <t>priyanka.srivastava@arm.com</t>
+  </si>
+  <si>
+    <t>lioz.cohn@arm.com</t>
+  </si>
+  <si>
+    <t>moran.segal@arm.com</t>
+  </si>
+  <si>
+    <t>dvir.markovich@arm.com</t>
+  </si>
+  <si>
+    <t>nallapareddi.swapna-priya@amd.com</t>
+  </si>
+  <si>
+    <t>beas.mukherjee@amd.com</t>
+  </si>
+  <si>
+    <t>sachin.chothani@amd.com</t>
+  </si>
+  <si>
+    <t>SantoshKumar.Katteti@amd.com</t>
+  </si>
+  <si>
+    <t>madhu.k@amd.com</t>
+  </si>
+  <si>
+    <t>pallavi.mishra@amd.com</t>
+  </si>
+  <si>
+    <t>akhila.babu@amd.com</t>
+  </si>
+  <si>
+    <t>charishma.g@amd.com</t>
+  </si>
+  <si>
+    <t>vivek.agrawal@amd.com</t>
+  </si>
+  <si>
+    <t>ramakrishna.ganeshu.poolla@amd.com</t>
+  </si>
+  <si>
+    <t>andaleeb.ahmad@amd.com</t>
+  </si>
+  <si>
+    <t>Rekha.G@amd.com</t>
+  </si>
+  <si>
+    <t>SulashKumar.Shetty@amd.com</t>
+  </si>
+  <si>
+    <t>shobana.kannan@amd.com</t>
+  </si>
+  <si>
+    <t>adudeja@amd.com</t>
+  </si>
+  <si>
+    <t>shalini.r@amd.com</t>
+  </si>
+  <si>
+    <t>pavan.pongle@amd.com</t>
+  </si>
+  <si>
+    <t>puneet.ahuja@amd.com</t>
+  </si>
+  <si>
+    <t>Ponnanna.KP@amd.com</t>
+  </si>
+  <si>
+    <t>kishor.singh@amd.com</t>
+  </si>
+  <si>
+    <t>pramod.sripathi@amd.com</t>
+  </si>
+  <si>
+    <t>ameyavyankatesh.deswandikar@amd.com</t>
+  </si>
+  <si>
+    <t>joseph.kanjirakkattu@amd.com</t>
+  </si>
+  <si>
+    <t>naresh.reddy@amd.com</t>
+  </si>
+  <si>
+    <t>Gautam.Hazari@amd.com</t>
+  </si>
+  <si>
+    <t>Priyank.Vashisth@amd.com</t>
+  </si>
+  <si>
+    <t>Badrinath.dorairajan@amd.com</t>
+  </si>
+  <si>
+    <t>Satya.Gupta@amd.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varun.Inda@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashlei.white@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shisham.kaya@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamara.Church@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shashank.batra@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carlos.gaviria@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sushant.choudhary@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omkar.Mestry@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neha.biswas@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jordan.herbert@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shamabanu.dawat@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refer_lcdcoe_dataanalytics@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monalisha.rout@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">greta.berry@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manish.dudheria@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">joy.christiana.dasari@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler.Lee1@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iyo.koda@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahul.pandey1@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">justin.eicholtz@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katie.hughes@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guia.Angela.Franco@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramanjit.Bajwa@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">paul.collins@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refer_lcdcoe_legal@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shubham.goyal@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lara.Jenkins@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scarlet.fung@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remi.monsarrat@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tais.oro@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.kb@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">devrishi.chaudhary@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">excelsiorwealth@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ericka.Y.Lee@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthony.LaFonte@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">don.ragains@morganstanley.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">greenjade@morganstanley.com  </t>
+  </si>
+  <si>
+    <t>brian.casey@morganstanley.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namertalentacquisition@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">raia@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jingjing@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TechRecruitNA@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kavery@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">himanshu.tuteja@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uday.mehta@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crescent.yue@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jack.alexander@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sukhchain@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.azab@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rodrigo.salas@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">accommodations@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kalpana.sajeev@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tom.ellard@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">joe@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pollyw@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadia.barbosa@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thibaut@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahanson@uber.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">advertisingUK@uber.com  </t>
+  </si>
+  <si>
+    <t>lohi@uber.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rowaida.fouad.kamel@hsbc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meghadutta@hsbc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">doha.madani@hsbc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">noor.eltahan@hsbc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibrahim.arafat@hsbc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahmed.ayyad@hsbc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dalia.ibrahim.magdy@hsbc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aly.maqlad@hsbc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sally.alaa@hsbc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">laila.gamali@hsbc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">askresearch@hsbc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash.mcbrearty@hsbc.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">divya.deb@hsbc.com  </t>
+  </si>
+  <si>
+    <t>hsbc.egypt.recruitment.team@hsbc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yael_hochma@intuit.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">revital_keren@intuit.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunitha_pai@intuit.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">linoy_cohen1@intuit.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zubair@intuit.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shalini_mohan@intuit.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rachel_burden@intuit.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tom_dugma@intuit.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ido_dor@intuit.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandy_ison@intuit.com  </t>
+  </si>
+  <si>
+    <t>chandrashekar_r@intuit.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashish.singh3@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chetan.ramina@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">raunak.raj@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yashi.tiwari1@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunal.wason@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ritika.bhutoria@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vidushi.chugh@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anakshi.rudra@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarah.faruqui@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ananya.singh@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepshikha.Dubey@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aishwarya.dhasmana@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shaikh.rehaman@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amit.palariya@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonali.kataria@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivek.shrivastava@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chayanika.pathak@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanjay.chejara@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tushar.gupta1@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nimisha.kumari@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahul.anand1@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">roopashree.v@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">puneet.kochale@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashfik.zaman@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surobhi.Maiti@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajesh.kumbhar@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">braj.singh@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nimesh.bhandari@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiring.bangalore@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">akaash.hedau@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya.almatastru1@magicbricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivek.porwal@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">simerpreet.singh@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">madhusudan.panigrahi@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amrita.chakraborty@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">impact-hiring-team@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tateam@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zain.ghouse@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shabnum.taj@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">debarshi.bhattacharjee@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soumya.v@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zahid.n@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">akanksha.kurrey@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">elavarasan@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandesh.vs@practo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahendra.pratap@practo.com  </t>
+  </si>
+  <si>
+    <t>shyam.mishra@practo.com</t>
+  </si>
+  <si>
+    <t>amy.shah@reddit.com</t>
+  </si>
+  <si>
+    <t>christine.franciska@inmobi.com</t>
+  </si>
+  <si>
+    <t>baidyanath.p@inmobi.com</t>
+  </si>
+  <si>
+    <t>mehtab.bagalkot@inmobi.com</t>
+  </si>
+  <si>
+    <t>audrija.banerjee@inmobi.com</t>
+  </si>
+  <si>
+    <t>arvind.chandrashekar@glance.com</t>
+  </si>
+  <si>
+    <t>lucknowhiring@inmobi.com</t>
+  </si>
+  <si>
+    <t>sikandar.kumar@inmobi.com</t>
+  </si>
+  <si>
+    <t>alakshit.tripathi@inmobi.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anshu.singh@rubrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neeraj.ramesh@rubrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pradeep.narayanaswamy@rubrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranjit.nair@rubrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shiv.singh@rubrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdawoodani@rippling.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">akthakur@rippling.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aganapathy@rippling.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anarayana@rippling.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">danielle.tamulis@rippling.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">support@rippling.com  </t>
+  </si>
+  <si>
+    <t>Msuthar@rippling.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rukmini.kumar@postman.com  </t>
+  </si>
+  <si>
+    <t>kiran.kumar@postman.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pratik.tamang@freshworks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">siddarth.mohan@freshworks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maike.flathmann@freshworks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr@freshworks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arjun.anandam@freshworks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavitra.yadav@freshworks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">csr-india@freshworks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">haripriya.ravichandaran@csr.freshworks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gomathi.muthu@csr.freshworks.com  </t>
   </si>
 </sst>
 </file>
@@ -13150,10 +15433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:B4194"/>
+  <dimension ref="A1:B4957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4183" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4195" sqref="A4195"/>
+    <sheetView tabSelected="1" topLeftCell="A4932" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4941" sqref="A4941"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34253,49 +36536,3864 @@
         <v>4193</v>
       </c>
     </row>
+    <row r="4195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4195" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="4196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4196" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="4197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4197" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="4198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4198" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="4199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4199" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="4200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4200" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4201" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="4202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4202" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="4203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4203" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="4204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4204" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="4205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4205" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="4206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4206" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="4207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4207" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="4208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4208" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="4209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4209" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="4210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4210" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="4211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4211" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4212" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4213" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="4214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4214" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4215" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4216" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4217" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4218" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4219" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4220" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4221" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4222" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4223" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4224" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4225" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4226" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4227" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4228" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4229" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4230" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4231" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4232" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4233" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4234" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4235" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4236" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4237" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4238" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4239" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4240" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4241" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4242" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4243" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4244" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4245" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4246" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4247" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4248" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4249" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4250" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4251" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4252" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4253" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4254" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4255" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4256" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4257" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4258" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4259" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4260" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4261" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4262" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4263" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4264" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4265" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4266" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4267" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4268" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4269" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4270" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4271" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4272" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4273" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4274" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4275" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4276" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4277" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4278" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4279" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4280" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4281" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4282" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4283" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4284" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4285" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4286" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4287" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4288" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4289" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4290" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4291" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4292" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4293" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4294" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4295" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4296" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4297" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4298" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4299" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4300" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4301" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4302" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4303" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4304" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4305" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4306" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4307" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4308" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4309" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4310" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4311" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4312" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4313" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4314" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4315" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4316" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4317" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4318" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4319" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4320" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4321" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4322" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4323" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4324" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4325" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4326" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4327" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4328" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4329" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4330" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4331" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4332" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4333" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4334" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4335" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4336" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4337" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4338" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4339" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4340" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4341" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4342" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4343" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4344" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4345" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4346" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4347" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4348" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4349" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4350" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4351" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4352" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4353" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4354" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4355" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4356" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4357" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4358" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4359" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4360" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4361" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4362" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4363" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4364" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4365" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4366" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4367" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4368" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4369" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4370" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4371" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4372" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4373" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4374" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4375" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4376" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4377" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4378" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4379" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4380" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4381" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4382" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4383" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4384" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4385" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4386" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4387" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4388" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4389" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4390" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4391" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4392" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4393" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4394" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4395" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4396" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4397" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4398" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4399" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4400" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4401" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4402" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4403" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4404" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4405" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4406" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4407" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4408" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4409" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4410" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4411" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4412" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4413" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4414" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4415" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4416" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4417" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4418" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4419" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4420" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4421" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4422" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4423" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4424" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4425" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4426" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4427" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4428" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4429" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4430" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4431" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4432" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4433" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4434" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4435" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4436" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4437" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4438" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4439" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4440" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="4441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4441" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="4442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4442" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="4443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4443" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="4444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4444" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="4445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4445" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="4446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4446" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="4447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4447" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="4448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4448" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="4449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4449" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="4450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4450" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4451" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4452" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="4453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4453" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="4454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4454" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="4455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4455" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="4456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4456" t="s">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="4457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4457" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4458" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4459" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4460" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4461" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4462" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4463" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4464" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4465" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="4466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4466" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="4467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4467" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="4468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4468" t="s">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="4469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4469" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="4470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4470" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="4471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4471" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="4472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4472" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="4473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4473" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="4474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4474" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4475" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="4476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4476" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4477" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="4478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4478" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="4479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4479" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="4480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4480" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="4481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4481" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="4482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4482" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="4483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4483" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="4484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4484" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="4485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4485" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="4486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4486" t="s">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="4487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4487" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="4488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4488" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4489" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4490" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4491" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="4492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4492" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="4493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4493" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="4494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4494" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="4495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4495" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="4496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4496" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="4497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4497" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="4498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4498" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="4499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4499" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="4500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4500" t="s">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="4501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4501" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4502" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="4503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4503" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4504" t="s">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="4505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4505" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4506" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4507" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="4508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4508" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4509" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="4510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4510" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="4511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4511" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="4512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4512" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="4513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4513" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="4514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4514" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="4515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4515" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="4516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4516" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="4517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4517" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="4518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4518" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="4519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4519" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="4520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4520" t="s">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="4521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4521" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="4522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4522" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="4523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4523" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="4524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4524" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="4525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4525" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="4526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4526" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="4527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4527" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="4528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4528" t="s">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="4529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4529" t="s">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="4530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4530" t="s">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="4531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4531" t="s">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="4532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4532" t="s">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="4533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4533" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="4534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4534" t="s">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="4535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4535" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="4536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4536" t="s">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="4537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4537" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="4538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4538" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="4539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4539" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="4540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4540" t="s">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="4541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4541" t="s">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="4542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4542" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="4543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4543" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="4544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4544" t="s">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="4545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4545" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="4546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4546" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="4547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4547" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="4548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4548" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="4549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4549" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="4550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4550" t="s">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="4551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4551" t="s">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="4552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4552" t="s">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="4553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4553" t="s">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="4554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4554" t="s">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="4555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4555" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="4556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4556" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="4557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4557" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="4558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4558" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="4559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4559" t="s">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="4560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4560" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="4561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4561" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="4562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4562" t="s">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="4563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4563" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="4564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4564" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="4565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4565" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="4566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4566" t="s">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="4567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4567" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="4568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4568" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="4569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4569" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="4570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4570" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="4571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4571" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="4572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4572" t="s">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="4573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4573" t="s">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="4574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4574" t="s">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="4575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4575" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="4576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4576" t="s">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="4577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4577" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="4578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4578" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="4579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4579" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="4580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4580" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="4581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4581" t="s">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="4582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4582" t="s">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="4583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4583" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="4584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4584" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="4585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4585" t="s">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="4586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4586" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="4587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4587" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="4588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4588" t="s">
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="4589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4589" t="s">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="4590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4590" t="s">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="4591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4591" t="s">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="4592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4592" t="s">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="4593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4593" t="s">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="4594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4594" t="s">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="4595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4595" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="4596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4596" t="s">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="4597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4597" t="s">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="4598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4598" t="s">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="4599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4599" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="4600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4600" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="4601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4601" t="s">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="4602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4602" t="s">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="4603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4603" t="s">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="4604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4604" t="s">
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="4605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4605" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="4606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4606" t="s">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="4607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4607" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="4608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4608" t="s">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="4609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4609" t="s">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="4610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4610" t="s">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="4611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4611" t="s">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="4612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4612" t="s">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="4613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4613" t="s">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="4614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4614" t="s">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="4615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4615" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="4616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4616" t="s">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="4617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4617" t="s">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="4618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4618" t="s">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="4619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4619" t="s">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="4620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4620" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="4621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4621" t="s">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="4622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4622" t="s">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="4623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4623" t="s">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="4624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4624" t="s">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="4625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4625" t="s">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="4626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4626" t="s">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="4627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4627" t="s">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="4628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4628" t="s">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="4629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4629" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="4630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4630" t="s">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="4631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4631" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="4632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4632" t="s">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="4633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4633" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="4634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4634" t="s">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="4635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4635" t="s">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="4636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4636" t="s">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="4637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4637" t="s">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="4638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4638" t="s">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="4639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4639" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="4640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4640" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="4641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4641" t="s">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="4642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4642" t="s">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="4643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4643" t="s">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="4644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4644" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="4645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4645" t="s">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="4646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4646" t="s">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="4647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4647" t="s">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="4648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4648" t="s">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="4649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4649" t="s">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="4650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4650" t="s">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="4651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4651" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4652" t="s">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="4653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4653" t="s">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="4654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4654" t="s">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="4655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4655" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4656" t="s">
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="4657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4657" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="4658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4658" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="4659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4659" t="s">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="4660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4660" t="s">
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="4661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4661" t="s">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="4662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4662" t="s">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="4663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4663" t="s">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="4664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4664" t="s">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="4665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4665" t="s">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="4666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4666" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4667" t="s">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="4668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4668" t="s">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="4669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4669" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="4670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4670" t="s">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="4671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4671" t="s">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="4672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4672" t="s">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="4673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4673" t="s">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="4674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4674" t="s">
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="4675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4675" t="s">
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="4676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4676" t="s">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="4677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4677" t="s">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="4678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4678" t="s">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="4679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4679" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="4680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4680" t="s">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="4681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4681" t="s">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="4682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4682" t="s">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="4683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4683" t="s">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="4684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4684" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="4685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4685" t="s">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="4686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4686" t="s">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="4687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4687" t="s">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="4688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4688" t="s">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="4689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4689" t="s">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="4690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4690" t="s">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="4691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4691" t="s">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="4692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4692" t="s">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="4693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4693" t="s">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="4694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4694" t="s">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="4695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4695" t="s">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="4696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4696" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="4697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4697" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="4698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4698" t="s">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="4699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4699" t="s">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="4700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4700" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="4701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4701" t="s">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="4702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4702" t="s">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="4703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4703" t="s">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="4704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4704" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="4705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4705" t="s">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="4706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4706" t="s">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="4707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4707" t="s">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="4708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4708" t="s">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="4709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4709" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="4710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4710" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="4711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4711" t="s">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="4712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4712" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="4713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4713" t="s">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="4714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4714" t="s">
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="4715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4715" t="s">
+        <v>4714</v>
+      </c>
+    </row>
+    <row r="4716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4716" t="s">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="4717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4717" t="s">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="4718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4718" t="s">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="4719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4719" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="4720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4720" t="s">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="4721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4721" t="s">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="4722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4722" t="s">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="4723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4723" t="s">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="4724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4724" t="s">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="4725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4725" t="s">
+        <v>4724</v>
+      </c>
+    </row>
+    <row r="4726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4726" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="4727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4727" t="s">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="4728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4728" t="s">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="4729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4729" t="s">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="4730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4730" t="s">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="4731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4731" t="s">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="4732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4732" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="4733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4733" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="4734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4734" t="s">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="4735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4735" t="s">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="4736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4736" t="s">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="4737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4737" t="s">
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="4738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4738" t="s">
+        <v>4737</v>
+      </c>
+    </row>
+    <row r="4739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4739" t="s">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="4740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4740" t="s">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="4741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4741" t="s">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="4742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4742" t="s">
+        <v>4741</v>
+      </c>
+    </row>
+    <row r="4743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4743" t="s">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="4744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4744" t="s">
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="4745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4745" t="s">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="4746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4746" t="s">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="4747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4747" t="s">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="4748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4748" t="s">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="4749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4749" t="s">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="4750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4750" t="s">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="4751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4751" t="s">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="4752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4752" t="s">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="4753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4753" t="s">
+        <v>4752</v>
+      </c>
+    </row>
+    <row r="4754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4754" t="s">
+        <v>4753</v>
+      </c>
+    </row>
+    <row r="4755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4755" t="s">
+        <v>4754</v>
+      </c>
+    </row>
+    <row r="4756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4756" t="s">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="4757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4757" t="s">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="4758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4758" t="s">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="4759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4759" t="s">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="4760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4760" t="s">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="4761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4761" t="s">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="4762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4762" t="s">
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="4763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4763" t="s">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="4764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4764" t="s">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="4765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4765" t="s">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="4766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4766" t="s">
+        <v>4765</v>
+      </c>
+    </row>
+    <row r="4767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4767" t="s">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="4768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4768" t="s">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="4769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4769" t="s">
+        <v>4768</v>
+      </c>
+    </row>
+    <row r="4770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4770" t="s">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="4771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4771" t="s">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="4772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4772" t="s">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="4773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4773" t="s">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="4774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4774" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="4775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4775" t="s">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="4776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4776" t="s">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="4777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4777" t="s">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="4778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4778" t="s">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="4779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4779" t="s">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="4780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4780" t="s">
+        <v>4779</v>
+      </c>
+    </row>
+    <row r="4781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4781" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="4782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4782" t="s">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="4783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4783" t="s">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="4784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4784" t="s">
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="4785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4785" t="s">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="4786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4786" t="s">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="4787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4787" t="s">
+        <v>4786</v>
+      </c>
+    </row>
+    <row r="4788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4788" t="s">
+        <v>4787</v>
+      </c>
+    </row>
+    <row r="4789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4789" t="s">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="4790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4790" t="s">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="4791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4791" t="s">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="4792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4792" t="s">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="4793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4793" t="s">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="4794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4794" t="s">
+        <v>4793</v>
+      </c>
+    </row>
+    <row r="4795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4795" t="s">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="4796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4796" t="s">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="4797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4797" t="s">
+        <v>4796</v>
+      </c>
+    </row>
+    <row r="4798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4798" t="s">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="4799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4799" t="s">
+        <v>4798</v>
+      </c>
+    </row>
+    <row r="4800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4800" t="s">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="4801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4801" t="s">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="4802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4802" t="s">
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="4803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4803" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="4804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4804" t="s">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="4805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4805" t="s">
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="4806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4806" t="s">
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="4807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4807" t="s">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="4808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4808" t="s">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="4809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4809" t="s">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="4810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4810" t="s">
+        <v>4809</v>
+      </c>
+    </row>
+    <row r="4811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4811" t="s">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="4812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4812" t="s">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="4813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4813" t="s">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="4814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4814" t="s">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="4815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4815" t="s">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="4816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4816" t="s">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="4817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4817" t="s">
+        <v>4816</v>
+      </c>
+    </row>
+    <row r="4818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4818" t="s">
+        <v>4817</v>
+      </c>
+    </row>
+    <row r="4819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4819" t="s">
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="4820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4820" t="s">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="4821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4821" t="s">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="4822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4822" t="s">
+        <v>4821</v>
+      </c>
+    </row>
+    <row r="4823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4823" t="s">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="4824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4824" t="s">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="4825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4825" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="4826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4826" t="s">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="4827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4827" t="s">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="4828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4828" t="s">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="4829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4829" t="s">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="4830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4830" t="s">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="4831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4831" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="4832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4832" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="4833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4833" t="s">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="4834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4834" t="s">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="4835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4835" t="s">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="4836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4836" t="s">
+        <v>4835</v>
+      </c>
+    </row>
+    <row r="4837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4837" t="s">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="4838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4838" t="s">
+        <v>4837</v>
+      </c>
+    </row>
+    <row r="4839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4839" t="s">
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="4840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4840" t="s">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="4841" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4841" t="s">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="4842" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4842" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="4843" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4843" t="s">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="4844" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4844" t="s">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="4845" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4845" t="s">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="4846" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4846" t="s">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="4847" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4847" t="s">
+        <v>4846</v>
+      </c>
+    </row>
+    <row r="4848" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4848" t="s">
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="4849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4849" t="s">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="4850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4850" t="s">
+        <v>4849</v>
+      </c>
+    </row>
+    <row r="4851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4851" t="s">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="4852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4852" t="s">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="4853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4853" t="s">
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="4854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4854" t="s">
+        <v>4853</v>
+      </c>
+    </row>
+    <row r="4855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4855" t="s">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="4856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4856" t="s">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="4857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4857" t="s">
+        <v>4856</v>
+      </c>
+    </row>
+    <row r="4858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4858" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="4859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4859" t="s">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="4860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4860" t="s">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="4861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4861" t="s">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="4862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4862" t="s">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="4863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4863" t="s">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="4864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4864" t="s">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="4865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4865" t="s">
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="4866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4866" t="s">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="4867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4867" t="s">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="4868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4868" t="s">
+        <v>4867</v>
+      </c>
+    </row>
+    <row r="4869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4869" t="s">
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="4870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4870" t="s">
+        <v>4869</v>
+      </c>
+    </row>
+    <row r="4871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4871" t="s">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="4872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4872" t="s">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="4873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4873" t="s">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="4874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4874" t="s">
+        <v>4873</v>
+      </c>
+    </row>
+    <row r="4875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4875" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="4876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4876" t="s">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="4877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4877" t="s">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="4878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4878" t="s">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="4879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4879" t="s">
+        <v>4878</v>
+      </c>
+    </row>
+    <row r="4880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4880" t="s">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="4881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4881" t="s">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="4882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4882" t="s">
+        <v>4881</v>
+      </c>
+    </row>
+    <row r="4883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4883" t="s">
+        <v>4882</v>
+      </c>
+    </row>
+    <row r="4884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4884" t="s">
+        <v>4883</v>
+      </c>
+    </row>
+    <row r="4885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4885" t="s">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="4886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4886" t="s">
+        <v>4885</v>
+      </c>
+    </row>
+    <row r="4887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4887" t="s">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="4888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4888" t="s">
+        <v>4887</v>
+      </c>
+    </row>
+    <row r="4889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4889" t="s">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="4890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4890" t="s">
+        <v>4889</v>
+      </c>
+    </row>
+    <row r="4891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4891" t="s">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="4892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4892" t="s">
+        <v>4891</v>
+      </c>
+    </row>
+    <row r="4893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4893" t="s">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="4894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4894" t="s">
+        <v>4893</v>
+      </c>
+    </row>
+    <row r="4895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4895" t="s">
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="4896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4896" t="s">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="4897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4897" t="s">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="4898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4898" t="s">
+        <v>4897</v>
+      </c>
+    </row>
+    <row r="4899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4899" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="4900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4900" t="s">
+        <v>4899</v>
+      </c>
+    </row>
+    <row r="4901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4901" t="s">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="4902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4902" t="s">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="4903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4903" t="s">
+        <v>4902</v>
+      </c>
+    </row>
+    <row r="4904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4904" t="s">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="4905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4905" t="s">
+        <v>4904</v>
+      </c>
+    </row>
+    <row r="4906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4906" t="s">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="4907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4907" t="s">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="4908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4908" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="4909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4909" t="s">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="4910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4910" t="s">
+        <v>4908</v>
+      </c>
+    </row>
+    <row r="4911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4911" t="s">
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="4912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4912" t="s">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="4913" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4913" t="s">
+        <v>4911</v>
+      </c>
+    </row>
+    <row r="4914" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4914" t="s">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="4915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4915" t="s">
+        <v>4913</v>
+      </c>
+    </row>
+    <row r="4916" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4916" t="s">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="4917" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4917" t="s">
+        <v>4915</v>
+      </c>
+    </row>
+    <row r="4918" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4918" t="s">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="4919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4919" t="s">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="4920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4920" t="s">
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="4921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4921" t="s">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="4922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4922" t="s">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="4923" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4923" t="s">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="4924" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4924" t="s">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="4925" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4925" t="s">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="4926" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4926" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="4927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4927" t="s">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="4928" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4928" t="s">
+        <v>4925</v>
+      </c>
+    </row>
+    <row r="4929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4929" t="s">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="4930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4930" t="s">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="4931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4931" t="s">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="4932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4932" t="s">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="4933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4933" t="s">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="4934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4934" t="s">
+        <v>4931</v>
+      </c>
+    </row>
+    <row r="4935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4935" t="s">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="4936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4936" t="s">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="4937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4937" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="4938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4938" t="s">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="4939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4939" t="s">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="4940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4940" t="s">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="4941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4941" t="s">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="4942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4942" t="s">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="4943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4943" t="s">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="4944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4944" t="s">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="4945" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4945" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="4946" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4946" t="s">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="4947" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4947" t="s">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="4948" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4948" t="s">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="4949" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4949" t="s">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="4950" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4950" t="s">
+        <v>4947</v>
+      </c>
+    </row>
+    <row r="4951" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4951" t="s">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="4952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4952" t="s">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="4953" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4953" t="s">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="4954" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4954" t="s">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="4955" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4955" t="s">
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="4956" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4956" t="s">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="4957" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4957" t="s">
+        <v>4954</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
     <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="15"/>
     <cfRule type="duplicateValues" dxfId="4" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A1048576">
+  <conditionalFormatting sqref="A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530209AB-8BB6-4820-9ADD-E72BE4C8399A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4DD650-D077-48E2-BC5D-E6B9EA7DED60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="4955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5300" uniqueCount="5296">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -14902,6 +14902,1029 @@
   </si>
   <si>
     <t xml:space="preserve">gomathi.muthu@csr.freshworks.com  </t>
+  </si>
+  <si>
+    <t>anumeha.bajpai@salesforce.com</t>
+  </si>
+  <si>
+    <t>ndarragh@salesforce.com</t>
+  </si>
+  <si>
+    <t>abishek.agarwal@salesforce.com</t>
+  </si>
+  <si>
+    <t>xiaolin.xu@salesforce.com</t>
+  </si>
+  <si>
+    <t>kunfried@salesforce.com</t>
+  </si>
+  <si>
+    <t>a.tomar@salesforce.com</t>
+  </si>
+  <si>
+    <t>arashtchi@salesforce.com</t>
+  </si>
+  <si>
+    <t>Jain.Prateek@salesforce.com</t>
+  </si>
+  <si>
+    <t>rrawls@salesforce.com</t>
+  </si>
+  <si>
+    <t>dadeeko@salesforce.com</t>
+  </si>
+  <si>
+    <t>mkeyes@salesforce.com</t>
+  </si>
+  <si>
+    <t>sagary@salesforce.com</t>
+  </si>
+  <si>
+    <t>ojoyce@salesforce.com</t>
+  </si>
+  <si>
+    <t>m.barcevac@salesforce.com</t>
+  </si>
+  <si>
+    <t>dgarciajimenez@salesforce.com</t>
+  </si>
+  <si>
+    <t>manika.raj@salesforce.com</t>
+  </si>
+  <si>
+    <t>srivastava.abhishek@salesforce.com</t>
+  </si>
+  <si>
+    <t>akindem@salesforce.com</t>
+  </si>
+  <si>
+    <t>emily.carpenter@salesforce.com</t>
+  </si>
+  <si>
+    <t>chuynh@salesforce.com</t>
+  </si>
+  <si>
+    <t>felkhannichi@salesforce.com</t>
+  </si>
+  <si>
+    <t>mapparao@salesforce.com</t>
+  </si>
+  <si>
+    <t>pmunireddy@salesforce.com</t>
+  </si>
+  <si>
+    <t>pbaruah@salesforce.com</t>
+  </si>
+  <si>
+    <t>lgruter@salesforce.com</t>
+  </si>
+  <si>
+    <t>rsasirekha@salesforce.com</t>
+  </si>
+  <si>
+    <t>Archana.hl@salesforce.com</t>
+  </si>
+  <si>
+    <t>aziyadkhanli@salesforce.com</t>
+  </si>
+  <si>
+    <t>denisantonyrajl@salesforce.com</t>
+  </si>
+  <si>
+    <t>jessicaivonne.moreno@salesforce.com</t>
+  </si>
+  <si>
+    <t>ggu@salesforce.com</t>
+  </si>
+  <si>
+    <t>mbarcevac@salesforce.com</t>
+  </si>
+  <si>
+    <t>casey.carpenter@salesforce.com</t>
+  </si>
+  <si>
+    <t>danielle.goldberg@salesforce.com</t>
+  </si>
+  <si>
+    <t>abruno@salesforce.com</t>
+  </si>
+  <si>
+    <t>sagar.goswami@salesforce.com</t>
+  </si>
+  <si>
+    <t>cmordan@salesforce.com</t>
+  </si>
+  <si>
+    <t>jpovolny@salesforce.com</t>
+  </si>
+  <si>
+    <t>hiring@akamai.com</t>
+  </si>
+  <si>
+    <t>yzadok@akamai.com</t>
+  </si>
+  <si>
+    <t>lravid@akamai.com</t>
+  </si>
+  <si>
+    <t>baizenbe@akamai.com</t>
+  </si>
+  <si>
+    <t>smahajan@akamai.com</t>
+  </si>
+  <si>
+    <t>aid@akamai.com</t>
+  </si>
+  <si>
+    <t>smonish@akamai.com</t>
+  </si>
+  <si>
+    <t>olapid@akamai.com</t>
+  </si>
+  <si>
+    <t>ssalamy@akamai.com</t>
+  </si>
+  <si>
+    <t>adondish@akamai.com</t>
+  </si>
+  <si>
+    <t>egur@akamai.com</t>
+  </si>
+  <si>
+    <t>gsayag@akamai.com</t>
+  </si>
+  <si>
+    <t>aortal@akamai.com</t>
+  </si>
+  <si>
+    <t>jshimoni@akamai.com</t>
+  </si>
+  <si>
+    <t>tovadia@akamai.com</t>
+  </si>
+  <si>
+    <t>bhanumaiya@google.com</t>
+  </si>
+  <si>
+    <t>uttarkar@google.com</t>
+  </si>
+  <si>
+    <t>tippanakrishna@google.com</t>
+  </si>
+  <si>
+    <t>siw@google.com</t>
+  </si>
+  <si>
+    <t>mirchang@google.com</t>
+  </si>
+  <si>
+    <t>varalakshmid@google.com</t>
+  </si>
+  <si>
+    <t>arushipaliwal@google.com</t>
+  </si>
+  <si>
+    <t>queenieyap@google.com</t>
+  </si>
+  <si>
+    <t>lkuhl@google.com</t>
+  </si>
+  <si>
+    <t>smritiverma@google.com</t>
+  </si>
+  <si>
+    <t>shakedhod@google.com</t>
+  </si>
+  <si>
+    <t>nkaun@google.com</t>
+  </si>
+  <si>
+    <t>meadbenjamin@google.com</t>
+  </si>
+  <si>
+    <t>roshnibhandari@google.com</t>
+  </si>
+  <si>
+    <t>af_hiring@google.com</t>
+  </si>
+  <si>
+    <t>aoifebrown@google.com</t>
+  </si>
+  <si>
+    <t>gpreda@google.com</t>
+  </si>
+  <si>
+    <t>leepayne@google.com</t>
+  </si>
+  <si>
+    <t>jbonnet@google.com</t>
+  </si>
+  <si>
+    <t>itelee@google.com</t>
+  </si>
+  <si>
+    <t>henrychien@xwf.google.com</t>
+  </si>
+  <si>
+    <t>harshilv@google.com</t>
+  </si>
+  <si>
+    <t>gpstalk2google@google.com</t>
+  </si>
+  <si>
+    <t>curban@google.com</t>
+  </si>
+  <si>
+    <t>qzhang@google.com</t>
+  </si>
+  <si>
+    <t>apvasudevan@google.com</t>
+  </si>
+  <si>
+    <t>hamidpalangi@google.com</t>
+  </si>
+  <si>
+    <t>cruzad@google.com</t>
+  </si>
+  <si>
+    <t>ss_hiring@google.com</t>
+  </si>
+  <si>
+    <t>dvdkim@google.com</t>
+  </si>
+  <si>
+    <t>material-views-hiring@google.com</t>
+  </si>
+  <si>
+    <t>thatdataguy@google.com</t>
+  </si>
+  <si>
+    <t>jiefengc@google.com</t>
+  </si>
+  <si>
+    <t>harml@google.com</t>
+  </si>
+  <si>
+    <t>tomaspf@google.com</t>
+  </si>
+  <si>
+    <t>aturiacserra@google.com</t>
+  </si>
+  <si>
+    <t>heviaperez@google.com</t>
+  </si>
+  <si>
+    <t>cristinaparra@google.com</t>
+  </si>
+  <si>
+    <t>gjosemaria@google.com</t>
+  </si>
+  <si>
+    <t>gonzalezborraz@google.com</t>
+  </si>
+  <si>
+    <t>nanogv@google.com</t>
+  </si>
+  <si>
+    <t>gangwani@adobe.com</t>
+  </si>
+  <si>
+    <t>sejjals@adobe.com</t>
+  </si>
+  <si>
+    <t>shrutyg@adobe.com</t>
+  </si>
+  <si>
+    <t>express-designer-web@adobe.com</t>
+  </si>
+  <si>
+    <t>hansingh@adobe.com</t>
+  </si>
+  <si>
+    <t>niteshku@adobe.com</t>
+  </si>
+  <si>
+    <t>isundarraman@adobe.com</t>
+  </si>
+  <si>
+    <t>jaimec@adobe.com</t>
+  </si>
+  <si>
+    <t>acomcontractor@adobe.com</t>
+  </si>
+  <si>
+    <t>samyadeepb@adobe.com</t>
+  </si>
+  <si>
+    <t>mdemaestri@adobe.com</t>
+  </si>
+  <si>
+    <t>sunkaval@adobe.com</t>
+  </si>
+  <si>
+    <t>akshitaj@adobe.com</t>
+  </si>
+  <si>
+    <t>monetization-contract@adobe.com</t>
+  </si>
+  <si>
+    <t>jasmkaur@adobe.com</t>
+  </si>
+  <si>
+    <t>anukreeti@adobe.com</t>
+  </si>
+  <si>
+    <t>jaspal@adobe.com</t>
+  </si>
+  <si>
+    <t>express-content-writer-25@adobe.com</t>
+  </si>
+  <si>
+    <t>baon@adobe.com</t>
+  </si>
+  <si>
+    <t>sayanghatak@adobe.com</t>
+  </si>
+  <si>
+    <t>ssharad@adobe.com</t>
+  </si>
+  <si>
+    <t>puneetm@adobe.com</t>
+  </si>
+  <si>
+    <t>platform-design-contract@adobe.com</t>
+  </si>
+  <si>
+    <t>visaggar@adobe.com</t>
+  </si>
+  <si>
+    <t>himanshis@adobe.com</t>
+  </si>
+  <si>
+    <t>vkunwar@adobe.com</t>
+  </si>
+  <si>
+    <t>expresscontractintl@adobe.com</t>
+  </si>
+  <si>
+    <t>yuliu@adobe.com</t>
+  </si>
+  <si>
+    <t>ltirgari@adobe.com</t>
+  </si>
+  <si>
+    <t>anushreej@adobe.com</t>
+  </si>
+  <si>
+    <t>joinfraud@adobe.com</t>
+  </si>
+  <si>
+    <t>talapatr@adobe.com</t>
+  </si>
+  <si>
+    <t>jfeld@adobe.com</t>
+  </si>
+  <si>
+    <t>deeagarw@adobe.com</t>
+  </si>
+  <si>
+    <t>ad-di-temp-hiring@adobe.com</t>
+  </si>
+  <si>
+    <t>maier@adobe.com</t>
+  </si>
+  <si>
+    <t>arindamd@adobe.com</t>
+  </si>
+  <si>
+    <t>mwaikar@adobe.com</t>
+  </si>
+  <si>
+    <t>adumbrava@adobe.com</t>
+  </si>
+  <si>
+    <t>deepa_malik-guva@mckinsey.com</t>
+  </si>
+  <si>
+    <t>kelsey_price@mckinsey.com</t>
+  </si>
+  <si>
+    <t>newideas@mckinsey.com</t>
+  </si>
+  <si>
+    <t>seo_recruiting@mckinsey.com</t>
+  </si>
+  <si>
+    <t>gc_recruiting@mckinsey.com</t>
+  </si>
+  <si>
+    <t>ian_a_crawford@mckinsey.com</t>
+  </si>
+  <si>
+    <t>mckinsey_website_accessibility@mckinsey.com</t>
+  </si>
+  <si>
+    <t>digital_health_conference@mckinsey.com</t>
+  </si>
+  <si>
+    <t>garland.charlotte@bcg.com</t>
+  </si>
+  <si>
+    <t>holt.patty@bcg.com</t>
+  </si>
+  <si>
+    <t>fuhr.anna@bcg.com</t>
+  </si>
+  <si>
+    <t>rec.tai@bcg.com</t>
+  </si>
+  <si>
+    <t>trakarnvattanavong.pisitchai@bcg.com</t>
+  </si>
+  <si>
+    <t>chong.chloe@bcg.com</t>
+  </si>
+  <si>
+    <t>ruangrojanin.thanasit@bcg.com</t>
+  </si>
+  <si>
+    <t>luannguyen.cta@bcg.com</t>
+  </si>
+  <si>
+    <t>monsereenusorn.marvyn@bcg.com</t>
+  </si>
+  <si>
+    <t>dang.phuong@bcg.com</t>
+  </si>
+  <si>
+    <t>loh.rachel2@bcg.com</t>
+  </si>
+  <si>
+    <t>tran.tuyen@bcg.com</t>
+  </si>
+  <si>
+    <t>golsby.charles@bcg.com</t>
+  </si>
+  <si>
+    <t>kong.tristan@bcg.com</t>
+  </si>
+  <si>
+    <t>achal.sharma@mastercard.com</t>
+  </si>
+  <si>
+    <t>anurag.mahajan@mastercard.com</t>
+  </si>
+  <si>
+    <t>mohit.bajpai@mastercard.com</t>
+  </si>
+  <si>
+    <t>suraaj.hasija@mastercard.com</t>
+  </si>
+  <si>
+    <t>manas.kedia@mastercard.com</t>
+  </si>
+  <si>
+    <t>kevin.ranka@mastercard.com</t>
+  </si>
+  <si>
+    <t>vikram.arora@mastercard.com</t>
+  </si>
+  <si>
+    <t>deepak.kumar4@mastercard.com</t>
+  </si>
+  <si>
+    <t>nikhil.wadaje@mastercard.com</t>
+  </si>
+  <si>
+    <t>swati.shukla@mastercard.com</t>
+  </si>
+  <si>
+    <t>shubhang@visa.com</t>
+  </si>
+  <si>
+    <t>militarytalent@visa.com</t>
+  </si>
+  <si>
+    <t>militaryfellowships@visa.com</t>
+  </si>
+  <si>
+    <t>harshisi@visa.com</t>
+  </si>
+  <si>
+    <t>krkishor@visa.com</t>
+  </si>
+  <si>
+    <t>earlycareersin@visa.com</t>
+  </si>
+  <si>
+    <t>sathyavani_babureddy@dell.com</t>
+  </si>
+  <si>
+    <t>vikrama.ht@dell.com</t>
+  </si>
+  <si>
+    <t>mohammad.alavirad@dell.com</t>
+  </si>
+  <si>
+    <t>sudip.hazra@dell.com</t>
+  </si>
+  <si>
+    <t>paramita.das@dell.com</t>
+  </si>
+  <si>
+    <t>rebecca.dunn@dell.com</t>
+  </si>
+  <si>
+    <t>emilie_bostyn@dell.com</t>
+  </si>
+  <si>
+    <t>emmanuelle_alligand@dell.com</t>
+  </si>
+  <si>
+    <t>scot.duffy@dell.com</t>
+  </si>
+  <si>
+    <t>diane_eisbrenner@dell.com</t>
+  </si>
+  <si>
+    <t>chris.dias@chargebee.com</t>
+  </si>
+  <si>
+    <t>yashika1.pachauri@upgrad.com</t>
+  </si>
+  <si>
+    <t>saurabh.arora@upgrad.com</t>
+  </si>
+  <si>
+    <t>karthik.selvaraj@upgrad.com</t>
+  </si>
+  <si>
+    <t>vipin.sehgal@upgrad.com</t>
+  </si>
+  <si>
+    <t>jiyadh.sayed@upgrad.com</t>
+  </si>
+  <si>
+    <t>atindra1.mukherjee@upgrad.com</t>
+  </si>
+  <si>
+    <t>aditya1.saxena@upgrad.com</t>
+  </si>
+  <si>
+    <t>saniya.khan@upgrad.com</t>
+  </si>
+  <si>
+    <t>sejal.mishra@upgrad.com</t>
+  </si>
+  <si>
+    <t>simran.merchant@upgrad.com</t>
+  </si>
+  <si>
+    <t>praneeth.palaparthi@upgrad.com</t>
+  </si>
+  <si>
+    <t>vikram2.singh@upgrad.com</t>
+  </si>
+  <si>
+    <t>pandu.dharmalingam@upgrad.com</t>
+  </si>
+  <si>
+    <t>manish1.jain@upgrad.com</t>
+  </si>
+  <si>
+    <t>yukti.singh@upgrad.com</t>
+  </si>
+  <si>
+    <t>mohammed.shahbaaz@upgrad.com</t>
+  </si>
+  <si>
+    <t>nancy.agrawal@upgrad.com</t>
+  </si>
+  <si>
+    <t>mahi.d@upgrad.com</t>
+  </si>
+  <si>
+    <t>maheshwari.pandey@upgrad.com</t>
+  </si>
+  <si>
+    <t>pooja.poojary@upgrad.com</t>
+  </si>
+  <si>
+    <t>kopal.kedia@upgrad.com</t>
+  </si>
+  <si>
+    <t>saloni1.saxena@upgrad.com</t>
+  </si>
+  <si>
+    <t>malan.shaikh@upgrad.com</t>
+  </si>
+  <si>
+    <t>khushi.rabban@upgrad.com</t>
+  </si>
+  <si>
+    <t>nikhil.shastrakar@upgrad.com</t>
+  </si>
+  <si>
+    <t>ashish.pal@upgrad.com</t>
+  </si>
+  <si>
+    <t>sheeza.bakshi@upgrad.com</t>
+  </si>
+  <si>
+    <t>rashmi.yadav@upgrad.com</t>
+  </si>
+  <si>
+    <t>syed.nizamuddin@upgrad.com</t>
+  </si>
+  <si>
+    <t>annu.tiwari@upgrad.com</t>
+  </si>
+  <si>
+    <t>monika.aggarwal@upgrad.com</t>
+  </si>
+  <si>
+    <t>varsha.sahu@upgrad.com</t>
+  </si>
+  <si>
+    <t>pratik.tendulkar@upgrad.com</t>
+  </si>
+  <si>
+    <t>sushma.balachandran@upgrad.com</t>
+  </si>
+  <si>
+    <t>shirin.rai@upgrad.com</t>
+  </si>
+  <si>
+    <t>sumiran.sumiran@upgrad.com</t>
+  </si>
+  <si>
+    <t>priyanka.more@upgrad.com</t>
+  </si>
+  <si>
+    <t>vinod.chandrabhan@upgrad.com</t>
+  </si>
+  <si>
+    <t>architt.jaiswal@upgrad.com</t>
+  </si>
+  <si>
+    <t>kiran.adsule@upgrad.com</t>
+  </si>
+  <si>
+    <t>gargi.trivedi@upgrad.com</t>
+  </si>
+  <si>
+    <t>ronak.maru@upgrad.com</t>
+  </si>
+  <si>
+    <t>rekrut.hr@upgrad.com</t>
+  </si>
+  <si>
+    <t>pankaj.jonwal@upgrad.com</t>
+  </si>
+  <si>
+    <t>mushkan.khandelwal@upgrad.com</t>
+  </si>
+  <si>
+    <t>shivam.punyani@upgrad.com</t>
+  </si>
+  <si>
+    <t>mehak.ashrani@upgrad.com</t>
+  </si>
+  <si>
+    <t>kanchan.kumari@upgrad.com</t>
+  </si>
+  <si>
+    <t>adit1.gupta@upgrad.com</t>
+  </si>
+  <si>
+    <t>ashish.nagar@upgrad.com</t>
+  </si>
+  <si>
+    <t>vibhatsu.yadav@upgrad.com</t>
+  </si>
+  <si>
+    <t>simran2.kaur@upgrad.com</t>
+  </si>
+  <si>
+    <t>pooja.rawat@upgrad.com</t>
+  </si>
+  <si>
+    <t>mridula.singh@upgrad.com</t>
+  </si>
+  <si>
+    <t>pratibha.verma@upgrad.com</t>
+  </si>
+  <si>
+    <t>gaurav.khatwani@upgrad.com</t>
+  </si>
+  <si>
+    <t>saurabh.palsule@upgrad.com</t>
+  </si>
+  <si>
+    <t>mahima.tripathi@upgrad.com</t>
+  </si>
+  <si>
+    <t>neha1.gupta@upgrad.com</t>
+  </si>
+  <si>
+    <t>vikash1.kumar@upgrad.com</t>
+  </si>
+  <si>
+    <t>sapana.bhanushali@upgrad.com</t>
+  </si>
+  <si>
+    <t>adnan.rahman@upgrad.com</t>
+  </si>
+  <si>
+    <t>kajal5.singh@upgrad.com</t>
+  </si>
+  <si>
+    <t>sanjay.kumar1@walmart.com</t>
+  </si>
+  <si>
+    <t>sarika.balaji@walmart.com</t>
+  </si>
+  <si>
+    <t>selvaraj.r.r@walmart.com</t>
+  </si>
+  <si>
+    <t>dinesh.martin@walmart.com</t>
+  </si>
+  <si>
+    <t>mahesh.jena@walmart.com</t>
+  </si>
+  <si>
+    <t>santhosh.kumarp@walmart.com</t>
+  </si>
+  <si>
+    <t>shataksi.misra@flipkart.com</t>
+  </si>
+  <si>
+    <t>geeta.kanwar@flipkart.com</t>
+  </si>
+  <si>
+    <t>saripillideepk.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>kundan.bharty@flipkart.com</t>
+  </si>
+  <si>
+    <t>ravi.k2@flipkart.com</t>
+  </si>
+  <si>
+    <t>akkinapalli.s@flipkart.com</t>
+  </si>
+  <si>
+    <t>monomit.nandy@flipkart.com</t>
+  </si>
+  <si>
+    <t>anurag.pandey@flipkart.com</t>
+  </si>
+  <si>
+    <t>nileshr.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>souravrathore.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>hardikshreemali.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>kishorrajak.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>arpitbhatt.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>praveen.k3@flipkart.com</t>
+  </si>
+  <si>
+    <t>saxena.ashish@flipkart.com</t>
+  </si>
+  <si>
+    <t>tarunt13.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>nidhikumari1.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>abhay.srivastava1@flipkart.com</t>
+  </si>
+  <si>
+    <t>singh.sakshi@flipkart.com</t>
+  </si>
+  <si>
+    <t>mahibhadauria.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>asma.abdy@flipkart.com</t>
+  </si>
+  <si>
+    <t>deepanshu.joshi@flipkart.com</t>
+  </si>
+  <si>
+    <t>bhagyashree.saikia@flipkart.com</t>
+  </si>
+  <si>
+    <t>samansthitasen.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>mohdshariq.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>khushisom.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>rudra.singh@flipkart.com</t>
+  </si>
+  <si>
+    <t>atanu.maity82@flipkart.com</t>
+  </si>
+  <si>
+    <t>prashant.jadon@flipkart.com</t>
+  </si>
+  <si>
+    <t>omkar.sudhakar@flipkart.com</t>
+  </si>
+  <si>
+    <t>saurabhpachauri.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>mohammed.sabeelc@flipkart.com</t>
+  </si>
+  <si>
+    <t>parulp1.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>akshay.paunikar@flipkart.com</t>
+  </si>
+  <si>
+    <t>kumaripriya.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>gautammehta1.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>siddhikajaiswal.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>sunnykumar13.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>syed.rashedahmed@flipkart.com</t>
+  </si>
+  <si>
+    <t>swetap.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>prashanth.madagani@flipkart.com</t>
+  </si>
+  <si>
+    <t>sriram.kamath@flipkart.com</t>
+  </si>
+  <si>
+    <t>sneha.neogi1@flipkart.com</t>
+  </si>
+  <si>
+    <t>resham.anand@flipkart.com</t>
+  </si>
+  <si>
+    <t>shinuc.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>abhilash.pradhan1@flipkart.com</t>
+  </si>
+  <si>
+    <t>vikram.yadav@flipkart.com</t>
+  </si>
+  <si>
+    <t>sapnapanwar1.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>moses.j@flipkart.com</t>
+  </si>
+  <si>
+    <t>dilavar.p@flipkart.com</t>
+  </si>
+  <si>
+    <t>mohd.shariz@flipkart.com</t>
+  </si>
+  <si>
+    <t>anchit.mittal@flipkart.com</t>
+  </si>
+  <si>
+    <t>aadhilmuhammeh.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>sandra.joseph@flipkart.com</t>
+  </si>
+  <si>
+    <t>mohammedshibip.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>krishnakants2.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>deepakkumar33.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>jaimin.sailor@flipkart.com</t>
+  </si>
+  <si>
+    <t>vanshikabais.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>pratit.malde@flipkart.com</t>
+  </si>
+  <si>
+    <t>rachna.rana@flipkart.com</t>
+  </si>
+  <si>
+    <t>sneha.verma@flipkart.com</t>
+  </si>
+  <si>
+    <t>siddharth.mohan@flipkart.com</t>
+  </si>
+  <si>
+    <t>akshat.sharaf@flipkart.com</t>
+  </si>
+  <si>
+    <t>gayathri.gopan@flipkart.com</t>
+  </si>
+  <si>
+    <t>rakhi.singh4@flipkart.com</t>
+  </si>
+  <si>
+    <t>pinky.pathak1@flipkart.com</t>
+  </si>
+  <si>
+    <t>himangshu.t@flipkart.com</t>
+  </si>
+  <si>
+    <t>rauni.singh@flipkart.com</t>
+  </si>
+  <si>
+    <t>jayanth.hiremath@flipkart.com</t>
+  </si>
+  <si>
+    <t>narendar.r@flipkart.com</t>
+  </si>
+  <si>
+    <t>sabeelrainee.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>gurdeep.singh3@flipkart.com</t>
+  </si>
+  <si>
+    <t>vishalv23.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>snehaneogi.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>prasadaravindh.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>jayom.dave@flipkart.com</t>
+  </si>
+  <si>
+    <t>ankita.singh8@flipkart.com</t>
+  </si>
+  <si>
+    <t>samshedalam.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>rati.parmesh@flipkart.com</t>
+  </si>
+  <si>
+    <t>deepanhu.joshi@flipkart.com</t>
+  </si>
+  <si>
+    <t>dhutupadhay.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>altafkhan.vc@flipkart.com</t>
+  </si>
+  <si>
+    <t>anil.shah@flipkart.com</t>
+  </si>
+  <si>
+    <t>chirag.bali@myntra.com</t>
+  </si>
+  <si>
+    <t>harishkumarh.vc@myntra.com</t>
+  </si>
+  <si>
+    <t>vandana.singarapu@myntra.com</t>
+  </si>
+  <si>
+    <t>shivanidabar.vc@myntra.com</t>
+  </si>
+  <si>
+    <t>navin.kumar2@myntra.com</t>
+  </si>
+  <si>
+    <t>zinnia.nath@myntra.com</t>
   </si>
 </sst>
 </file>
@@ -15433,10 +16456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:B4957"/>
+  <dimension ref="A1:B5300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4932" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4941" sqref="A4941"/>
+    <sheetView tabSelected="1" topLeftCell="A5299" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5246" sqref="B5246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40349,6 +41372,1721 @@
     <row r="4957" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4957" t="s">
         <v>4954</v>
+      </c>
+    </row>
+    <row r="4958" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4958" t="s">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="4959" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4959" t="s">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="4960" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4960" t="s">
+        <v>4957</v>
+      </c>
+    </row>
+    <row r="4961" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4961" t="s">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="4962" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4962" t="s">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="4963" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4963" t="s">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="4964" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4964" t="s">
+        <v>4961</v>
+      </c>
+    </row>
+    <row r="4965" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4965" t="s">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="4966" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4966" t="s">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="4967" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4967" t="s">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="4968" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4968" t="s">
+        <v>4965</v>
+      </c>
+    </row>
+    <row r="4969" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4969" t="s">
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="4970" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4970" t="s">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="4971" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4971" t="s">
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="4972" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4972" t="s">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="4973" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4973" t="s">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="4974" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4974" t="s">
+        <v>4971</v>
+      </c>
+    </row>
+    <row r="4975" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4975" t="s">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="4976" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4976" t="s">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="4977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4977" t="s">
+        <v>4974</v>
+      </c>
+    </row>
+    <row r="4978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4978" t="s">
+        <v>4975</v>
+      </c>
+    </row>
+    <row r="4979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4979" t="s">
+        <v>4976</v>
+      </c>
+    </row>
+    <row r="4980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4980" t="s">
+        <v>4977</v>
+      </c>
+    </row>
+    <row r="4981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4981" t="s">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="4982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4982" t="s">
+        <v>4979</v>
+      </c>
+    </row>
+    <row r="4983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4983" t="s">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="4984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4984" t="s">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="4985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4985" t="s">
+        <v>4982</v>
+      </c>
+    </row>
+    <row r="4986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4986" t="s">
+        <v>4983</v>
+      </c>
+    </row>
+    <row r="4987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4987" t="s">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="4988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4988" t="s">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="4989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4989" t="s">
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="4990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4990" t="s">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="4991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4991" t="s">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="4992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4992" t="s">
+        <v>4989</v>
+      </c>
+    </row>
+    <row r="4993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4993" t="s">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="4994" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4994" t="s">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="4995" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4995" t="s">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="4996" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4996" t="s">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="4997" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4997" t="s">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="4998" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4998" t="s">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="4999" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4999" t="s">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="5000" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5000" t="s">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="5001" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5001" t="s">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="5002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5002" t="s">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="5003" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5003" t="s">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5004" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5004" t="s">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="5005" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5005" t="s">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="5006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5006" t="s">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="5007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5007" t="s">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="5008" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5008" t="s">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="5009" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5009" t="s">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="5010" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5010" t="s">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="5011" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5011" t="s">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="5012" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5012" t="s">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="5013" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5013" t="s">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="5014" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5014" t="s">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="5015" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5015" t="s">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="5016" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5016" t="s">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="5017" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5017" t="s">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="5018" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5018" t="s">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="5019" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5019" t="s">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="5020" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5020" t="s">
+        <v>5017</v>
+      </c>
+    </row>
+    <row r="5021" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5021" t="s">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="5022" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5022" t="s">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="5023" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5023" t="s">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="5024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5024" t="s">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="5025" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5025" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="5026" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5026" t="s">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="5027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5027" t="s">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="5028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5028" t="s">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="5029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5029" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="5030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5030" t="s">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="5031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5031" t="s">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="5032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5032" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="5033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5033" t="s">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="5034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5034" t="s">
+        <v>5031</v>
+      </c>
+    </row>
+    <row r="5035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5035" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="5036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5036" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="5037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5037" t="s">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="5038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5038" t="s">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="5039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5039" t="s">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="5040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5040" t="s">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="5041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5041" t="s">
+        <v>5038</v>
+      </c>
+    </row>
+    <row r="5042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5042" t="s">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="5043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5043" t="s">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="5044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5044" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="5045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5045" t="s">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="5046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5046" t="s">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="5047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5047" t="s">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="5048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5048" t="s">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="5049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5049" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="5050" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5050" t="s">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="5051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5051" t="s">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="5052" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5052" t="s">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="5053" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5053" t="s">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="5054" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5054" t="s">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="5055" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5055" t="s">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="5056" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5056" t="s">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="5057" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5057" t="s">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="5058" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5058" t="s">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="5059" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5059" t="s">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="5060" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5060" t="s">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="5061" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5061" t="s">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="5062" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5062" t="s">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="5063" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5063" t="s">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="5064" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5064" t="s">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="5065" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5065" t="s">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="5066" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5066" t="s">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="5067" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5067" t="s">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="5068" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5068" t="s">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="5069" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5069" t="s">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="5070" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5070" t="s">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="5071" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5071" t="s">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="5072" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5072" t="s">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="5073" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5073" t="s">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="5074" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5074" t="s">
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="5075" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5075" t="s">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="5076" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5076" t="s">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="5077" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5077" t="s">
+        <v>5074</v>
+      </c>
+    </row>
+    <row r="5078" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5078" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="5079" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5079" t="s">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="5080" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5080" t="s">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="5081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5081" t="s">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="5082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5082" t="s">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="5083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5083" t="s">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="5084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5084" t="s">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="5085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5085" t="s">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="5086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5086" t="s">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="5087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5087" t="s">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="5088" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5088" t="s">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="5089" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5089" t="s">
+        <v>5086</v>
+      </c>
+    </row>
+    <row r="5090" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5090" t="s">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="5091" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5091" t="s">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="5092" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5092" t="s">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="5093" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5093" t="s">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="5094" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5094" t="s">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="5095" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5095" t="s">
+        <v>5092</v>
+      </c>
+    </row>
+    <row r="5096" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5096" t="s">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="5097" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5097" t="s">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="5098" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5098" t="s">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="5099" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5099" t="s">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="5100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5100" t="s">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="5101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5101" t="s">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="5102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5102" t="s">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="5103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5103" t="s">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="5104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5104" t="s">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="5105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5105" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="5106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5106" t="s">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="5107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5107" t="s">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="5108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5108" t="s">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="5109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5109" t="s">
+        <v>5106</v>
+      </c>
+    </row>
+    <row r="5110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5110" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="5111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5111" t="s">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="5112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5112" t="s">
+        <v>5109</v>
+      </c>
+    </row>
+    <row r="5113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5113" t="s">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="5114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5114" t="s">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="5115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5115" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="5116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5116" t="s">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="5117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5117" t="s">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="5118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5118" t="s">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="5119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5119" t="s">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="5120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5120" t="s">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="5121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5121" t="s">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="5122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5122" t="s">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="5123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5123" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="5124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5124" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="5125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5125" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="5126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5126" t="s">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="5127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5127" t="s">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="5128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5128" t="s">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="5129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5129" t="s">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="5130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5130" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="5131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5131" t="s">
+        <v>5126</v>
+      </c>
+    </row>
+    <row r="5132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5132" t="s">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="5133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5133" t="s">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="5134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5134" t="s">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="5135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5135" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="5136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5136" t="s">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="5137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5137" t="s">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="5138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5138" t="s">
+        <v>5133</v>
+      </c>
+    </row>
+    <row r="5139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5139" t="s">
+        <v>5134</v>
+      </c>
+    </row>
+    <row r="5140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5140" t="s">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="5141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5141" t="s">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="5142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5142" t="s">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="5143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5143" t="s">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="5144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5144" t="s">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="5145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5145" t="s">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="5146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5146" t="s">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="5147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5147" t="s">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="5148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5148" t="s">
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="5149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5149" t="s">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="5150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5150" t="s">
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="5151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5151" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="5152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5152" t="s">
+        <v>5147</v>
+      </c>
+    </row>
+    <row r="5153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5153" t="s">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="5154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5154" t="s">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="5155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5155" t="s">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="5156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5156" t="s">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="5157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5157" t="s">
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="5158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5158" t="s">
+        <v>5153</v>
+      </c>
+    </row>
+    <row r="5159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5159" t="s">
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="5160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5160" t="s">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="5161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5161" t="s">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="5162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5162" t="s">
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="5163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5163" t="s">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="5164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5164" t="s">
+        <v>5159</v>
+      </c>
+    </row>
+    <row r="5165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5165" t="s">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="5166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5166" t="s">
+        <v>5161</v>
+      </c>
+    </row>
+    <row r="5167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5167" t="s">
+        <v>5162</v>
+      </c>
+    </row>
+    <row r="5168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5168" t="s">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="5169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5169" t="s">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="5170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5170" t="s">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="5171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5171" t="s">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="5172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5172" t="s">
+        <v>5167</v>
+      </c>
+    </row>
+    <row r="5173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5173" t="s">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="5174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5174" t="s">
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="5175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5175" t="s">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="5176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5176" t="s">
+        <v>5171</v>
+      </c>
+    </row>
+    <row r="5177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5177" t="s">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="5178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5178" t="s">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="5179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5179" t="s">
+        <v>5174</v>
+      </c>
+    </row>
+    <row r="5180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5180" t="s">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="5181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5181" t="s">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="5182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5182" t="s">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="5183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5183" t="s">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="5184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5184" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="5185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5185" t="s">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="5186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5186" t="s">
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="5187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5187" t="s">
+        <v>5182</v>
+      </c>
+    </row>
+    <row r="5188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5188" t="s">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="5189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5189" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="5190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5190" t="s">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="5191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5191" t="s">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="5192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5192" t="s">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="5193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5193" t="s">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="5194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5194" t="s">
+        <v>5189</v>
+      </c>
+    </row>
+    <row r="5195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5195" t="s">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="5196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5196" t="s">
+        <v>5191</v>
+      </c>
+    </row>
+    <row r="5197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5197" t="s">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="5198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5198" t="s">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="5199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5199" t="s">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="5200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5200" t="s">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="5201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5201" t="s">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="5202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5202" t="s">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="5203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5203" t="s">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="5204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5204" t="s">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="5205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5205" t="s">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="5206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5206" t="s">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="5207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5207" t="s">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="5208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5208" t="s">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="5209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5209" t="s">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="5210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5210" t="s">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="5211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5211" t="s">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="5212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5212" t="s">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="5213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5213" t="s">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="5214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5214" t="s">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="5215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5215" t="s">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="5216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5216" t="s">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="5217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5217" t="s">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="5218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5218" t="s">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="5219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5219" t="s">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="5220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5220" t="s">
+        <v>5215</v>
+      </c>
+    </row>
+    <row r="5221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5221" t="s">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="5222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5222" t="s">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="5223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5223" t="s">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="5224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5224" t="s">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="5225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5225" t="s">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="5226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5226" t="s">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="5227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5227" t="s">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="5228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5228" t="s">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="5229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5229" t="s">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="5230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5230" t="s">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="5231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5231" t="s">
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="5232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5232" t="s">
+        <v>5227</v>
+      </c>
+    </row>
+    <row r="5233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5233" t="s">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="5234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5234" t="s">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="5235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5235" t="s">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="5236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5236" t="s">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="5237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5237" t="s">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="5238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5238" t="s">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="5239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5239" t="s">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="5240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5240" t="s">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="5241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5241" t="s">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="5242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5242" t="s">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="5243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5243" t="s">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="5244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5244" t="s">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="5245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5245" t="s">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="5246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5246" t="s">
+        <v>5241</v>
+      </c>
+    </row>
+    <row r="5247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5247" t="s">
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="5248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5248" t="s">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="5249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5249" t="s">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="5250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5250" t="s">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="5251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5251" t="s">
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="5252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5252" t="s">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="5253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5253" t="s">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="5254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5254" t="s">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="5255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5255" t="s">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="5256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5256" t="s">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="5257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5257" t="s">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="5258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5258" t="s">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="5259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5259" t="s">
+        <v>5254</v>
+      </c>
+    </row>
+    <row r="5260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5260" t="s">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="5261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5261" t="s">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="5262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5262" t="s">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="5263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5263" t="s">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="5264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5264" t="s">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="5265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5265" t="s">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="5266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5266" t="s">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="5267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5267" t="s">
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="5268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5268" t="s">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="5269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5269" t="s">
+        <v>5264</v>
+      </c>
+    </row>
+    <row r="5270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5270" t="s">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="5271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5271" t="s">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="5272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5272" t="s">
+        <v>5267</v>
+      </c>
+    </row>
+    <row r="5273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5273" t="s">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="5274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5274" t="s">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="5275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5275" t="s">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="5276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5276" t="s">
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="5277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5277" t="s">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="5278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5278" t="s">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="5279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5279" t="s">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="5280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5280" t="s">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="5281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5281" t="s">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="5282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5282" t="s">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="5283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5283" t="s">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="5284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5284" t="s">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="5285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5285" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="5286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5286" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="5287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5287" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="5288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5288" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="5289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5289" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="5290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5290" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="5291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5291" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="5292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5292" t="s">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="5293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5293" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="5294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5294" t="s">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="5295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5295" t="s">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="5296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5296" t="s">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="5297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5297" t="s">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="5298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5298" t="s">
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="5299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5299" t="s">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="5300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5300" t="s">
+        <v>5295</v>
       </c>
     </row>
   </sheetData>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4DD650-D077-48E2-BC5D-E6B9EA7DED60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5E7577-1023-4735-A333-AAD1463A108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5300" uniqueCount="5296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5393" uniqueCount="5392">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -15402,9 +15402,6 @@
     <t>shubhang@visa.com</t>
   </si>
   <si>
-    <t>militarytalent@visa.com</t>
-  </si>
-  <si>
     <t>militaryfellowships@visa.com</t>
   </si>
   <si>
@@ -15414,9 +15411,6 @@
     <t>krkishor@visa.com</t>
   </si>
   <si>
-    <t>earlycareersin@visa.com</t>
-  </si>
-  <si>
     <t>sathyavani_babureddy@dell.com</t>
   </si>
   <si>
@@ -15925,6 +15919,300 @@
   </si>
   <si>
     <t>zinnia.nath@myntra.com</t>
+  </si>
+  <si>
+    <t>doha.madani@hsbc.com</t>
+  </si>
+  <si>
+    <t>rowaida.fouad.kamel@hsbc.com</t>
+  </si>
+  <si>
+    <t>noor.eltahan@hsbc.com</t>
+  </si>
+  <si>
+    <t>ibrahim.arafat@hsbc.com</t>
+  </si>
+  <si>
+    <t>meghadutta@hsbc.com</t>
+  </si>
+  <si>
+    <t>ahmed.ayyad@hsbc.com</t>
+  </si>
+  <si>
+    <t>dalia.ibrahim.magdy@hsbc.com</t>
+  </si>
+  <si>
+    <t>laila.gamali@hsbc.com</t>
+  </si>
+  <si>
+    <t>aly.maqlad@hsbc.com</t>
+  </si>
+  <si>
+    <t>sally.alaa@hsbc.com</t>
+  </si>
+  <si>
+    <t>ash.mcbrearty@hsbc.com</t>
+  </si>
+  <si>
+    <t>askresearch@hsbc.com</t>
+  </si>
+  <si>
+    <t>divya.deb@hsbc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ray.mills@databricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">michael.rooke@databricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dina.hussain@databricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">francesca.paternoster@databricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhishek.rai@databricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">william.harmer@databricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiersten.huddleston@databricks.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishali.rathod@databricks.com  </t>
+  </si>
+  <si>
+    <t>latha.venugopal@broadcom.com</t>
+  </si>
+  <si>
+    <t>atwenguang.wang@broadcom.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vibha.jain@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tushar.gangera@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lawrence.elmer.ibale@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankit.kamal@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arivumathi.r@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sridhar.yedlapalli@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinky.mukherjee@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">narendra.chauhan@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shirley.s.zhang@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaideeswaran.r@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nagendhran.rangarajan@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nancy.dewan@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tridip.das@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rinisha.bhaskar@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhinav.sinha@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajay.chaurasia@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arun.malhotra@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lesley.yumi.gallano@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pallavi.x.singh@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ravikanth.r.thota@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">veteranrecruiting_us@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amanda.sealy@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajesh.jana@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swapna.upparapati@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">suneel.kanumuri@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lorence.dave.de.castro@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushpa.k.kumari@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshay.joharle@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">srinivas.karthik.lambavai.kum@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">angel.mizpha@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saurabh.ag.agrawal@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">naveen.vemula@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">suman.rajeev@oracle.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">clifford.amaral@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sangamesh.patil.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">himanshu.malhotra@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">debina.john.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">riddhi.sehgal@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amira.dias@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">digvijay.kumar@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vikram.soni@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sachin.mishra@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunil-kumar.kl.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinakar.poojari.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuwad.khan@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">faisal.khan@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verma.amit@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vyakhya.jindal.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanvi.mandke.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">megha.mandani.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anushpa.kamble.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sta.kalwa.in@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sahaana.balaji.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sweccha.shah.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nehasharma.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">santosh.gautam@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">venkatesh.vura@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sourav.tiwari@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibnu.kholdun@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnyanesh.santosh-kulkarni@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aishwarya.kamakshi.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandeep.sangireddy.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manavi.morwadkar.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">agrawalshreya.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pramatha.madhu-kumar@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">off-ops_cvs.eg@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">johnson.antony.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amitkumar.tripathi@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahman.ashikur@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anushka-agarwal.ext@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">di-central.ehs.in@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vikas.pal@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">careers.india@siemens.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs@siemens.com  </t>
+  </si>
+  <si>
+    <t>megha.kamthan@bmwgroup.com</t>
   </si>
 </sst>
 </file>
@@ -16456,10 +16744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:B5300"/>
+  <dimension ref="A1:B5393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5299" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5246" sqref="B5246"/>
+    <sheetView tabSelected="1" topLeftCell="A5379" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5393" sqref="B5393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41126,2012 +41414,2477 @@
     </row>
     <row r="4908" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4908" t="s">
-        <v>3447</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="4909" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4909" t="s">
-        <v>4907</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="4910" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4910" t="s">
-        <v>4908</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="4911" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4911" t="s">
-        <v>4909</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="4912" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4912" t="s">
-        <v>4910</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="4913" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4913" t="s">
-        <v>4911</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="4914" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4914" t="s">
-        <v>4912</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="4915" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4915" t="s">
-        <v>4913</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="4916" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4916" t="s">
-        <v>4914</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="4917" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4917" t="s">
-        <v>4915</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="4918" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4918" t="s">
-        <v>4916</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="4919" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4919" t="s">
-        <v>4917</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="4920" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4920" t="s">
-        <v>4918</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="4921" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4921" t="s">
-        <v>4919</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="4922" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4922" t="s">
-        <v>4920</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="4923" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4923" t="s">
-        <v>4921</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="4924" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4924" t="s">
-        <v>4922</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="4925" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4925" t="s">
-        <v>4923</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="4926" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4926" t="s">
-        <v>4236</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="4927" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4927" t="s">
-        <v>4924</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="4928" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4928" t="s">
-        <v>4925</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="4929" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4929" t="s">
-        <v>4926</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="4930" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4930" t="s">
-        <v>4927</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="4931" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4931" t="s">
-        <v>4928</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="4932" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4932" t="s">
-        <v>4929</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="4933" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4933" t="s">
-        <v>4930</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="4934" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4934" t="s">
-        <v>4931</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="4935" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4935" t="s">
-        <v>4932</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="4936" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4936" t="s">
-        <v>4933</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="4937" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4937" t="s">
-        <v>4934</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="4938" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4938" t="s">
-        <v>4935</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="4939" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4939" t="s">
-        <v>4936</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="4940" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4940" t="s">
-        <v>4937</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="4941" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4941" t="s">
-        <v>4938</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="4942" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4942" t="s">
-        <v>4939</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="4943" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4943" t="s">
-        <v>4940</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="4944" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4944" t="s">
-        <v>4941</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="4945" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4945" t="s">
-        <v>4942</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="4946" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4946" t="s">
-        <v>4943</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="4947" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4947" t="s">
-        <v>4944</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="4948" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4948" t="s">
-        <v>4945</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="4949" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4949" t="s">
-        <v>4946</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="4950" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4950" t="s">
-        <v>4947</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="4951" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4951" t="s">
-        <v>4948</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="4952" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4952" t="s">
-        <v>4949</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="4953" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4953" t="s">
-        <v>4950</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="4954" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4954" t="s">
-        <v>4951</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="4955" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4955" t="s">
-        <v>4952</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="4956" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4956" t="s">
-        <v>4953</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="4957" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4957" t="s">
-        <v>4954</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="4958" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4958" t="s">
-        <v>4955</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="4959" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4959" t="s">
-        <v>4956</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="4960" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4960" t="s">
-        <v>4957</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="4961" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4961" t="s">
-        <v>4958</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="4962" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4962" t="s">
-        <v>4959</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="4963" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4963" t="s">
-        <v>4960</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="4964" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4964" t="s">
-        <v>4961</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="4965" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4965" t="s">
-        <v>4962</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="4966" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4966" t="s">
-        <v>4963</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="4967" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4967" t="s">
-        <v>4964</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="4968" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4968" t="s">
-        <v>4965</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="4969" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4969" t="s">
-        <v>4966</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="4970" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4970" t="s">
-        <v>4967</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="4971" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4971" t="s">
-        <v>4968</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="4972" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4972" t="s">
-        <v>4969</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="4973" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4973" t="s">
-        <v>4970</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="4974" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4974" t="s">
-        <v>4971</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="4975" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4975" t="s">
-        <v>4972</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="4976" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4976" t="s">
-        <v>4973</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="4977" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4977" t="s">
-        <v>4974</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="4978" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4978" t="s">
-        <v>4975</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="4979" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4979" t="s">
-        <v>4976</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="4980" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4980" t="s">
-        <v>4977</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="4981" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4981" t="s">
-        <v>4978</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="4982" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4982" t="s">
-        <v>4979</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="4983" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4983" t="s">
-        <v>4980</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="4984" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4984" t="s">
-        <v>4981</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="4985" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4985" t="s">
-        <v>4982</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="4986" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4986" t="s">
-        <v>4983</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="4987" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4987" t="s">
-        <v>4984</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="4988" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4988" t="s">
-        <v>4985</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="4989" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4989" t="s">
-        <v>4986</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="4990" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4990" t="s">
-        <v>4987</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="4991" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4991" t="s">
-        <v>4988</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="4992" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4992" t="s">
-        <v>4989</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="4993" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4993" t="s">
-        <v>4990</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="4994" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4994" t="s">
-        <v>4991</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="4995" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4995" t="s">
-        <v>4992</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="4996" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4996" t="s">
-        <v>4993</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="4997" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4997" t="s">
-        <v>4994</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="4998" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4998" t="s">
-        <v>4995</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="4999" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4999" t="s">
-        <v>4996</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="5000" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5000" t="s">
-        <v>4997</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="5001" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5001" t="s">
-        <v>4998</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5002" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5002" t="s">
-        <v>4999</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="5003" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5003" t="s">
-        <v>5000</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="5004" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5004" t="s">
-        <v>5001</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="5005" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5005" t="s">
-        <v>5002</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="5006" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5006" t="s">
-        <v>5003</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="5007" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5007" t="s">
-        <v>5004</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="5008" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5008" t="s">
-        <v>5005</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="5009" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5009" t="s">
-        <v>5006</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="5010" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5010" t="s">
-        <v>5007</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="5011" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5011" t="s">
-        <v>5008</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="5012" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5012" t="s">
-        <v>5009</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="5013" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5013" t="s">
-        <v>5010</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="5014" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5014" t="s">
-        <v>5011</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="5015" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5015" t="s">
-        <v>5012</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="5016" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5016" t="s">
-        <v>5013</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="5017" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5017" t="s">
-        <v>5014</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="5018" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5018" t="s">
-        <v>5015</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="5019" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5019" t="s">
-        <v>5016</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="5020" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5020" t="s">
-        <v>5017</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="5021" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5021" t="s">
-        <v>5018</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="5022" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5022" t="s">
-        <v>5019</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="5023" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5023" t="s">
-        <v>5020</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="5024" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5024" t="s">
-        <v>5021</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="5025" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5025" t="s">
-        <v>5022</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="5026" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5026" t="s">
-        <v>5023</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="5027" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5027" t="s">
-        <v>5024</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="5028" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5028" t="s">
-        <v>5025</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="5029" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5029" t="s">
-        <v>5026</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="5030" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5030" t="s">
-        <v>5027</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="5031" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5031" t="s">
-        <v>5028</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="5032" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5032" t="s">
-        <v>5029</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="5033" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5033" t="s">
-        <v>5030</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="5034" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5034" t="s">
-        <v>5031</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="5035" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5035" t="s">
-        <v>5032</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="5036" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5036" t="s">
-        <v>5033</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="5037" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5037" t="s">
-        <v>5034</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="5038" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5038" t="s">
-        <v>5035</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="5039" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5039" t="s">
-        <v>5036</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="5040" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5040" t="s">
-        <v>5037</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="5041" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5041" t="s">
-        <v>5038</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="5042" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5042" t="s">
-        <v>5039</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="5043" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5043" t="s">
-        <v>5040</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="5044" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5044" t="s">
-        <v>5041</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="5045" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5045" t="s">
-        <v>5042</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="5046" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5046" t="s">
-        <v>5043</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="5047" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5047" t="s">
-        <v>5044</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="5048" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5048" t="s">
-        <v>5045</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="5049" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5049" t="s">
-        <v>5046</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="5050" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5050" t="s">
-        <v>5047</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="5051" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5051" t="s">
-        <v>5048</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="5052" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5052" t="s">
-        <v>5049</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="5053" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5053" t="s">
-        <v>5050</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="5054" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5054" t="s">
-        <v>5051</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="5055" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5055" t="s">
-        <v>5052</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="5056" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5056" t="s">
-        <v>5053</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="5057" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5057" t="s">
-        <v>5054</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="5058" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5058" t="s">
-        <v>5055</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="5059" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5059" t="s">
-        <v>5056</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="5060" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5060" t="s">
-        <v>5057</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="5061" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5061" t="s">
-        <v>5058</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="5062" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5062" t="s">
-        <v>5059</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="5063" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5063" t="s">
-        <v>5060</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="5064" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5064" t="s">
-        <v>5061</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="5065" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5065" t="s">
-        <v>5062</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="5066" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5066" t="s">
-        <v>5063</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="5067" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5067" t="s">
-        <v>5064</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="5068" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5068" t="s">
-        <v>5065</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="5069" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5069" t="s">
-        <v>5066</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="5070" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5070" t="s">
-        <v>5067</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="5071" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5071" t="s">
-        <v>5068</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="5072" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5072" t="s">
-        <v>5069</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="5073" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5073" t="s">
-        <v>5070</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="5074" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5074" t="s">
-        <v>5071</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="5075" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5075" t="s">
-        <v>5072</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="5076" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5076" t="s">
-        <v>5073</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="5077" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5077" t="s">
-        <v>5074</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="5078" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5078" t="s">
-        <v>5075</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="5079" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5079" t="s">
-        <v>5076</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="5080" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5080" t="s">
-        <v>5077</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="5081" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5081" t="s">
-        <v>5078</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="5082" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5082" t="s">
-        <v>5079</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="5083" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5083" t="s">
-        <v>5080</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="5084" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5084" t="s">
-        <v>5081</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="5085" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5085" t="s">
-        <v>5082</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="5086" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5086" t="s">
-        <v>5083</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="5087" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5087" t="s">
-        <v>5084</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="5088" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5088" t="s">
-        <v>5085</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="5089" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5089" t="s">
-        <v>5086</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="5090" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5090" t="s">
-        <v>5087</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="5091" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5091" t="s">
-        <v>5088</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="5092" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5092" t="s">
-        <v>5089</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="5093" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5093" t="s">
-        <v>5090</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="5094" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5094" t="s">
-        <v>5091</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="5095" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5095" t="s">
-        <v>5092</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="5096" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5096" t="s">
-        <v>5093</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="5097" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5097" t="s">
-        <v>5094</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="5098" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5098" t="s">
-        <v>5095</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="5099" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5099" t="s">
-        <v>5096</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="5100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5100" t="s">
-        <v>5097</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="5101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5101" t="s">
-        <v>5098</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="5102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5102" t="s">
-        <v>5099</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="5103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5103" t="s">
-        <v>5100</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="5104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5104" t="s">
-        <v>5101</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="5105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5105" t="s">
-        <v>5102</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="5106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5106" t="s">
-        <v>5103</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="5107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5107" t="s">
-        <v>5104</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="5108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5108" t="s">
-        <v>5105</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="5109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5109" t="s">
-        <v>5106</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="5110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5110" t="s">
-        <v>5107</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="5111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5111" t="s">
-        <v>5108</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="5112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5112" t="s">
-        <v>5109</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="5113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5113" t="s">
-        <v>5110</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="5114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5114" t="s">
-        <v>5111</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="5115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5115" t="s">
-        <v>5112</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="5116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5116" t="s">
-        <v>5113</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="5117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5117" t="s">
-        <v>5114</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="5118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5118" t="s">
-        <v>5115</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="5119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5119" t="s">
-        <v>5116</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="5120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5120" t="s">
-        <v>5117</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="5121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5121" t="s">
-        <v>5118</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="5122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5122" t="s">
-        <v>5119</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="5123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5123" t="s">
-        <v>1340</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="5124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5124" t="s">
-        <v>5120</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="5125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5125" t="s">
-        <v>5121</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="5126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5126" t="s">
-        <v>5122</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="5127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5127" t="s">
-        <v>5123</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="5128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5128" t="s">
-        <v>5124</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="5129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5129" t="s">
-        <v>5125</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="5130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5130" t="s">
-        <v>1339</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="5131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5131" t="s">
-        <v>5126</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="5132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5132" t="s">
-        <v>5127</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="5133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5133" t="s">
-        <v>5128</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="5134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5134" t="s">
-        <v>5129</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="5135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5135" t="s">
-        <v>5130</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="5136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5136" t="s">
-        <v>5131</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="5137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5137" t="s">
-        <v>5132</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="5138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5138" t="s">
-        <v>5133</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="5139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5139" t="s">
-        <v>5134</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="5140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5140" t="s">
-        <v>5135</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="5141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5141" t="s">
-        <v>5136</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="5142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5142" t="s">
-        <v>5137</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="5143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5143" t="s">
-        <v>5138</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="5144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5144" t="s">
-        <v>5139</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="5145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5145" t="s">
-        <v>5140</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="5146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5146" t="s">
-        <v>5141</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="5147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5147" t="s">
-        <v>5142</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="5148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5148" t="s">
-        <v>5143</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="5149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5149" t="s">
-        <v>5144</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="5150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5150" t="s">
-        <v>5145</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="5151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5151" t="s">
-        <v>5146</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="5152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5152" t="s">
-        <v>5147</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="5153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5153" t="s">
-        <v>5148</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="5154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5154" t="s">
-        <v>5149</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="5155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5155" t="s">
-        <v>5150</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="5156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5156" t="s">
-        <v>5151</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="5157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5157" t="s">
-        <v>5152</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="5158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5158" t="s">
-        <v>5153</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="5159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5159" t="s">
-        <v>5154</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="5160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5160" t="s">
-        <v>5155</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="5161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5161" t="s">
-        <v>5156</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="5162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5162" t="s">
-        <v>5157</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="5163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5163" t="s">
-        <v>5158</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="5164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5164" t="s">
-        <v>5159</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="5165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5165" t="s">
-        <v>5160</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="5166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5166" t="s">
-        <v>5161</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="5167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5167" t="s">
-        <v>5162</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="5168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5168" t="s">
-        <v>5163</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="5169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5169" t="s">
-        <v>5164</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="5170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5170" t="s">
-        <v>5165</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="5171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5171" t="s">
-        <v>5166</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="5172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5172" t="s">
-        <v>5167</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="5173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5173" t="s">
-        <v>5168</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="5174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5174" t="s">
-        <v>5169</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="5175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5175" t="s">
-        <v>5170</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="5176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5176" t="s">
-        <v>5171</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="5177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5177" t="s">
-        <v>5172</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="5178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5178" t="s">
-        <v>5173</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="5179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5179" t="s">
-        <v>5174</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="5180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5180" t="s">
-        <v>5175</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="5181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5181" t="s">
-        <v>5176</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="5182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5182" t="s">
-        <v>5177</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="5183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5183" t="s">
-        <v>5178</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="5184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5184" t="s">
-        <v>5179</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="5185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5185" t="s">
-        <v>5180</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="5186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5186" t="s">
-        <v>5181</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="5187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5187" t="s">
-        <v>5182</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="5188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5188" t="s">
-        <v>5183</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="5189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5189" t="s">
-        <v>5184</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="5190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5190" t="s">
-        <v>5185</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="5191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5191" t="s">
-        <v>5186</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="5192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5192" t="s">
-        <v>5187</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="5193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5193" t="s">
-        <v>5188</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="5194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5194" t="s">
-        <v>5189</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="5195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5195" t="s">
-        <v>5190</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="5196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5196" t="s">
-        <v>5191</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="5197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5197" t="s">
-        <v>5192</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="5198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5198" t="s">
-        <v>5193</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="5199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5199" t="s">
-        <v>5194</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="5200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5200" t="s">
-        <v>5195</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="5201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5201" t="s">
-        <v>5196</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="5202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5202" t="s">
-        <v>5197</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="5203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5203" t="s">
-        <v>5198</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="5204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5204" t="s">
-        <v>5199</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="5205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5205" t="s">
-        <v>5200</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="5206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5206" t="s">
-        <v>5201</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="5207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5207" t="s">
-        <v>5202</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="5208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5208" t="s">
-        <v>5203</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="5209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5209" t="s">
-        <v>5204</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="5210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5210" t="s">
-        <v>5205</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="5211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5211" t="s">
-        <v>5206</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="5212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5212" t="s">
-        <v>5207</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="5213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5213" t="s">
-        <v>5208</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="5214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5214" t="s">
-        <v>5209</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="5215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5215" t="s">
-        <v>5210</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="5216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5216" t="s">
-        <v>5211</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="5217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5217" t="s">
-        <v>5212</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="5218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5218" t="s">
-        <v>5213</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="5219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5219" t="s">
-        <v>5214</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="5220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5220" t="s">
-        <v>5215</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="5221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5221" t="s">
-        <v>5216</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="5222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5222" t="s">
-        <v>5217</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="5223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5223" t="s">
-        <v>5218</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="5224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5224" t="s">
-        <v>5219</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="5225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5225" t="s">
-        <v>5220</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="5226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5226" t="s">
-        <v>5221</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="5227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5227" t="s">
-        <v>5222</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="5228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5228" t="s">
-        <v>5223</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="5229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5229" t="s">
-        <v>5224</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="5230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5230" t="s">
-        <v>5225</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="5231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5231" t="s">
-        <v>5226</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="5232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5232" t="s">
-        <v>5227</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="5233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5233" t="s">
-        <v>5228</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="5234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5234" t="s">
-        <v>5229</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="5235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5235" t="s">
-        <v>5230</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="5236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5236" t="s">
-        <v>5231</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="5237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5237" t="s">
-        <v>5232</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="5238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5238" t="s">
-        <v>5233</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="5239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5239" t="s">
-        <v>5234</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="5240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5240" t="s">
-        <v>5235</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="5241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5241" t="s">
-        <v>5236</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="5242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5242" t="s">
-        <v>5237</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="5243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5243" t="s">
-        <v>5238</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="5244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5244" t="s">
-        <v>5239</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="5245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5245" t="s">
-        <v>5240</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="5246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5246" t="s">
-        <v>5241</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="5247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5247" t="s">
-        <v>5242</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="5248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5248" t="s">
-        <v>5243</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="5249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5249" t="s">
-        <v>5244</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="5250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5250" t="s">
-        <v>5245</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="5251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5251" t="s">
-        <v>5246</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="5252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5252" t="s">
-        <v>5247</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="5253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5253" t="s">
-        <v>5248</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="5254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5254" t="s">
-        <v>5249</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="5255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5255" t="s">
-        <v>5250</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="5256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5256" t="s">
-        <v>5251</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="5257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5257" t="s">
-        <v>5252</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="5258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5258" t="s">
-        <v>5253</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="5259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5259" t="s">
-        <v>5254</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="5260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5260" t="s">
-        <v>5255</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="5261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5261" t="s">
-        <v>5256</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="5262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5262" t="s">
-        <v>5257</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="5263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5263" t="s">
-        <v>5258</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="5264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5264" t="s">
-        <v>5259</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="5265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5265" t="s">
-        <v>5260</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="5266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5266" t="s">
-        <v>5261</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="5267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5267" t="s">
-        <v>5262</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="5268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5268" t="s">
-        <v>5263</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="5269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5269" t="s">
-        <v>5264</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="5270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5270" t="s">
-        <v>5265</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="5271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5271" t="s">
-        <v>5266</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="5272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5272" t="s">
-        <v>5267</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="5273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5273" t="s">
-        <v>5268</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="5274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5274" t="s">
-        <v>5269</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="5275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5275" t="s">
-        <v>5270</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="5276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5276" t="s">
-        <v>5271</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="5277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5277" t="s">
-        <v>5272</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="5278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5278" t="s">
-        <v>5273</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="5279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5279" t="s">
-        <v>5274</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="5280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5280" t="s">
-        <v>5275</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="5281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5281" t="s">
-        <v>5276</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="5282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5282" t="s">
-        <v>5277</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="5283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5283" t="s">
-        <v>5278</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="5284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5284" t="s">
-        <v>5279</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="5285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5285" t="s">
-        <v>5280</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="5286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5286" t="s">
-        <v>5281</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="5287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5287" t="s">
-        <v>5282</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="5288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5288" t="s">
-        <v>5283</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="5289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5289" t="s">
-        <v>5284</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="5290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5290" t="s">
-        <v>5285</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="5291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5291" t="s">
-        <v>5286</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="5292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5292" t="s">
-        <v>5287</v>
+        <v>5291</v>
       </c>
     </row>
     <row r="5293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5293" t="s">
-        <v>5288</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="5294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5294" t="s">
-        <v>5289</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="5295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5295" t="s">
-        <v>5290</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="5296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5296" t="s">
-        <v>5291</v>
+        <v>5295</v>
       </c>
     </row>
     <row r="5297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5297" t="s">
-        <v>5292</v>
+        <v>5296</v>
       </c>
     </row>
     <row r="5298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5298" t="s">
-        <v>5293</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="5299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5299" t="s">
-        <v>5294</v>
+        <v>5298</v>
       </c>
     </row>
     <row r="5300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5300" t="s">
-        <v>5295</v>
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="5301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5301" t="s">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="5302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5302" t="s">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="5303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5303" t="s">
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="5304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5304" t="s">
+        <v>5303</v>
+      </c>
+    </row>
+    <row r="5305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5305" t="s">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="5306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5306" t="s">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="5307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5307" t="s">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="5308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5308" t="s">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="5309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5309" t="s">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="5310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5310" t="s">
+        <v>5309</v>
+      </c>
+    </row>
+    <row r="5311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5311" t="s">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="5312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5312" t="s">
+        <v>5311</v>
+      </c>
+    </row>
+    <row r="5313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5313" t="s">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="5314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5314" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="5315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5315" t="s">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="5316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5316" t="s">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="5317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5317" t="s">
+        <v>5316</v>
+      </c>
+    </row>
+    <row r="5318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5318" t="s">
+        <v>5317</v>
+      </c>
+    </row>
+    <row r="5319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5319" t="s">
+        <v>5318</v>
+      </c>
+    </row>
+    <row r="5320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5320" t="s">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="5321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5321" t="s">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="5322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5322" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="5323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5323" t="s">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="5324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5324" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="5325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5325" t="s">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="5326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5326" t="s">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="5327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5327" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="5328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5328" t="s">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="5329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5329" t="s">
+        <v>5328</v>
+      </c>
+    </row>
+    <row r="5330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5330" t="s">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="5331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5331" t="s">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="5332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5332" t="s">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="5333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5333" t="s">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="5334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5334" t="s">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="5335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5335" t="s">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="5336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5336" t="s">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="5337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5337" t="s">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="5338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5338" t="s">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="5339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5339" t="s">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="5340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5340" t="s">
+        <v>5339</v>
+      </c>
+    </row>
+    <row r="5341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5341" t="s">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="5342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5342" t="s">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="5343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5343" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="5344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5344" t="s">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="5345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5345" t="s">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="5346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5346" t="s">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="5347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5347" t="s">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="5348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5348" t="s">
+        <v>5347</v>
+      </c>
+    </row>
+    <row r="5349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5349" t="s">
+        <v>5348</v>
+      </c>
+    </row>
+    <row r="5350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5350" t="s">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="5351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5351" t="s">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="5352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5352" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="5353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5353" t="s">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="5354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5354" t="s">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="5355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5355" t="s">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="5356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5356" t="s">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="5357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5357" t="s">
+        <v>5356</v>
+      </c>
+    </row>
+    <row r="5358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5358" t="s">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="5359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5359" t="s">
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="5360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5360" t="s">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="5361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5361" t="s">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="5362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5362" t="s">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="5363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5363" t="s">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="5364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5364" t="s">
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="5365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5365" t="s">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="5366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5366" t="s">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="5367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5367" t="s">
+        <v>5366</v>
+      </c>
+    </row>
+    <row r="5368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5368" t="s">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="5369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5369" t="s">
+        <v>5368</v>
+      </c>
+    </row>
+    <row r="5370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5370" t="s">
+        <v>5369</v>
+      </c>
+    </row>
+    <row r="5371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5371" t="s">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="5372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5372" t="s">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="5373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5373" t="s">
+        <v>5372</v>
+      </c>
+    </row>
+    <row r="5374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5374" t="s">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="5375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5375" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="5376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5376" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="5377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5377" t="s">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="5378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5378" t="s">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="5379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5379" t="s">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="5380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5380" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="5381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5381" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="5382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5382" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="5383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5383" t="s">
+        <v>5382</v>
+      </c>
+    </row>
+    <row r="5384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5384" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="5385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5385" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="5386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5386" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="5387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5387" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="5388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5388" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="5389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5389" t="s">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="5390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5390" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="5391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5391" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="5392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5392" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="5393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5393" t="s">
+        <v>5391</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
     <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="15"/>
     <cfRule type="duplicateValues" dxfId="4" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A1048576">
+  <conditionalFormatting sqref="A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5E7577-1023-4735-A333-AAD1463A108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2431B28B-249D-49BB-BA9E-B3011D14087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5393" uniqueCount="5392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5452" uniqueCount="5452">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -16213,6 +16213,186 @@
   </si>
   <si>
     <t>megha.kamthan@bmwgroup.com</t>
+  </si>
+  <si>
+    <t>oren.berkovich@okta.com</t>
+  </si>
+  <si>
+    <t>mark.hoogerheide@okta.com</t>
+  </si>
+  <si>
+    <t>jobs@mba-dell.com</t>
+  </si>
+  <si>
+    <t>Chandrakala.shashidh@dell.com</t>
+  </si>
+  <si>
+    <t>internnorthamerica@dell.com</t>
+  </si>
+  <si>
+    <t>CoCreate@dell.com</t>
+  </si>
+  <si>
+    <t>MY_CFO_Recruitment@dell.com</t>
+  </si>
+  <si>
+    <t>shienyi_kam@dell.com</t>
+  </si>
+  <si>
+    <t>summer.academy@dell.com</t>
+  </si>
+  <si>
+    <t>revital_keren@intuit.com</t>
+  </si>
+  <si>
+    <t>mandy_ison@intuit.com</t>
+  </si>
+  <si>
+    <t>shalini_mohan@intuit.com</t>
+  </si>
+  <si>
+    <t>sofiana@nvidia.com</t>
+  </si>
+  <si>
+    <t>hanrongy@nvidia.com</t>
+  </si>
+  <si>
+    <t>fsalameh@nvidia.com</t>
+  </si>
+  <si>
+    <t>cxiang@nvidia.com</t>
+  </si>
+  <si>
+    <t>sdiao@nvidia.com</t>
+  </si>
+  <si>
+    <t>vximenes@nvidia.com</t>
+  </si>
+  <si>
+    <t>fredy@nvidia.com</t>
+  </si>
+  <si>
+    <t>margareth@nvidia.com</t>
+  </si>
+  <si>
+    <t>sungfengh@nvidia.com</t>
+  </si>
+  <si>
+    <t>pngo@nvidia.com</t>
+  </si>
+  <si>
+    <t>RobKemp@nvidia.com</t>
+  </si>
+  <si>
+    <t>prathore@nvidia.com</t>
+  </si>
+  <si>
+    <t>sandeept@nvidia.com</t>
+  </si>
+  <si>
+    <t>sbidikar@nvidia.com</t>
+  </si>
+  <si>
+    <t>roeys@nvidia.com</t>
+  </si>
+  <si>
+    <t>magcai@nvidia.com</t>
+  </si>
+  <si>
+    <t>ghanukaev@nvidia.com</t>
+  </si>
+  <si>
+    <t>andrewu@nvidia.com</t>
+  </si>
+  <si>
+    <t>laurwang@nvidia.com</t>
+  </si>
+  <si>
+    <t>campus.tw@nvidia.com</t>
+  </si>
+  <si>
+    <t>sonyg@nvidia.com</t>
+  </si>
+  <si>
+    <t>amajor@nvidia.com</t>
+  </si>
+  <si>
+    <t>spaswan@nvidia.com</t>
+  </si>
+  <si>
+    <t>adigri@nvidia.com</t>
+  </si>
+  <si>
+    <t>rasiszanolar@nvidia.com</t>
+  </si>
+  <si>
+    <t>atulr@nvidia.com</t>
+  </si>
+  <si>
+    <t>avivs@nvidia.com</t>
+  </si>
+  <si>
+    <t>linxif@nvidia.com</t>
+  </si>
+  <si>
+    <t>yukez@nvidia.com</t>
+  </si>
+  <si>
+    <t>Pravjoshi@nvidia.com</t>
+  </si>
+  <si>
+    <t>Egreen@nvidia.com</t>
+  </si>
+  <si>
+    <t>dpatashnik@nvidia.com</t>
+  </si>
+  <si>
+    <t>kallyq@nvidia.com</t>
+  </si>
+  <si>
+    <t>oril@nvidia.com</t>
+  </si>
+  <si>
+    <t>Ronig@nvidia.com</t>
+  </si>
+  <si>
+    <t>janem@nvidia.com</t>
+  </si>
+  <si>
+    <t>lbakal@nvidia.com</t>
+  </si>
+  <si>
+    <t>msieniawski@nvidia.com</t>
+  </si>
+  <si>
+    <t>aangrest@nvidia.com</t>
+  </si>
+  <si>
+    <t>nvqahiring@nvidia.com</t>
+  </si>
+  <si>
+    <t>yousefha@nvidia.com</t>
+  </si>
+  <si>
+    <t>mritunjaynavin.kumar@rakuten.com</t>
+  </si>
+  <si>
+    <t>suraj.mondal@rakuten.com</t>
+  </si>
+  <si>
+    <t>ronak.jhunjhunwala@rakuten.com</t>
+  </si>
+  <si>
+    <t>prateek.singh@rakuten.com</t>
+  </si>
+  <si>
+    <t>colinian.rowat@rakuten.com</t>
+  </si>
+  <si>
+    <t>elizabeth.painkin@rakuten.com</t>
+  </si>
+  <si>
+    <t>naveen.kumarn@rakuten.com</t>
   </si>
 </sst>
 </file>
@@ -16744,10 +16924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:B5393"/>
+  <dimension ref="A1:B5452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5379" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5393" sqref="B5393"/>
+    <sheetView tabSelected="1" topLeftCell="A5373" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5385" sqref="B5385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43834,57 +44014,352 @@
     </row>
     <row r="5392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5392" t="s">
-        <v>1591</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="5393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5393" t="s">
-        <v>5391</v>
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="5394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5394" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="5395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5395" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="5396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5396" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="5397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5397" t="s">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="5398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5398" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="5399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5399" t="s">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="5400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5400" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="5401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5401" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="5402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5402" t="s">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="5403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5403" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="5404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5404" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="5405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5405" t="s">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="5406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5406" t="s">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="5407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5407" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="5408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5408" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="5409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5409" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="5410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5410" t="s">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="5411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5411" t="s">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="5412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5412" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="5413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5413" t="s">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="5414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5414" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="5415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5415" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="5416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5416" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="5417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5417" t="s">
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="5418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5418" t="s">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="5419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5419" t="s">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="5420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5420" t="s">
+        <v>5419</v>
+      </c>
+    </row>
+    <row r="5421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5421" t="s">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="5422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5422" t="s">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="5423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5423" t="s">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="5424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5424" t="s">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="5425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5425" t="s">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="5426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5426" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="5427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5427" t="s">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="5428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5428" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="5429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5429" t="s">
+        <v>5428</v>
+      </c>
+    </row>
+    <row r="5430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5430" t="s">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="5431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5431" t="s">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="5432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5432" t="s">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="5433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5433" t="s">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="5434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5434" t="s">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="5435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5435" t="s">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="5436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5436" t="s">
+        <v>5435</v>
+      </c>
+    </row>
+    <row r="5437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5437" t="s">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="5438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5438" t="s">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="5439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5439" t="s">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="5440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5440" t="s">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="5441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5441" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="5442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5442" t="s">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="5443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5443" t="s">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="5444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5444" t="s">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="5445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5445" s="1" t="s">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="5446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5446" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="5447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5447" t="s">
+        <v>5446</v>
+      </c>
+    </row>
+    <row r="5448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5448" t="s">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="5449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5449" t="s">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="5450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5450" t="s">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="5451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5451" t="s">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="5452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5452" t="s">
+        <v>5451</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
     <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="15"/>
     <cfRule type="duplicateValues" dxfId="4" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A1048576">
+  <conditionalFormatting sqref="A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -43911,6 +44386,7 @@
     <hyperlink ref="A3733" r:id="rId21" xr:uid="{EA46BE9F-E700-4516-9421-4A9CB0A51BD3}"/>
     <hyperlink ref="A3492" r:id="rId22" xr:uid="{77331289-816C-41F7-8CEE-C7A84AEAB0D6}"/>
     <hyperlink ref="A4050" r:id="rId23" xr:uid="{DE77D929-5804-4B21-9901-E74AE4EBC0CD}"/>
+    <hyperlink ref="A5445" r:id="rId24" xr:uid="{065D74C5-2EE9-4382-B98D-4F1A152DC369}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2431B28B-249D-49BB-BA9E-B3011D14087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A2C560-3864-4AD1-8B75-8BF97E67CC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5452" uniqueCount="5452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5557" uniqueCount="5557">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -16393,6 +16393,321 @@
   </si>
   <si>
     <t>naveen.kumarn@rakuten.com</t>
+  </si>
+  <si>
+    <t>ruyee.cheong@grab.com</t>
+  </si>
+  <si>
+    <t>nadia.salatioan@grab.com</t>
+  </si>
+  <si>
+    <t>racheal.s@grab.com</t>
+  </si>
+  <si>
+    <t>ayadav@barracuda.com</t>
+  </si>
+  <si>
+    <t>mmangalagi@barracuda.com</t>
+  </si>
+  <si>
+    <t>ellen.southerland@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Sandra.DollEllis@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>sarah.lord@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Kelly.Chesnick@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>daniel.hester@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>noor.fields@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>azharuddin.ahmed@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Angela.Maletti@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Sameer.Ahmed2@Wellsfargo.com</t>
+  </si>
+  <si>
+    <t>lisa.a.halcomb@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Brian.Chaput@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Kumar.s@Wellsfargo.com</t>
+  </si>
+  <si>
+    <t>marijo.black@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>mitchell.steinberg@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Mohammad.g.issa@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Jeffrey.R.Eckinger@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>militaryrecruiting@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Melissa.kelly2@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Philipmears@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>kristine.chung@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>lindsay.carroll@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Melinda.Long@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Jarrett.H.Lustig@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>jorgeenrico.e.diaz@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Nathaniel.Moseley@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>chris.murnane@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>ravi.v.mangipudi@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>ashley.hilscher@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>aaron.d.palmer@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>greg.gelato@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>kim.r.gorman@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Charles.LaManna@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>frederick.e.ward@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Leroy.Clarke@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>Melissa.J.Huisman@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>nguyen.lt@samsung.com</t>
+  </si>
+  <si>
+    <t>p.upadhyay@samsung.com</t>
+  </si>
+  <si>
+    <t>shalini.j@samsung.com</t>
+  </si>
+  <si>
+    <t>sct.india@samsung.com</t>
+  </si>
+  <si>
+    <t>k.eden@samsung.com</t>
+  </si>
+  <si>
+    <t>ivyz.m@samsung.com</t>
+  </si>
+  <si>
+    <t>smr.bansal@samsung.com</t>
+  </si>
+  <si>
+    <t>Kshama.u@samsung.com</t>
+  </si>
+  <si>
+    <t>pulkit.j5@samsung.com</t>
+  </si>
+  <si>
+    <t>hr.sdsme@samsung.com</t>
+  </si>
+  <si>
+    <t>haslinda.z@samsung.com</t>
+  </si>
+  <si>
+    <t>z.anwar@samsung.com</t>
+  </si>
+  <si>
+    <t>deval.jain@samsung.com</t>
+  </si>
+  <si>
+    <t>simran.18@samsung.com</t>
+  </si>
+  <si>
+    <t>Hagar.selim@samsung.com</t>
+  </si>
+  <si>
+    <t>mukul.v@samsung.com</t>
+  </si>
+  <si>
+    <t>azim.roslan@samsung.com</t>
+  </si>
+  <si>
+    <t>s.anuj@samsung.com</t>
+  </si>
+  <si>
+    <t>Bhavesh.rt@samsung.com</t>
+  </si>
+  <si>
+    <t>Poornima.k@samsung.com</t>
+  </si>
+  <si>
+    <t>tushar.m@samsung.com</t>
+  </si>
+  <si>
+    <t>p1.appsec@samsung.com</t>
+  </si>
+  <si>
+    <t>nikhil.s2@partner.samsung.com</t>
+  </si>
+  <si>
+    <t>lani.vergara@samsung.com</t>
+  </si>
+  <si>
+    <t>hr.daicec@samsung.com</t>
+  </si>
+  <si>
+    <t>shachar.p@samsung.com</t>
+  </si>
+  <si>
+    <t>vikas.giri1@samsung.com</t>
+  </si>
+  <si>
+    <t>careers.ssir@samsung.com</t>
+  </si>
+  <si>
+    <t>kuldeep.s3@samsung.com</t>
+  </si>
+  <si>
+    <t>isaac.teo@samsung.com</t>
+  </si>
+  <si>
+    <t>anmol.v@samsung.com</t>
+  </si>
+  <si>
+    <t>arunabha.s@samsung.com</t>
+  </si>
+  <si>
+    <t>parveen.kaur@samsung.com</t>
+  </si>
+  <si>
+    <t>alaa.emad@samsung.com</t>
+  </si>
+  <si>
+    <t>abdallah.sa@samsung.com</t>
+  </si>
+  <si>
+    <t>sagnick.d@samsung.com</t>
+  </si>
+  <si>
+    <t>syafiqah.ak@samsung.com</t>
+  </si>
+  <si>
+    <t>arif.hr@samsung.com</t>
+  </si>
+  <si>
+    <t>rekha.rawat@samsung.com</t>
+  </si>
+  <si>
+    <t>pyush.jain@samsung.com</t>
+  </si>
+  <si>
+    <t>hari.om@samsung.com</t>
+  </si>
+  <si>
+    <t>vikas.verma1@samsung.com</t>
+  </si>
+  <si>
+    <t>ab.tripathy@samsung.com</t>
+  </si>
+  <si>
+    <t>nurshahira.t@samsung.com</t>
+  </si>
+  <si>
+    <t>a.bhargava03@samsung.com</t>
+  </si>
+  <si>
+    <t>sratalent@samsung.com</t>
+  </si>
+  <si>
+    <t>alexandra.apostoiu@samsung.com</t>
+  </si>
+  <si>
+    <t>paurina.ida@samsung.com</t>
+  </si>
+  <si>
+    <t>minhkhai.le@samsung.com</t>
+  </si>
+  <si>
+    <t>k.swetha@samsung.com</t>
+  </si>
+  <si>
+    <t>sk.sharma@samsung.com</t>
+  </si>
+  <si>
+    <t>nishith.dev@samsung.com</t>
+  </si>
+  <si>
+    <t>evon.tan@samsung.com</t>
+  </si>
+  <si>
+    <t>keshaw.v@samsung.com</t>
+  </si>
+  <si>
+    <t>recruit.sdi@samsung.com</t>
+  </si>
+  <si>
+    <t>kalai.vani@samsung.com</t>
+  </si>
+  <si>
+    <t>hem.sharma@samsung.com</t>
+  </si>
+  <si>
+    <t>cnl.hr@samsung.com</t>
+  </si>
+  <si>
+    <t>rajesh.v1@samsung.com</t>
+  </si>
+  <si>
+    <t>k.jasmeet@samsung.com</t>
+  </si>
+  <si>
+    <t>v.kumar83@samsung.com</t>
+  </si>
+  <si>
+    <t>recruit.eg@samsung.com</t>
+  </si>
+  <si>
+    <t>f2557.sameh@samsung.com</t>
+  </si>
+  <si>
+    <t>amita.ar@samsung.com</t>
+  </si>
+  <si>
+    <t>sujal1.kumar@samsung.com</t>
   </si>
 </sst>
 </file>
@@ -16924,10 +17239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:B5452"/>
+  <dimension ref="A1:B5557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5373" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5385" sqref="B5385"/>
+    <sheetView tabSelected="1" topLeftCell="A5548" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5562" sqref="B5562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44317,49 +44632,574 @@
         <v>5451</v>
       </c>
     </row>
+    <row r="5453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5453" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="5454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5454" t="s">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="5455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5455" t="s">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="5456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5456" s="1" t="s">
+        <v>5455</v>
+      </c>
+    </row>
+    <row r="5457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5457" t="s">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="5458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5458" t="s">
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="5459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5459" t="s">
+        <v>5458</v>
+      </c>
+    </row>
+    <row r="5460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5460" t="s">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="5461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5461" t="s">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="5462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5462" t="s">
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="5463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5463" t="s">
+        <v>5462</v>
+      </c>
+    </row>
+    <row r="5464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5464" t="s">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="5465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5465" t="s">
+        <v>5464</v>
+      </c>
+    </row>
+    <row r="5466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5466" t="s">
+        <v>5465</v>
+      </c>
+    </row>
+    <row r="5467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5467" t="s">
+        <v>5466</v>
+      </c>
+    </row>
+    <row r="5468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5468" t="s">
+        <v>5467</v>
+      </c>
+    </row>
+    <row r="5469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5469" t="s">
+        <v>5468</v>
+      </c>
+    </row>
+    <row r="5470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5470" t="s">
+        <v>5469</v>
+      </c>
+    </row>
+    <row r="5471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5471" t="s">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="5472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5472" t="s">
+        <v>5471</v>
+      </c>
+    </row>
+    <row r="5473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5473" t="s">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="5474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5474" t="s">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="5475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5475" t="s">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="5476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5476" t="s">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="5477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5477" t="s">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="5478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5478" t="s">
+        <v>5477</v>
+      </c>
+    </row>
+    <row r="5479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5479" t="s">
+        <v>5478</v>
+      </c>
+    </row>
+    <row r="5480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5480" t="s">
+        <v>5479</v>
+      </c>
+    </row>
+    <row r="5481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5481" t="s">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="5482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5482" t="s">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="5483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5483" t="s">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="5484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5484" t="s">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="5485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5485" t="s">
+        <v>5484</v>
+      </c>
+    </row>
+    <row r="5486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5486" t="s">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="5487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5487" t="s">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="5488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5488" s="1" t="s">
+        <v>5487</v>
+      </c>
+    </row>
+    <row r="5489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5489" t="s">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="5490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5490" t="s">
+        <v>5489</v>
+      </c>
+    </row>
+    <row r="5491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5491" t="s">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="5492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5492" t="s">
+        <v>5491</v>
+      </c>
+    </row>
+    <row r="5493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5493" t="s">
+        <v>5492</v>
+      </c>
+    </row>
+    <row r="5494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5494" t="s">
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="5495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5495" t="s">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="5496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5496" t="s">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="5497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5497" t="s">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="5498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5498" t="s">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="5499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5499" t="s">
+        <v>5498</v>
+      </c>
+    </row>
+    <row r="5500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5500" t="s">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="5501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5501" t="s">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="5502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5502" t="s">
+        <v>5501</v>
+      </c>
+    </row>
+    <row r="5503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5503" t="s">
+        <v>5502</v>
+      </c>
+    </row>
+    <row r="5504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5504" t="s">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="5505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5505" t="s">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="5506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5506" t="s">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="5507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5507" t="s">
+        <v>5506</v>
+      </c>
+    </row>
+    <row r="5508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5508" t="s">
+        <v>5507</v>
+      </c>
+    </row>
+    <row r="5509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5509" t="s">
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="5510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5510" t="s">
+        <v>5509</v>
+      </c>
+    </row>
+    <row r="5511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5511" t="s">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="5512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5512" t="s">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="5513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5513" t="s">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="5514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5514" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="5515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5515" t="s">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="5516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5516" t="s">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="5517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5517" t="s">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="5518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5518" t="s">
+        <v>5517</v>
+      </c>
+    </row>
+    <row r="5519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5519" t="s">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="5520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5520" t="s">
+        <v>5519</v>
+      </c>
+    </row>
+    <row r="5521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5521" t="s">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="5522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5522" t="s">
+        <v>5521</v>
+      </c>
+    </row>
+    <row r="5523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5523" t="s">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="5524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5524" t="s">
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="5525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5525" t="s">
+        <v>5524</v>
+      </c>
+    </row>
+    <row r="5526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5526" t="s">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="5527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5527" t="s">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="5528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5528" t="s">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="5529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5529" t="s">
+        <v>5528</v>
+      </c>
+    </row>
+    <row r="5530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5530" t="s">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="5531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5531" t="s">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="5532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5532" t="s">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="5533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5533" t="s">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="5534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5534" t="s">
+        <v>5533</v>
+      </c>
+    </row>
+    <row r="5535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5535" t="s">
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="5536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5536" t="s">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="5537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5537" t="s">
+        <v>5536</v>
+      </c>
+    </row>
+    <row r="5538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5538" t="s">
+        <v>5537</v>
+      </c>
+    </row>
+    <row r="5539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5539" t="s">
+        <v>5538</v>
+      </c>
+    </row>
+    <row r="5540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5540" t="s">
+        <v>5539</v>
+      </c>
+    </row>
+    <row r="5541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5541" t="s">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="5542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5542" t="s">
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="5543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5543" t="s">
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="5544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5544" t="s">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="5545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5545" t="s">
+        <v>5544</v>
+      </c>
+    </row>
+    <row r="5546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5546" t="s">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="5547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5547" t="s">
+        <v>5546</v>
+      </c>
+    </row>
+    <row r="5548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5548" t="s">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="5549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5549" t="s">
+        <v>5548</v>
+      </c>
+    </row>
+    <row r="5550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5550" t="s">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="5551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5551" t="s">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="5552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5552" t="s">
+        <v>5551</v>
+      </c>
+    </row>
+    <row r="5553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5553" t="s">
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="5554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5554" t="s">
+        <v>5553</v>
+      </c>
+    </row>
+    <row r="5555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5555" t="s">
+        <v>5554</v>
+      </c>
+    </row>
+    <row r="5556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5556" t="s">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="5557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5557" t="s">
+        <v>5556</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
     <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="15"/>
     <cfRule type="duplicateValues" dxfId="4" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5469:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -44387,6 +45227,8 @@
     <hyperlink ref="A3492" r:id="rId22" xr:uid="{77331289-816C-41F7-8CEE-C7A84AEAB0D6}"/>
     <hyperlink ref="A4050" r:id="rId23" xr:uid="{DE77D929-5804-4B21-9901-E74AE4EBC0CD}"/>
     <hyperlink ref="A5445" r:id="rId24" xr:uid="{065D74C5-2EE9-4382-B98D-4F1A152DC369}"/>
+    <hyperlink ref="A5456" r:id="rId25" xr:uid="{78ADDC28-5358-4A00-93D9-BBB59C635549}"/>
+    <hyperlink ref="A5488" r:id="rId26" xr:uid="{2DB45347-1050-48DD-B911-A65DA926343D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A2C560-3864-4AD1-8B75-8BF97E67CC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93F12E1-993B-420C-BEE2-D971B9D799C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5557" uniqueCount="5557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5730" uniqueCount="5730">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -16708,6 +16708,525 @@
   </si>
   <si>
     <t>sujal1.kumar@samsung.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranami_sharma@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vimala.m@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">angela_sarceda@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashraffshaik.mohammad@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arthi_m@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neha.t.mishra@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sowndharya.boopathi@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">elizabeth_salas1@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prerna.sehgal@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rj_rivera@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">janelle_tolentino@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vijay_singh120@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">poonam_pawar@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">andres_friedmann@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beckie_Ross@Optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdurano@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jesus_labadia@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ronald.ranjan@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marvin_bersubio@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">balaji.kolla@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudeshna.nayak@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thota_sharanya@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neha_srivastava@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kausar_sana@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ted_hermosisima@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeraldbryan_roxas@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew_Kriss@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharma_yati@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindsi.Scapellato@Optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manish.kadam@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">roshini.vinayagam@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">penumudi_ram@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">piyush_gautam@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anjali_wani@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shubham.khaire@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subhransu_tripathi@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferdinand.cuyco@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kristine_tan@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">njain@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">navaneetha.krishnan43@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">laura.cisneros@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deepika.vankayalapati@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajat_kaushik@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura_Cornell@Optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sundar_akella@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shobana.n@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahul_agrhari@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">catiilarwilyn@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arshad_mohammad@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nino_manalo@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmalove.gomez@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vignesh.manivannan@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kimberly_crotty@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pooja.pushparaj@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">joe_durrance@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tally_seifert@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">malay_shukla@optum.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">desmond.echano@optum.com  </t>
+  </si>
+  <si>
+    <t>rregual@optum.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subiya_subiya@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kshama_Jain@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shekhar_bajoria@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakshit_badge@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chanda_vaze@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shruthi_agadi@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranoti_zode@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajat_srivastava@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shreepal_agrawal@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">devikha_balu@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neethusoni_h@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhruv_chopra@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yashika_singh@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swati_kumari@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashwan_Allam@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piyush_Gupta1@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">balaji_k@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trupti_Gaikwad1@Epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishal_jha@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rao_dharmarajula@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vikas_gadekar@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shubham_shirsode@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aswini_nandigam@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monisha_doss@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugesa_Elumalai@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">madhuri_thota@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasim_kanwade@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prathu_nagar@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jugal_kishore@epam.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sami_phanindra@epam.com  </t>
+  </si>
+  <si>
+    <t>shruthi_j@epam.com</t>
+  </si>
+  <si>
+    <t>priyanka.sonar@tigeranalytics.com</t>
+  </si>
+  <si>
+    <t>sanjana.patil@tigeranalytics.com</t>
+  </si>
+  <si>
+    <t>utkarsh.anand@tigeranalytics.com</t>
+  </si>
+  <si>
+    <t>sandeep.dhoundiy@tigeranalytics.com</t>
+  </si>
+  <si>
+    <t>rabiyabasra2@tigeranalytics.com</t>
+  </si>
+  <si>
+    <t>kumari.nandini@tigeranalytics.com</t>
+  </si>
+  <si>
+    <t>vivek.s@tigeranalytics.com</t>
+  </si>
+  <si>
+    <t>tkhandag@visa.com</t>
+  </si>
+  <si>
+    <t>shubhams@visa.com</t>
+  </si>
+  <si>
+    <t>isbaron@visa.com</t>
+  </si>
+  <si>
+    <t>anubhav.pathania@impetus.com</t>
+  </si>
+  <si>
+    <t>ankita.bn.mishra@impetus.com</t>
+  </si>
+  <si>
+    <t>sonam.n.gupt@impetus.com</t>
+  </si>
+  <si>
+    <t>sourabhraj.adam@impetus.com</t>
+  </si>
+  <si>
+    <t>chaman.jain@impetus.com</t>
+  </si>
+  <si>
+    <t>shweta.nemani@impetus.com</t>
+  </si>
+  <si>
+    <t>shilpi.saria@impetus.com</t>
+  </si>
+  <si>
+    <t>govinda.saxena@impetus.com</t>
+  </si>
+  <si>
+    <t>chirag.s.mantri@impetus.com</t>
+  </si>
+  <si>
+    <t>abhishek.singh@impetus.com</t>
+  </si>
+  <si>
+    <t>sreeharsha.naik@mathco.com</t>
+  </si>
+  <si>
+    <t>puja.sarma@mathco.com</t>
+  </si>
+  <si>
+    <t>tejaswini.rajashekar@mathco.com</t>
+  </si>
+  <si>
+    <t>pranjal.sharma@mathco.com</t>
+  </si>
+  <si>
+    <t>himanshu@mathco.com</t>
+  </si>
+  <si>
+    <t>jathin.shetty@mathco.com</t>
+  </si>
+  <si>
+    <t>shreya.g@mathco.com</t>
+  </si>
+  <si>
+    <t>rohit.sodhi@mathco.com</t>
+  </si>
+  <si>
+    <t>rudresh.br@mathco.com</t>
+  </si>
+  <si>
+    <t>monica.peter@mathco.com</t>
+  </si>
+  <si>
+    <t>anmol.arora@mathco.com</t>
+  </si>
+  <si>
+    <t>kreethi.mishra@mathco.com</t>
+  </si>
+  <si>
+    <t>danyal.siddiqui@mathco.com</t>
+  </si>
+  <si>
+    <t>prasanth.u@mathco.com</t>
+  </si>
+  <si>
+    <t>sarita.jha@mathco.com</t>
+  </si>
+  <si>
+    <t>arvind.pothula@mathco.com</t>
+  </si>
+  <si>
+    <t>dipesh.prabhakar@mathco.com</t>
+  </si>
+  <si>
+    <t>shubham.puranik@mathco.com</t>
+  </si>
+  <si>
+    <t>talib.kundraikar@mathco.com</t>
+  </si>
+  <si>
+    <t>arunkumar.hm@mathco.com</t>
+  </si>
+  <si>
+    <t>lekhana.panchayatula@mathco.com</t>
+  </si>
+  <si>
+    <t>shiv.singh@rubrik.com</t>
+  </si>
+  <si>
+    <t>pratik.tamang@freshworks.com</t>
+  </si>
+  <si>
+    <t>sayeednoman@urbancompany.com</t>
+  </si>
+  <si>
+    <t>thaiseenfarooq@urbancompany.com</t>
+  </si>
+  <si>
+    <t>anshumanraj@urbancompany.com</t>
+  </si>
+  <si>
+    <t>nagendraverma@urbancompany.com</t>
+  </si>
+  <si>
+    <t>ucmilitary@urbancompany.com</t>
+  </si>
+  <si>
+    <t>vysakhkp@urbancompany.com</t>
+  </si>
+  <si>
+    <t>ishanmehta@urbancompany.com</t>
+  </si>
+  <si>
+    <t>kaushikkumarpatro@urbancompany.com</t>
+  </si>
+  <si>
+    <t>siddharthsinha@urbancompany.com</t>
+  </si>
+  <si>
+    <t>omkarswami@urbancompany.com</t>
+  </si>
+  <si>
+    <t>prudhvivadlamudi@urbancompany.com</t>
+  </si>
+  <si>
+    <t>mprabakar@urbancompany.com</t>
+  </si>
+  <si>
+    <t>prabukumarr@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sudyutsalv@urbancompany.com</t>
+  </si>
+  <si>
+    <t>nishant1@urbancompany.com</t>
+  </si>
+  <si>
+    <t>swapnomoyghosh@urbancompany.com</t>
+  </si>
+  <si>
+    <t>guduguntlarenuka@urbancompany.com</t>
+  </si>
+  <si>
+    <t>nancysahgel.ext@urbancompany.com</t>
+  </si>
+  <si>
+    <t>ankandan.ext@urbancompany.com</t>
+  </si>
+  <si>
+    <t>bhuviminocha.int@urbancompany.com</t>
+  </si>
+  <si>
+    <t>anushkarungta.ext@urbancompany.com</t>
+  </si>
+  <si>
+    <t>vikashsinha@urbancompany.com</t>
+  </si>
+  <si>
+    <t>priyanshutripathi@urbancompany.com</t>
+  </si>
+  <si>
+    <t>ankitgoswami@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sanjaykumars@urbancompany.com</t>
+  </si>
+  <si>
+    <t>anubhavjain@urbancompany.com</t>
+  </si>
+  <si>
+    <t>deepakgoud@urbancompany.com</t>
+  </si>
+  <si>
+    <t>rakshithap.ext@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sagarbandagale@urbancompany.com</t>
+  </si>
+  <si>
+    <t>sheetaldharpure@urbancompany.com</t>
+  </si>
+  <si>
+    <t>tanianath@urbancompany.com</t>
+  </si>
+  <si>
+    <t>jaywantnikam.int@urbancompany.com</t>
+  </si>
+  <si>
+    <t>kshitijkumar@urbancompany.com</t>
+  </si>
+  <si>
+    <t>snehamondal@urbancompany.com</t>
+  </si>
+  <si>
+    <t>asleshaagarwal.int@urbancompany.com</t>
+  </si>
+  <si>
+    <t>anshajarora@urbancompany.com</t>
+  </si>
+  <si>
+    <t>pranshichoudhary@urbancompany.com</t>
+  </si>
+  <si>
+    <t>rohanrawat@urbancompany.com</t>
+  </si>
+  <si>
+    <t>suvammajumdar@urbancompany.com</t>
+  </si>
+  <si>
+    <t>vijaylaxmi@urbancompany.com</t>
   </si>
 </sst>
 </file>
@@ -16768,7 +17287,387 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -17239,10 +18138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:B5557"/>
+  <dimension ref="A1:B5730"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5548" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5562" sqref="B5562"/>
+    <sheetView tabSelected="1" topLeftCell="A5705" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5719" sqref="B5719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28088,7 +28987,7 @@
       </c>
     </row>
     <row r="2144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2144" t="s">
+      <c r="A2144" s="1" t="s">
         <v>2143</v>
       </c>
     </row>
@@ -36608,12 +37507,12 @@
       </c>
     </row>
     <row r="3848" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3848" t="s">
+      <c r="A3848" s="1" t="s">
         <v>3847</v>
       </c>
     </row>
     <row r="3849" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3849" t="s">
+      <c r="A3849" s="1" t="s">
         <v>3848</v>
       </c>
     </row>
@@ -45157,50 +46056,924 @@
         <v>5556</v>
       </c>
     </row>
+    <row r="5558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5558" t="s">
+        <v>5557</v>
+      </c>
+    </row>
+    <row r="5559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5559" t="s">
+        <v>5558</v>
+      </c>
+    </row>
+    <row r="5560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5560" t="s">
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="5561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5561" t="s">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="5562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5562" t="s">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="5563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5563" t="s">
+        <v>5562</v>
+      </c>
+    </row>
+    <row r="5564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5564" t="s">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="5565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5565" t="s">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="5566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5566" t="s">
+        <v>5565</v>
+      </c>
+    </row>
+    <row r="5567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5567" t="s">
+        <v>5566</v>
+      </c>
+    </row>
+    <row r="5568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5568" t="s">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="5569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5569" t="s">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="5570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5570" t="s">
+        <v>5569</v>
+      </c>
+    </row>
+    <row r="5571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5571" t="s">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="5572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5572" t="s">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="5573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5573" t="s">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="5574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5574" t="s">
+        <v>5573</v>
+      </c>
+    </row>
+    <row r="5575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5575" t="s">
+        <v>5574</v>
+      </c>
+    </row>
+    <row r="5576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5576" t="s">
+        <v>5575</v>
+      </c>
+    </row>
+    <row r="5577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5577" t="s">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="5578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5578" t="s">
+        <v>5577</v>
+      </c>
+    </row>
+    <row r="5579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5579" t="s">
+        <v>5578</v>
+      </c>
+    </row>
+    <row r="5580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5580" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="5581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5581" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="5582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5582" t="s">
+        <v>5581</v>
+      </c>
+    </row>
+    <row r="5583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5583" t="s">
+        <v>5582</v>
+      </c>
+    </row>
+    <row r="5584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5584" t="s">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="5585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5585" t="s">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="5586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5586" t="s">
+        <v>5585</v>
+      </c>
+    </row>
+    <row r="5587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5587" t="s">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="5588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5588" t="s">
+        <v>5587</v>
+      </c>
+    </row>
+    <row r="5589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5589" t="s">
+        <v>5588</v>
+      </c>
+    </row>
+    <row r="5590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5590" t="s">
+        <v>5589</v>
+      </c>
+    </row>
+    <row r="5591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5591" t="s">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="5592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5592" t="s">
+        <v>5591</v>
+      </c>
+    </row>
+    <row r="5593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5593" t="s">
+        <v>5592</v>
+      </c>
+    </row>
+    <row r="5594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5594" t="s">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="5595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5595" s="1" t="s">
+        <v>5594</v>
+      </c>
+    </row>
+    <row r="5596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5596" t="s">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="5597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5597" t="s">
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="5598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5598" t="s">
+        <v>5597</v>
+      </c>
+    </row>
+    <row r="5599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5599" t="s">
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="5600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5600" t="s">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="5601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5601" t="s">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="5602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5602" t="s">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="5603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5603" t="s">
+        <v>5602</v>
+      </c>
+    </row>
+    <row r="5604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5604" t="s">
+        <v>5603</v>
+      </c>
+    </row>
+    <row r="5605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5605" t="s">
+        <v>5604</v>
+      </c>
+    </row>
+    <row r="5606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5606" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="5607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5607" t="s">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="5608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5608" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="5609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5609" t="s">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="5610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5610" t="s">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="5611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5611" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="5612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5612" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="5613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5613" t="s">
+        <v>5612</v>
+      </c>
+    </row>
+    <row r="5614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5614" s="1" t="s">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="5615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5615" s="1" t="s">
+        <v>5615</v>
+      </c>
+    </row>
+    <row r="5616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5616" t="s">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="5617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5617" t="s">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="5618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5618" t="s">
+        <v>5617</v>
+      </c>
+    </row>
+    <row r="5619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5619" t="s">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="5620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5620" t="s">
+        <v>5619</v>
+      </c>
+    </row>
+    <row r="5621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5621" t="s">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="5622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5622" t="s">
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="5623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5623" t="s">
+        <v>5622</v>
+      </c>
+    </row>
+    <row r="5624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5624" t="s">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="5625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5625" t="s">
+        <v>5624</v>
+      </c>
+    </row>
+    <row r="5626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5626" t="s">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="5627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5627" t="s">
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="5628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5628" t="s">
+        <v>5627</v>
+      </c>
+    </row>
+    <row r="5629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5629" t="s">
+        <v>5628</v>
+      </c>
+    </row>
+    <row r="5630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5630" t="s">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="5631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5631" t="s">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="5632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5632" t="s">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="5633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5633" t="s">
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="5634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5634" t="s">
+        <v>5633</v>
+      </c>
+    </row>
+    <row r="5635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5635" t="s">
+        <v>5634</v>
+      </c>
+    </row>
+    <row r="5636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5636" t="s">
+        <v>5635</v>
+      </c>
+    </row>
+    <row r="5637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5637" t="s">
+        <v>5636</v>
+      </c>
+    </row>
+    <row r="5638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5638" t="s">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="5639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5639" t="s">
+        <v>5638</v>
+      </c>
+    </row>
+    <row r="5640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5640" t="s">
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="5641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5641" t="s">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="5642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5642" t="s">
+        <v>5641</v>
+      </c>
+    </row>
+    <row r="5643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5643" t="s">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="5644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5644" t="s">
+        <v>5643</v>
+      </c>
+    </row>
+    <row r="5645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5645" t="s">
+        <v>5644</v>
+      </c>
+    </row>
+    <row r="5646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5646" t="s">
+        <v>5645</v>
+      </c>
+    </row>
+    <row r="5647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5647" t="s">
+        <v>5646</v>
+      </c>
+    </row>
+    <row r="5648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5648" t="s">
+        <v>5647</v>
+      </c>
+    </row>
+    <row r="5649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5649" t="s">
+        <v>5648</v>
+      </c>
+    </row>
+    <row r="5650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5650" t="s">
+        <v>5649</v>
+      </c>
+    </row>
+    <row r="5651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5651" t="s">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="5652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5652" t="s">
+        <v>5651</v>
+      </c>
+    </row>
+    <row r="5653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5653" t="s">
+        <v>5652</v>
+      </c>
+    </row>
+    <row r="5654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5654" t="s">
+        <v>5653</v>
+      </c>
+    </row>
+    <row r="5655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5655" t="s">
+        <v>5654</v>
+      </c>
+    </row>
+    <row r="5656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5656" t="s">
+        <v>5655</v>
+      </c>
+    </row>
+    <row r="5657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5657" t="s">
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="5658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5658" s="1" t="s">
+        <v>5657</v>
+      </c>
+    </row>
+    <row r="5659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5659" t="s">
+        <v>5658</v>
+      </c>
+    </row>
+    <row r="5660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5660" t="s">
+        <v>5659</v>
+      </c>
+    </row>
+    <row r="5661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5661" t="s">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="5662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5662" t="s">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="5663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5663" s="1" t="s">
+        <v>5662</v>
+      </c>
+    </row>
+    <row r="5664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5664" t="s">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="5665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5665" t="s">
+        <v>5664</v>
+      </c>
+    </row>
+    <row r="5666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5666" t="s">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="5667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5667" t="s">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="5668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5668" t="s">
+        <v>5667</v>
+      </c>
+    </row>
+    <row r="5669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5669" t="s">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="5670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5670" t="s">
+        <v>5669</v>
+      </c>
+    </row>
+    <row r="5671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5671" t="s">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="5672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5672" t="s">
+        <v>5671</v>
+      </c>
+    </row>
+    <row r="5673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5673" t="s">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="5674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5674" s="1" t="s">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="5675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5675" t="s">
+        <v>5674</v>
+      </c>
+    </row>
+    <row r="5676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5676" t="s">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="5677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5677" t="s">
+        <v>5676</v>
+      </c>
+    </row>
+    <row r="5678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5678" t="s">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="5679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5679" t="s">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="5680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5680" t="s">
+        <v>5679</v>
+      </c>
+    </row>
+    <row r="5681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5681" t="s">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="5682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5682" t="s">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="5683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5683" t="s">
+        <v>5682</v>
+      </c>
+    </row>
+    <row r="5684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5684" t="s">
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="5685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5685" s="1" t="s">
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="5686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5686" s="1" t="s">
+        <v>5685</v>
+      </c>
+    </row>
+    <row r="5687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5687" s="1" t="s">
+        <v>5686</v>
+      </c>
+    </row>
+    <row r="5688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5688" s="1" t="s">
+        <v>5687</v>
+      </c>
+    </row>
+    <row r="5689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5689" t="s">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="5690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5690" t="s">
+        <v>5689</v>
+      </c>
+    </row>
+    <row r="5691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5691" t="s">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="5692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5692" t="s">
+        <v>5691</v>
+      </c>
+    </row>
+    <row r="5693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5693" t="s">
+        <v>5692</v>
+      </c>
+    </row>
+    <row r="5694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5694" t="s">
+        <v>5693</v>
+      </c>
+    </row>
+    <row r="5695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5695" t="s">
+        <v>5694</v>
+      </c>
+    </row>
+    <row r="5696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5696" t="s">
+        <v>5695</v>
+      </c>
+    </row>
+    <row r="5697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5697" t="s">
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="5698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5698" t="s">
+        <v>5697</v>
+      </c>
+    </row>
+    <row r="5699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5699" t="s">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="5700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5700" t="s">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="5701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5701" t="s">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="5702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5702" t="s">
+        <v>5701</v>
+      </c>
+    </row>
+    <row r="5703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5703" t="s">
+        <v>5702</v>
+      </c>
+    </row>
+    <row r="5704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5704" t="s">
+        <v>5703</v>
+      </c>
+    </row>
+    <row r="5705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5705" t="s">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="5706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5706" t="s">
+        <v>5705</v>
+      </c>
+    </row>
+    <row r="5707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5707" t="s">
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="5708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5708" t="s">
+        <v>5707</v>
+      </c>
+    </row>
+    <row r="5709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5709" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="5710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5710" t="s">
+        <v>5709</v>
+      </c>
+    </row>
+    <row r="5711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5711" t="s">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="5712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5712" t="s">
+        <v>5711</v>
+      </c>
+    </row>
+    <row r="5713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5713" t="s">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="5714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5714" t="s">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="5715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5715" t="s">
+        <v>5714</v>
+      </c>
+    </row>
+    <row r="5716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5716" t="s">
+        <v>5715</v>
+      </c>
+    </row>
+    <row r="5717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5717" t="s">
+        <v>5716</v>
+      </c>
+    </row>
+    <row r="5718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5718" t="s">
+        <v>5717</v>
+      </c>
+    </row>
+    <row r="5719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5719" t="s">
+        <v>5718</v>
+      </c>
+    </row>
+    <row r="5720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5720" t="s">
+        <v>5719</v>
+      </c>
+    </row>
+    <row r="5721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5721" t="s">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="5722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5722" t="s">
+        <v>5721</v>
+      </c>
+    </row>
+    <row r="5723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5723" t="s">
+        <v>5722</v>
+      </c>
+    </row>
+    <row r="5724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5724" t="s">
+        <v>5723</v>
+      </c>
+    </row>
+    <row r="5725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5725" t="s">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="5726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5726" t="s">
+        <v>5725</v>
+      </c>
+    </row>
+    <row r="5727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5727" t="s">
+        <v>5726</v>
+      </c>
+    </row>
+    <row r="5728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5728" t="s">
+        <v>5727</v>
+      </c>
+    </row>
+    <row r="5729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5729" t="s">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="5730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5730" t="s">
+        <v>5729</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A5468:A5492 A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+  <conditionalFormatting sqref="A1:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="36" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+  <conditionalFormatting sqref="A5468:A5492 A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+  <conditionalFormatting sqref="A5468:A5492 A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+  <conditionalFormatting sqref="A5468:A5492 A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="32" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="31" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="30" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="27" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="26" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  <conditionalFormatting sqref="A5468:A5492 A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  <conditionalFormatting sqref="A5468:A5492 A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="A5468:A5492 A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5468:A5492 A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A5688 A5708:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A5730 A5790:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A239" r:id="rId1" xr:uid="{5825654D-468C-4EC2-A54B-BC3D3242EE16}"/>
@@ -45229,6 +47002,19 @@
     <hyperlink ref="A5445" r:id="rId24" xr:uid="{065D74C5-2EE9-4382-B98D-4F1A152DC369}"/>
     <hyperlink ref="A5456" r:id="rId25" xr:uid="{78ADDC28-5358-4A00-93D9-BBB59C635549}"/>
     <hyperlink ref="A5488" r:id="rId26" xr:uid="{2DB45347-1050-48DD-B911-A65DA926343D}"/>
+    <hyperlink ref="A5595" r:id="rId27" xr:uid="{28BD2FC6-4B6D-4E2C-8262-E8BFEB46AE45}"/>
+    <hyperlink ref="A3849" r:id="rId28" xr:uid="{E7743C6A-9C6E-4E73-B866-D9A83320B439}"/>
+    <hyperlink ref="A3848" r:id="rId29" xr:uid="{83469175-B13B-4C0E-9A97-B79F628227E8}"/>
+    <hyperlink ref="A5614" r:id="rId30" xr:uid="{64780E9F-5D1D-4E56-AA14-88BB7D6A5BA1}"/>
+    <hyperlink ref="A5615" r:id="rId31" xr:uid="{2E274991-8B55-4F06-B04A-C993E4658D54}"/>
+    <hyperlink ref="A2144" r:id="rId32" xr:uid="{E71AEE6F-BDCA-408B-A2B0-A77CC66D1CFC}"/>
+    <hyperlink ref="A5663" r:id="rId33" xr:uid="{411CA869-E24E-4ECA-9B5A-8ACE009C3CC9}"/>
+    <hyperlink ref="A5658" r:id="rId34" xr:uid="{68D2BC0C-CF43-4618-B4DB-0AF13DC631E8}"/>
+    <hyperlink ref="A5674" r:id="rId35" xr:uid="{24232EB5-6666-4DF3-B3BA-C359F99538C8}"/>
+    <hyperlink ref="A5687" r:id="rId36" xr:uid="{FF17001E-1615-4A2D-AF18-E31343AFC48A}"/>
+    <hyperlink ref="A5685" r:id="rId37" xr:uid="{09110F02-EC7F-40FB-A45E-B4BE10DA3269}"/>
+    <hyperlink ref="A5688" r:id="rId38" xr:uid="{7B7F57A8-4B56-4A56-BC38-34AE7BC853CF}"/>
+    <hyperlink ref="A5686" r:id="rId39" xr:uid="{2BC9655B-BE3F-496A-B59B-D8C1438E4197}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93F12E1-993B-420C-BEE2-D971B9D799C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534105DB-9EAB-4864-B72A-7BBA7FA5C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5730" uniqueCount="5730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5855" uniqueCount="5855">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -17227,6 +17227,381 @@
   </si>
   <si>
     <t>vijaylaxmi@urbancompany.com</t>
+  </si>
+  <si>
+    <t>pritesh.soni@increff.com</t>
+  </si>
+  <si>
+    <t>azakieldeen@luxoft.com</t>
+  </si>
+  <si>
+    <t>sgershonsuguna@luxoft.com</t>
+  </si>
+  <si>
+    <t>smriti.jain@luxoft.com</t>
+  </si>
+  <si>
+    <t>amostafa@luxoft.com</t>
+  </si>
+  <si>
+    <t>mfzargar@luxoft.com</t>
+  </si>
+  <si>
+    <t>tboiko@luxoft.com</t>
+  </si>
+  <si>
+    <t>tgavrila@luxoft.com</t>
+  </si>
+  <si>
+    <t>iachim@luxoft.com</t>
+  </si>
+  <si>
+    <t>s.gershonsuguna@luxoft.com</t>
+  </si>
+  <si>
+    <t>recrutanger.te_tg_fa@continental.com</t>
+  </si>
+  <si>
+    <t>angajari.sibiu@continental.com</t>
+  </si>
+  <si>
+    <t>jan.iversen@continental.com</t>
+  </si>
+  <si>
+    <t>gyda.bjering-strand@continental.com</t>
+  </si>
+  <si>
+    <t>prajwala.ms-ext@continental.com</t>
+  </si>
+  <si>
+    <t>Jagadish.boodapati@continental.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja@infoblox.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rcampbell@infoblox.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">twagh@infoblox.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vap1@infoblox.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sjose3@infoblox.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bratin.roy@in.ab-inbev.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">media.relations@in.ab-inbev.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashutosh.singh1@in.ab-inbev.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhruv.gupta1@in.ab-inbev.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">simran.vohra@in.ab-inbev.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakshi.deshpande@in.ab-inbev.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">srihitha.deshpande@in.ab-inbev.com  </t>
+  </si>
+  <si>
+    <t>kbisht@alpha-sense.com</t>
+  </si>
+  <si>
+    <t>ssadikot@alpha-sense.com</t>
+  </si>
+  <si>
+    <t>eharding@alpha-sense.com</t>
+  </si>
+  <si>
+    <t>Katelyn.moradipour@alpha-sense.com</t>
+  </si>
+  <si>
+    <t>kajwani@alpha-sense.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">babyshree.ramakrishnan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">premananda.patro@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajashree.ramakrishnan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">srinivasan.anand@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajesh.babu1@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">michaelarulraj.maria@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">siva.vignesh1@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinothini.subramaniyan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">divya.sankar@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivam.saxena@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hariharan.perumal@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lenin.arokyadass@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maddanna.linganna@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">suganthi.christina@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakthivelan.panneerselvam@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prakasam.thangarasu@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeshvanth.selvam@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vidhyakanishka.janagapandy@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">joanna.jesudass@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshai.manikandan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">madhanagopal.chandrakumar@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiruppathy.kulandaivel@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gokul.santhanakrishnan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">archana.kandakumar@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">allan.alocius@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinod.aniyan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bheemashankar.nashi@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhiliban.mani@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prithiviraj.raghunathan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pragadeeswaran.chandrasekaran@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sangeetha.priya@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaya.gowri@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">santosh.kumar@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jatin.bhatt@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">karpagamoorthy.chelladurai@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">siddhartha.shankar@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">navaneethan.madhayan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">libi.masila@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaya.priya@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">surya.bhoopathy@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saravanan.chiterasu@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">michael.devaraj@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">midhun.mani@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramya.chellaiyan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gajapriya.karthigeyan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingeshwaran.rajendran@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lakshmipriya.pandiyan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prasanna.vilangaiah@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nandhinee.naveenan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajkumar.manoharan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">feroz.syed@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lithwin.roach@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurusamy.nagarajan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lokesh.nandakumar@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">premkumar.udhayasuriyan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arunkumar.muthupalani@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sathish.kumar1@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">katigalla.omprakash@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">srinivas.kannan@photon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">praveen.somashekar@photon.com  </t>
+  </si>
+  <si>
+    <t>rubesh.chandrakumar@photon.com</t>
+  </si>
+  <si>
+    <t>Sarvesh.dhar.dubey@signify.com</t>
+  </si>
+  <si>
+    <t>saurav.kumar.das@signify.com</t>
+  </si>
+  <si>
+    <t>vinod.kumar.alahari@signify.com</t>
+  </si>
+  <si>
+    <t>navneet.sunu@signify.com</t>
+  </si>
+  <si>
+    <t>fathima.nausheen@signify.com</t>
+  </si>
+  <si>
+    <t>Saurabh.pathak@signify.com</t>
+  </si>
+  <si>
+    <t>nipun.sarin@signify.com</t>
+  </si>
+  <si>
+    <t>ayesha.mohammad@signify.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramya.rani@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recruitment@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kishore.nataraj@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahul.gavry@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sangeetha.khatana@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manojit.pandey@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maria.clement@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manaswini.basantia@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shreyas.devadiga@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">momin.siddique@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavithra.n@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eliza.magana@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gayathri.madhavraju@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manjunath.n@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manilarecruitment@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swarna.vr@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashwini.rao@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kamesh.r@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">smitadutta.deb@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manjot.singh@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nibbaragandla.r@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaishali.reddy@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">srikant.tutika@gomoder.com  </t>
   </si>
 </sst>
 </file>
@@ -17287,357 +17662,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18138,10 +18163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:B5730"/>
+  <dimension ref="A1:B5855"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5705" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5719" sqref="B5719"/>
+    <sheetView tabSelected="1" topLeftCell="A5846" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5861" sqref="B5861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46921,59 +46946,684 @@
         <v>5729</v>
       </c>
     </row>
+    <row r="5731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5731" t="s">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="5732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5732" t="s">
+        <v>5731</v>
+      </c>
+    </row>
+    <row r="5733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5733" t="s">
+        <v>5732</v>
+      </c>
+    </row>
+    <row r="5734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5734" t="s">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="5735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5735" t="s">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="5736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5736" t="s">
+        <v>5735</v>
+      </c>
+    </row>
+    <row r="5737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5737" t="s">
+        <v>5736</v>
+      </c>
+    </row>
+    <row r="5738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5738" t="s">
+        <v>5737</v>
+      </c>
+    </row>
+    <row r="5739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5739" t="s">
+        <v>5738</v>
+      </c>
+    </row>
+    <row r="5740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5740" t="s">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="5741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5741" t="s">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="5742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5742" t="s">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="5743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5743" t="s">
+        <v>5742</v>
+      </c>
+    </row>
+    <row r="5744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5744" t="s">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="5745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5745" t="s">
+        <v>5744</v>
+      </c>
+    </row>
+    <row r="5746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5746" t="s">
+        <v>5745</v>
+      </c>
+    </row>
+    <row r="5747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5747" t="s">
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="5748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5748" t="s">
+        <v>5747</v>
+      </c>
+    </row>
+    <row r="5749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5749" t="s">
+        <v>5748</v>
+      </c>
+    </row>
+    <row r="5750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5750" t="s">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="5751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5751" t="s">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="5752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5752" t="s">
+        <v>5751</v>
+      </c>
+    </row>
+    <row r="5753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5753" t="s">
+        <v>5752</v>
+      </c>
+    </row>
+    <row r="5754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5754" t="s">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="5755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5755" t="s">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="5756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5756" t="s">
+        <v>5755</v>
+      </c>
+    </row>
+    <row r="5757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5757" t="s">
+        <v>5756</v>
+      </c>
+    </row>
+    <row r="5758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5758" t="s">
+        <v>5757</v>
+      </c>
+    </row>
+    <row r="5759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5759" t="s">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="5760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5760" t="s">
+        <v>5759</v>
+      </c>
+    </row>
+    <row r="5761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5761" t="s">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="5762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5762" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="5763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5763" t="s">
+        <v>5762</v>
+      </c>
+    </row>
+    <row r="5764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5764" t="s">
+        <v>5763</v>
+      </c>
+    </row>
+    <row r="5765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5765" t="s">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="5766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5766" t="s">
+        <v>5765</v>
+      </c>
+    </row>
+    <row r="5767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5767" t="s">
+        <v>5766</v>
+      </c>
+    </row>
+    <row r="5768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5768" t="s">
+        <v>5767</v>
+      </c>
+    </row>
+    <row r="5769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5769" t="s">
+        <v>5768</v>
+      </c>
+    </row>
+    <row r="5770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5770" t="s">
+        <v>5769</v>
+      </c>
+    </row>
+    <row r="5771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5771" t="s">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="5772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5772" t="s">
+        <v>5771</v>
+      </c>
+    </row>
+    <row r="5773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5773" t="s">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="5774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5774" t="s">
+        <v>5773</v>
+      </c>
+    </row>
+    <row r="5775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5775" t="s">
+        <v>5774</v>
+      </c>
+    </row>
+    <row r="5776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5776" t="s">
+        <v>5775</v>
+      </c>
+    </row>
+    <row r="5777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5777" t="s">
+        <v>5776</v>
+      </c>
+    </row>
+    <row r="5778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5778" t="s">
+        <v>5777</v>
+      </c>
+    </row>
+    <row r="5779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5779" s="1" t="s">
+        <v>5778</v>
+      </c>
+    </row>
+    <row r="5780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5780" s="1" t="s">
+        <v>5823</v>
+      </c>
+    </row>
+    <row r="5781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5781" t="s">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="5782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5782" t="s">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="5783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5783" t="s">
+        <v>5781</v>
+      </c>
+    </row>
+    <row r="5784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5784" t="s">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="5785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5785" t="s">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="5786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5786" t="s">
+        <v>5784</v>
+      </c>
+    </row>
+    <row r="5787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5787" t="s">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="5788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5788" t="s">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="5789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5789" t="s">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="5790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5790" t="s">
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="5791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5791" t="s">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="5792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5792" t="s">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="5793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5793" t="s">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="5794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5794" t="s">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="5795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5795" t="s">
+        <v>5793</v>
+      </c>
+    </row>
+    <row r="5796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5796" t="s">
+        <v>5794</v>
+      </c>
+    </row>
+    <row r="5797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5797" t="s">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="5798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5798" t="s">
+        <v>5796</v>
+      </c>
+    </row>
+    <row r="5799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5799" t="s">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="5800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5800" t="s">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="5801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5801" t="s">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="5802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5802" t="s">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="5803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5803" t="s">
+        <v>5801</v>
+      </c>
+    </row>
+    <row r="5804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5804" t="s">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="5805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5805" t="s">
+        <v>5803</v>
+      </c>
+    </row>
+    <row r="5806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5806" t="s">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="5807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5807" t="s">
+        <v>5805</v>
+      </c>
+    </row>
+    <row r="5808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5808" t="s">
+        <v>5806</v>
+      </c>
+    </row>
+    <row r="5809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5809" t="s">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="5810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5810" t="s">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="5811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5811" t="s">
+        <v>5809</v>
+      </c>
+    </row>
+    <row r="5812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5812" t="s">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="5813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5813" t="s">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="5814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5814" t="s">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="5815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5815" t="s">
+        <v>5813</v>
+      </c>
+    </row>
+    <row r="5816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5816" t="s">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="5817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5817" t="s">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="5818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5818" t="s">
+        <v>5816</v>
+      </c>
+    </row>
+    <row r="5819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5819" t="s">
+        <v>5817</v>
+      </c>
+    </row>
+    <row r="5820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5820" t="s">
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="5821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5821" t="s">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="5822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5822" t="s">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="5823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5823" t="s">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="5824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5824" t="s">
+        <v>5822</v>
+      </c>
+    </row>
+    <row r="5825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5825" t="s">
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="5826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5826" t="s">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="5827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5827" t="s">
+        <v>5826</v>
+      </c>
+    </row>
+    <row r="5828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5828" t="s">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="5829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5829" t="s">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="5830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5830" t="s">
+        <v>5829</v>
+      </c>
+    </row>
+    <row r="5831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5831" t="s">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="5832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5832" t="s">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="5833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5833" t="s">
+        <v>5832</v>
+      </c>
+    </row>
+    <row r="5834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5834" t="s">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="5835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5835" t="s">
+        <v>5834</v>
+      </c>
+    </row>
+    <row r="5836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5836" t="s">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="5837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5837" t="s">
+        <v>5836</v>
+      </c>
+    </row>
+    <row r="5838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5838" t="s">
+        <v>5837</v>
+      </c>
+    </row>
+    <row r="5839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5839" t="s">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="5840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5840" t="s">
+        <v>5839</v>
+      </c>
+    </row>
+    <row r="5841" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5841" t="s">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="5842" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5842" t="s">
+        <v>5841</v>
+      </c>
+    </row>
+    <row r="5843" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5843" t="s">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="5844" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5844" t="s">
+        <v>5843</v>
+      </c>
+    </row>
+    <row r="5845" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5845" t="s">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="5846" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5846" t="s">
+        <v>5845</v>
+      </c>
+    </row>
+    <row r="5847" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5847" t="s">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="5848" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5848" t="s">
+        <v>5847</v>
+      </c>
+    </row>
+    <row r="5849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5849" t="s">
+        <v>5848</v>
+      </c>
+    </row>
+    <row r="5850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5850" t="s">
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="5851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5851" t="s">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="5852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5852" t="s">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="5853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5853" t="s">
+        <v>5852</v>
+      </c>
+    </row>
+    <row r="5854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5854" t="s">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="5855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5855" t="s">
+        <v>5854</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="3"/>
+  <conditionalFormatting sqref="A1:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
+  <conditionalFormatting sqref="A1:A5688 A5708:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
+  <conditionalFormatting sqref="A1:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
+  <conditionalFormatting sqref="A5468:A5492 A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="17"/>
+  <conditionalFormatting sqref="A5468:A5492 A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="16"/>
+  <conditionalFormatting sqref="A5468:A5492 A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="15"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="14"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="12"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="11"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
+  <conditionalFormatting sqref="A5468:A5492 A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
+  <conditionalFormatting sqref="A5468:A5492 A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A5688 A5708:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+  <conditionalFormatting sqref="A5468:A5492 A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A5730 A5790:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A5468:A5492 A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A239" r:id="rId1" xr:uid="{5825654D-468C-4EC2-A54B-BC3D3242EE16}"/>
@@ -47015,6 +47665,8 @@
     <hyperlink ref="A5685" r:id="rId37" xr:uid="{09110F02-EC7F-40FB-A45E-B4BE10DA3269}"/>
     <hyperlink ref="A5688" r:id="rId38" xr:uid="{7B7F57A8-4B56-4A56-BC38-34AE7BC853CF}"/>
     <hyperlink ref="A5686" r:id="rId39" xr:uid="{2BC9655B-BE3F-496A-B59B-D8C1438E4197}"/>
+    <hyperlink ref="A5779" r:id="rId40" xr:uid="{98B712EE-8666-45F4-B74C-5BCF860E749A}"/>
+    <hyperlink ref="A5780" r:id="rId41" xr:uid="{27B48887-C0F7-48A8-8B63-55B67D9F7450}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534105DB-9EAB-4864-B72A-7BBA7FA5C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD03979B-B45C-4740-924C-D57F670903E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5855" uniqueCount="5855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5922" uniqueCount="5922">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -17602,6 +17602,207 @@
   </si>
   <si>
     <t xml:space="preserve">srikant.tutika@gomoder.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sneha.r@noveloffice.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fida.k@noveloffice.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">muiz.a@noveloffice.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amey.p@noveloffice.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fida.k@noveloffice.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">harsh.r@noveloffice.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhavana.b@noveloffice.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yadhni.nadkar@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manish.ahirwar-qkct@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kevin.rodricks@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanvi.palwankar@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anisa.patel@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prachi.mandle-qkct@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivek.gopal@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kevin.doraiswamy@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nayeem.shaikh@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishwa.fafadia@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pooja.pandya@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deepa.radhakrishnani@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sameer.shivalkar@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">savita.rani@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunil.nagraj@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">archana.tikole@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">savita.rani-qkct@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarita.janauti@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pradnya.pevekar@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohit.patkar@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">devyani.patil@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prajakta.talele-qkct@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tehmeem.yakkundi-qkct@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gunjan.khatwani@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shweta.awasthi@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunil.pagare@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neha.shukla@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anjali.maurya@qualitykiosk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mansi.mishra@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakshi.srivastava@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">emamuddin.emamuddin@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nayana.jose@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sjilu.thankam@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kristinenicholai.caffrey@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arsath.jawith@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kimberly.corado@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taruni.nandikotkur@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">koushika.nadigatla@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manu.msharma@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">joselinne.sagastume@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">srijith.g@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mergu.srinath@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prince.kumar@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aiswarya.prakash@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evigneshwaran.hr@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maria.moralesabril@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aldoustristan.vidal@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jothish.s@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">harshitha.n@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mounica.virothi@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">varsha.dp@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishnu.pai@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">krishnagosh.cr@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anjana.james@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">roseanne.manzanilla@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nallamilli.veeraraghavareddy@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meili.chang@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">markbryan.ramiro@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">santhoshkumar.psp@conduent.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meeshalany.maniraja@conduent.com  </t>
   </si>
 </sst>
 </file>
@@ -18163,10 +18364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:B5855"/>
+  <dimension ref="A1:B5922"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5846" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5861" sqref="B5861"/>
+    <sheetView tabSelected="1" topLeftCell="A5915" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5924" sqref="B5924"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47569,6 +47770,341 @@
     <row r="5855" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5855" t="s">
         <v>5854</v>
+      </c>
+    </row>
+    <row r="5856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5856" t="s">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="5857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5857" t="s">
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="5858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5858" t="s">
+        <v>5857</v>
+      </c>
+    </row>
+    <row r="5859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5859" t="s">
+        <v>5858</v>
+      </c>
+    </row>
+    <row r="5860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5860" t="s">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="5861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5861" t="s">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="5862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5862" t="s">
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="5863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5863" t="s">
+        <v>5862</v>
+      </c>
+    </row>
+    <row r="5864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5864" t="s">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="5865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5865" t="s">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="5866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5866" t="s">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="5867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5867" t="s">
+        <v>5866</v>
+      </c>
+    </row>
+    <row r="5868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5868" t="s">
+        <v>5867</v>
+      </c>
+    </row>
+    <row r="5869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5869" t="s">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="5870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5870" t="s">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="5871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5871" t="s">
+        <v>5870</v>
+      </c>
+    </row>
+    <row r="5872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5872" t="s">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="5873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5873" t="s">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="5874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5874" t="s">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="5875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5875" t="s">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="5876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5876" t="s">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="5877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5877" t="s">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="5878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5878" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="5879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5879" t="s">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="5880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5880" t="s">
+        <v>5879</v>
+      </c>
+    </row>
+    <row r="5881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5881" t="s">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="5882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5882" t="s">
+        <v>5881</v>
+      </c>
+    </row>
+    <row r="5883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5883" t="s">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="5884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5884" t="s">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="5885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5885" t="s">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="5886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5886" t="s">
+        <v>5885</v>
+      </c>
+    </row>
+    <row r="5887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5887" t="s">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="5888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5888" t="s">
+        <v>5887</v>
+      </c>
+    </row>
+    <row r="5889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5889" t="s">
+        <v>5888</v>
+      </c>
+    </row>
+    <row r="5890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5890" t="s">
+        <v>5889</v>
+      </c>
+    </row>
+    <row r="5891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5891" t="s">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="5892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5892" t="s">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="5893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5893" t="s">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="5894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5894" t="s">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="5895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5895" t="s">
+        <v>5894</v>
+      </c>
+    </row>
+    <row r="5896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5896" t="s">
+        <v>5895</v>
+      </c>
+    </row>
+    <row r="5897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5897" t="s">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="5898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5898" t="s">
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="5899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5899" t="s">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="5900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5900" t="s">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="5901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5901" t="s">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="5902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5902" t="s">
+        <v>5901</v>
+      </c>
+    </row>
+    <row r="5903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5903" t="s">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="5904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5904" t="s">
+        <v>5903</v>
+      </c>
+    </row>
+    <row r="5905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5905" t="s">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="5906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5906" t="s">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="5907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5907" t="s">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="5908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5908" t="s">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="5909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5909" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="5910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5910" t="s">
+        <v>5909</v>
+      </c>
+    </row>
+    <row r="5911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5911" t="s">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="5912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5912" t="s">
+        <v>5911</v>
+      </c>
+    </row>
+    <row r="5913" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5913" t="s">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="5914" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5914" t="s">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="5915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5915" t="s">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="5916" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5916" t="s">
+        <v>5915</v>
+      </c>
+    </row>
+    <row r="5917" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5917" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="5918" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5918" t="s">
+        <v>5917</v>
+      </c>
+    </row>
+    <row r="5919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5919" t="s">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="5920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5920" t="s">
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="5921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5921" t="s">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="5922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5922" t="s">
+        <v>5921</v>
       </c>
     </row>
   </sheetData>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD03979B-B45C-4740-924C-D57F670903E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E63CDA9-4AB3-4AED-98E0-B9CEB2D7D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5922" uniqueCount="5922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="6055">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -17803,6 +17803,405 @@
   </si>
   <si>
     <t xml:space="preserve">meeshalany.maniraja@conduent.com  </t>
+  </si>
+  <si>
+    <t>charly.newton-coombs@e2open.com</t>
+  </si>
+  <si>
+    <t>neeraj.bhargava@e2open.com</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">durga.gaikwad@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">team.recruitment.ph@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vincent.tejas@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">guru.kasi@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tejas.vincent@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinutha.kv@digital.datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunal.ghotekar@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pawar.pooja@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swapna.tambe@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">singh.neha@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sabhajeet.yadav@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">veronica.fernandes@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakhee.trivedi@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">benilda.diaz@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rocky.laquian@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">atreyee.wasty@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shiera.antonio@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">christinemae.alonso@datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alibhrani.deep@digital.datamatics.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trisha.malvankar@datamatics.com  </t>
+  </si>
+  <si>
+    <t>monika.angre@datamatics.com</t>
+  </si>
+  <si>
+    <t>trupti.gangurde@datamatics.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahmed.a.hassan@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ksharma33@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arush.goel@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shankaranand.brajaraman@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">roopneet.kaur@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankur.singh1@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shashank.agrawal@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaytri.aneja@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avinash.chandra@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pankaj.goyal1@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deepti.yadav@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sgupta38@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sameer.gupta@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">urvashi@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mennatallah.husseinawadhussein@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">girish.kumar@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajesh.k.gambhir@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hesham.atefabdelazizkamel@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">harshit.awasthi@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jolie.safwat@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manish.kumar10@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">akanksha.sahdev@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr.egypt@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">egypt.recruitment.banca@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashisa.k.mishra1@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pankaj.kumar3@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.s.reddy@metlife.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neville.colah@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">naina.verma@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mishra@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivam.dubey@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shehbaz.khan@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reenam.singhal@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nimish.kamble@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avinash.joshi@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neha.pareek@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adarsh.dagur@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ran.singh@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranjana.jaiswal@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kailash.ramakrishnan@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monil.kothari@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">namrata.gupta@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankush.kumar@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayush.gupta@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardik.panchal@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaibhav.dhekane1@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">balkrushn.chavda@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">k.suresh@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasheen.sheikh@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">navneet.soni@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gokul.madhu@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhupendra.naudiyal@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sirshitha.s@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nishee.agrawal@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mukesh.kumar1@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivek.maurya@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ganesh.pathak@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aseem.tiwari@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m.madhubabu@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ravi.bharti@incred.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lokesh.bansal@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyesh.kumar@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">angelique.heynen@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanya.dahiya@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyanka.muni.contractor@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahmed.magdy1@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sana.iqwal.contractor@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zeeshan.rafique1@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recruitmentbts@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jenna.roberts@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">russell.tyson@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">farha.khan@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisha.tiwari.contractor@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">huong.tranthiminh@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eslam.fouad@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carlos.teniente@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nancy.narvaezcazares.contractor@pepsico.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">magdalene.devamanohar@kla.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newona.gnanasusikaran@kla.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heidi.formella@kla.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">poonkodi.siva@kla.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajeswari.saravanan@kla.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marcia.smith@kla.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">geetha.paneerselvam@kla.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">michelle.yang@kla.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sivaram.bose@kla.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dima.vesker@kla.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">louis.lawson@kla.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liron.jakobi@kla.com  </t>
+  </si>
+  <si>
+    <t>iediga@equinix.com</t>
+  </si>
+  <si>
+    <t>mvoteam@barclays.com</t>
+  </si>
+  <si>
+    <t>Shashank.sardana@barclays.com</t>
+  </si>
+  <si>
+    <t>vipul.ambaliya@barclays.com</t>
+  </si>
+  <si>
+    <t>grandhi.s.lakshmi@inorg.com</t>
+  </si>
+  <si>
+    <t>kaustav.d.barooah@inorg.com</t>
+  </si>
+  <si>
+    <t>ptenedero@keywordsstudios.com</t>
+  </si>
+  <si>
+    <t>nrelhan@keywordsstudios.com</t>
+  </si>
+  <si>
+    <t>jignacio@keywordsstudios.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yogendra.singh@broadridge.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">patricia.priola@broadridge.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shilpa.more@broadridge.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dharmatheja.sadasivuni@broadridge.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lopamudra.parida@broadridge.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arunkumar.marepally@broadridge.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajender.kendre@broadridge.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pradeep.kosuri@broadridge.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcis-india-openreq@broadridge.com  </t>
   </si>
 </sst>
 </file>
@@ -18364,10 +18763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:B5922"/>
+  <dimension ref="A1:C6054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5915" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5924" sqref="B5924"/>
+    <sheetView tabSelected="1" topLeftCell="A6047" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6062" sqref="B6062"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48097,14 +48496,677 @@
         <v>5919</v>
       </c>
     </row>
-    <row r="5921" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5921" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5921" t="s">
         <v>5920</v>
       </c>
     </row>
-    <row r="5922" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5922" t="s">
         <v>5921</v>
+      </c>
+    </row>
+    <row r="5923" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5923" t="s">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="5924" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5924" t="s">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="5925" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5925" s="1" t="s">
+        <v>5945</v>
+      </c>
+    </row>
+    <row r="5926" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5926" s="1" t="s">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="5927" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5927" t="s">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="5928" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5928" t="s">
+        <v>5927</v>
+      </c>
+    </row>
+    <row r="5929" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5929" t="s">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="5930" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5930" t="s">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="5931" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5931" t="s">
+        <v>5930</v>
+      </c>
+      <c r="C5931" t="s">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="5932" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5932" t="s">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="5933" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5933" t="s">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="5934" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5934" t="s">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="5935" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5935" t="s">
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="5936" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5936" t="s">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="5937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5937" t="s">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="5938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5938" t="s">
+        <v>5937</v>
+      </c>
+    </row>
+    <row r="5939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5939" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="5940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5940" t="s">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="5941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5941" t="s">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="5942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5942" t="s">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="5943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5943" t="s">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="5944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5944" t="s">
+        <v>5943</v>
+      </c>
+    </row>
+    <row r="5945" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5945" s="1" t="s">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="5946" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5946" t="s">
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="5947" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5947" t="s">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="5948" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5948" t="s">
+        <v>5948</v>
+      </c>
+    </row>
+    <row r="5949" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5949" s="1" t="s">
+        <v>5949</v>
+      </c>
+    </row>
+    <row r="5950" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5950" t="s">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="5951" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5951" t="s">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="5952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5952" t="s">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="5953" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5953" t="s">
+        <v>5953</v>
+      </c>
+    </row>
+    <row r="5954" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5954" t="s">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="5955" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5955" t="s">
+        <v>5955</v>
+      </c>
+    </row>
+    <row r="5956" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5956" t="s">
+        <v>5956</v>
+      </c>
+    </row>
+    <row r="5957" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5957" t="s">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="5958" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5958" t="s">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="5959" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5959" t="s">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="5960" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5960" t="s">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="5961" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5961" t="s">
+        <v>5961</v>
+      </c>
+    </row>
+    <row r="5962" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5962" t="s">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="5963" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5963" t="s">
+        <v>5963</v>
+      </c>
+    </row>
+    <row r="5964" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5964" t="s">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="5965" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5965" t="s">
+        <v>5965</v>
+      </c>
+    </row>
+    <row r="5966" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5966" t="s">
+        <v>5966</v>
+      </c>
+    </row>
+    <row r="5967" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5967" t="s">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="5968" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5968" t="s">
+        <v>5968</v>
+      </c>
+    </row>
+    <row r="5969" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5969" t="s">
+        <v>5969</v>
+      </c>
+    </row>
+    <row r="5970" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5970" t="s">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="5971" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5971" t="s">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="5972" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5972" t="s">
+        <v>5972</v>
+      </c>
+    </row>
+    <row r="5973" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5973" t="s">
+        <v>5973</v>
+      </c>
+    </row>
+    <row r="5974" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5974" t="s">
+        <v>5974</v>
+      </c>
+    </row>
+    <row r="5975" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5975" t="s">
+        <v>5975</v>
+      </c>
+    </row>
+    <row r="5976" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5976" t="s">
+        <v>5976</v>
+      </c>
+    </row>
+    <row r="5977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5977" t="s">
+        <v>5977</v>
+      </c>
+    </row>
+    <row r="5978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5978" t="s">
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="5979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5979" t="s">
+        <v>5979</v>
+      </c>
+    </row>
+    <row r="5980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5980" t="s">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="5981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5981" t="s">
+        <v>5981</v>
+      </c>
+    </row>
+    <row r="5982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5982" t="s">
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="5983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5983" t="s">
+        <v>5983</v>
+      </c>
+    </row>
+    <row r="5984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5984" t="s">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="5985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5985" t="s">
+        <v>5985</v>
+      </c>
+    </row>
+    <row r="5986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5986" t="s">
+        <v>5986</v>
+      </c>
+    </row>
+    <row r="5987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5987" t="s">
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="5988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5988" t="s">
+        <v>5988</v>
+      </c>
+    </row>
+    <row r="5989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5989" t="s">
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="5990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5990" t="s">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="5991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5991" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="5992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5992" t="s">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="5993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5993" t="s">
+        <v>5993</v>
+      </c>
+    </row>
+    <row r="5994" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5994" t="s">
+        <v>5994</v>
+      </c>
+    </row>
+    <row r="5995" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5995" t="s">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="5996" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5996" t="s">
+        <v>5996</v>
+      </c>
+    </row>
+    <row r="5997" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5997" t="s">
+        <v>5997</v>
+      </c>
+    </row>
+    <row r="5998" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5998" t="s">
+        <v>5998</v>
+      </c>
+    </row>
+    <row r="5999" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5999" t="s">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="6000" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6000" t="s">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6001" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6001" t="s">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="6002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6002" t="s">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="6003" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6003" t="s">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="6004" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6004" t="s">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="6005" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6005" t="s">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="6006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6006" t="s">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="6007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6007" t="s">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="6008" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6008" t="s">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="6009" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6009" t="s">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="6010" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6010" t="s">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="6011" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6011" t="s">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="6012" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6012" t="s">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="6013" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6013" t="s">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="6014" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6014" t="s">
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="6015" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6015" t="s">
+        <v>6015</v>
+      </c>
+    </row>
+    <row r="6016" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6016" t="s">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="6017" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6017" t="s">
+        <v>6017</v>
+      </c>
+    </row>
+    <row r="6018" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6018" t="s">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="6019" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6019" t="s">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="6020" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6020" t="s">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="6021" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6021" t="s">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="6022" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6022" t="s">
+        <v>6022</v>
+      </c>
+    </row>
+    <row r="6023" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6023" t="s">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="6024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6024" t="s">
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="6025" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6025" t="s">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="6026" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6026" t="s">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="6027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6027" t="s">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="6028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6028" t="s">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="6029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6029" t="s">
+        <v>6029</v>
+      </c>
+    </row>
+    <row r="6030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6030" t="s">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="6031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6031" t="s">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="6032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6032" t="s">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="6033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6033" t="s">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="6034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6034" t="s">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="6035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6035" t="s">
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="6036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6036" t="s">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="6037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6037" t="s">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="6038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6038" t="s">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="6039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6039" t="s">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="6040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6040" t="s">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="6041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6041" t="s">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="6042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6042" t="s">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="6043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6043" t="s">
+        <v>6043</v>
+      </c>
+    </row>
+    <row r="6044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6044" t="s">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="6045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6045" t="s">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="6046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6046" t="s">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="6047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6047" t="s">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="6048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6048" t="s">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="6049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6049" t="s">
+        <v>6049</v>
+      </c>
+    </row>
+    <row r="6050" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6050" t="s">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="6051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6051" t="s">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="6052" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6052" t="s">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="6053" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6053" t="s">
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="6054" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6054" t="s">
+        <v>6054</v>
       </c>
     </row>
   </sheetData>
@@ -48203,6 +49265,10 @@
     <hyperlink ref="A5686" r:id="rId39" xr:uid="{2BC9655B-BE3F-496A-B59B-D8C1438E4197}"/>
     <hyperlink ref="A5779" r:id="rId40" xr:uid="{98B712EE-8666-45F4-B74C-5BCF860E749A}"/>
     <hyperlink ref="A5780" r:id="rId41" xr:uid="{27B48887-C0F7-48A8-8B63-55B67D9F7450}"/>
+    <hyperlink ref="A5925" r:id="rId42" xr:uid="{099C0C27-4E8D-449B-A779-A487E0430ACC}"/>
+    <hyperlink ref="A5926" r:id="rId43" xr:uid="{55CA97C9-5889-4F70-96B2-FB144224C4ED}"/>
+    <hyperlink ref="A5945" r:id="rId44" xr:uid="{412DDA07-18C8-4DD7-9613-FAFF500D4CB5}"/>
+    <hyperlink ref="A5949" r:id="rId45" xr:uid="{8681EBBA-BDA4-4DD5-A2FB-F1C90993B2A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E63CDA9-4AB3-4AED-98E0-B9CEB2D7D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA001599-C527-49D0-A14C-829D1976C382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="6055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6132" uniqueCount="6132">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -18202,6 +18202,237 @@
   </si>
   <si>
     <t xml:space="preserve">gcis-india-openreq@broadridge.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nitin.chand@solarwinds.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swap_partner@solarwinds.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">patrik.sandqvist@solarwinds.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">partner@solarwinds.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sabine.cornette@solarwinds.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cynthia.joseph@solarwinds.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jody.taylor@solarwinds.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anthony.penaud@solarwinds.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yezid.ysaccura@solarwinds.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">strevino@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnatarajan2671@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parana@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">paagrawal@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vbalasubramani@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ardubey@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adubey12030@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spatil11466@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">muthukumar.vinayagam@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpaul@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marif@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prrajput@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ckushwaha@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prmishra@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsurendran@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shjadhav@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anpandey@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nrajput16824@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashewale@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">goagarwal@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanna@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hmuktesh@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vindeshmukh@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nmodi@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmuppidi@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sasubburaj@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmidhun@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mosharma@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lsoundararajan@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhubballi@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">srayala@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsharma11541@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpjoshi@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gsolis@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkunnengeri@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mumashankar@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acardenas@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wgalvan@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sgautam7168@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kyadav@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slopez@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uganesan@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gjannu@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresher@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jgoyal@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">smeher@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vgranados@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dshirley@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saganesan@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nagarwal@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nidas@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ritekumar@altimetrik.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mohit.gupta@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">premkumar.harti@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prasanth.c@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">varnika.rawal@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhabani.sabat@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">faizan.hashmi@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">purbali.barman@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">syed.nizamuddin@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aboobakar.siddiq@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">suseetharan.v@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">somnath.sarkar@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ritika.shaw@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b.praveenkumar@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shobhit@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonia.sehgal@moveinsync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivek.dalmia@moveinsync.com  </t>
   </si>
 </sst>
 </file>
@@ -18763,10 +18994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:C6054"/>
+  <dimension ref="A1:C6131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6047" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6062" sqref="B6062"/>
+    <sheetView tabSelected="1" topLeftCell="A5927" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5938" sqref="B5938"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49167,6 +49398,391 @@
     <row r="6054" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6054" t="s">
         <v>6054</v>
+      </c>
+    </row>
+    <row r="6055" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6055" t="s">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="6056" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6056" t="s">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="6057" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6057" t="s">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="6058" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6058" t="s">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="6059" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6059" t="s">
+        <v>6059</v>
+      </c>
+    </row>
+    <row r="6060" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6060" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="6061" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6061" t="s">
+        <v>6061</v>
+      </c>
+    </row>
+    <row r="6062" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6062" t="s">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="6063" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6063" t="s">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="6064" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6064" t="s">
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="6065" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6065" t="s">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="6066" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6066" t="s">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="6067" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6067" t="s">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="6068" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6068" t="s">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="6069" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6069" t="s">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="6070" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6070" t="s">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="6071" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6071" t="s">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="6072" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6072" t="s">
+        <v>6072</v>
+      </c>
+    </row>
+    <row r="6073" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6073" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="6074" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6074" t="s">
+        <v>6074</v>
+      </c>
+    </row>
+    <row r="6075" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6075" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="6076" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6076" t="s">
+        <v>6076</v>
+      </c>
+    </row>
+    <row r="6077" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6077" t="s">
+        <v>6077</v>
+      </c>
+    </row>
+    <row r="6078" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6078" t="s">
+        <v>6078</v>
+      </c>
+    </row>
+    <row r="6079" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6079" t="s">
+        <v>6079</v>
+      </c>
+    </row>
+    <row r="6080" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6080" t="s">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="6081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6081" t="s">
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="6082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6082" t="s">
+        <v>6082</v>
+      </c>
+    </row>
+    <row r="6083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6083" t="s">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="6084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6084" t="s">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="6085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6085" t="s">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="6086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6086" t="s">
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="6087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6087" t="s">
+        <v>6087</v>
+      </c>
+    </row>
+    <row r="6088" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6088" t="s">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="6089" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6089" t="s">
+        <v>6089</v>
+      </c>
+    </row>
+    <row r="6090" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6090" t="s">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="6091" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6091" t="s">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="6092" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6092" t="s">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="6093" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6093" t="s">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="6094" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6094" t="s">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="6095" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6095" t="s">
+        <v>6095</v>
+      </c>
+    </row>
+    <row r="6096" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6096" t="s">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="6097" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6097" t="s">
+        <v>6097</v>
+      </c>
+    </row>
+    <row r="6098" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6098" t="s">
+        <v>6098</v>
+      </c>
+    </row>
+    <row r="6099" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6099" t="s">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="6100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6100" t="s">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="6101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6101" t="s">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="6102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6102" t="s">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="6103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6103" t="s">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="6104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6104" t="s">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="6105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6105" t="s">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="6106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6106" t="s">
+        <v>6106</v>
+      </c>
+    </row>
+    <row r="6107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6107" t="s">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="6108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6108" t="s">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="6109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6109" t="s">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="6110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6110" t="s">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="6111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6111" t="s">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="6112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6112" t="s">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="6113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6113" t="s">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="6114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6114" t="s">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="6115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6115" t="s">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="6116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6116" t="s">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="6117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6117" t="s">
+        <v>6117</v>
+      </c>
+    </row>
+    <row r="6118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6118" t="s">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="6119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6119" t="s">
+        <v>6119</v>
+      </c>
+    </row>
+    <row r="6120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6120" t="s">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="6121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6121" t="s">
+        <v>6121</v>
+      </c>
+    </row>
+    <row r="6122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6122" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="6123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6123" t="s">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="6124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6124" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="6125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6125" t="s">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="6126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6126" t="s">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="6127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6127" t="s">
+        <v>6127</v>
+      </c>
+    </row>
+    <row r="6128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6128" t="s">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="6129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6129" t="s">
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="6130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6130" t="s">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="6131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6131" t="s">
+        <v>6131</v>
       </c>
     </row>
   </sheetData>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darshan N\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E626D507-A3D0-41B0-B0CD-A16B85E50BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E052355A-9EE2-4F7F-AEB7-9F9CCF2C9A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$3571</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$6253</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6218" uniqueCount="6218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6256" uniqueCount="6237">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -18691,6 +18691,63 @@
   </si>
   <si>
     <t>ribin.haridas@airindia.com</t>
+  </si>
+  <si>
+    <t>Ankit.shukla@blend360.com</t>
+  </si>
+  <si>
+    <t>juan.ricciardi@blend360.com</t>
+  </si>
+  <si>
+    <t>aig-shark-hiring@amd.com</t>
+  </si>
+  <si>
+    <t>Anush+letsgo@amd.com</t>
+  </si>
+  <si>
+    <t>Irene.Ali@amd.com</t>
+  </si>
+  <si>
+    <t>lei.zhang2+hiring@amd.com</t>
+  </si>
+  <si>
+    <t>Lilit.Muradyan@amd.com</t>
+  </si>
+  <si>
+    <t>Madhu.K@amd.com</t>
+  </si>
+  <si>
+    <t>Naresh.Reddy@amd.com</t>
+  </si>
+  <si>
+    <t>nallaparedi.swapna-priya@amd.com</t>
+  </si>
+  <si>
+    <t>nallapreddi.swapna-priya@amd.com</t>
+  </si>
+  <si>
+    <t>nidhin.pillai@amd.com</t>
+  </si>
+  <si>
+    <t>rekha.g@amd.com</t>
+  </si>
+  <si>
+    <t>Sachin.Chothani@amd.com</t>
+  </si>
+  <si>
+    <t>shobha.karjagi@amd.com</t>
+  </si>
+  <si>
+    <t>vahan@amd.com</t>
+  </si>
+  <si>
+    <t>Vipul.tiwari@amd.com</t>
+  </si>
+  <si>
+    <t>Kandipan.gopal@socgen.com</t>
+  </si>
+  <si>
+    <t>mubeena.mehaboob@socgen.com</t>
   </si>
 </sst>
 </file>
@@ -18751,7 +18808,207 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19252,10 +19509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:C6217"/>
+  <dimension ref="A1:C6255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6217" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6226" sqref="B6226"/>
+    <sheetView tabSelected="1" topLeftCell="A6253" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6260" sqref="B6260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50473,106 +50730,300 @@
         <v>6217</v>
       </c>
     </row>
+    <row r="6218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6218" t="s">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="6219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6219" t="s">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="6220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6220" t="s">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="6221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6221" t="s">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="6222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6222" t="s">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="6223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6223" t="s">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="6224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6224" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="6225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6225" t="s">
+        <v>6221</v>
+      </c>
+    </row>
+    <row r="6226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6226" t="s">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="6227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6227" t="s">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="6228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6228" t="s">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="6229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6229" t="s">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="6230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6230" t="s">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="6231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6231" t="s">
+        <v>6223</v>
+      </c>
+    </row>
+    <row r="6232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6232" t="s">
+        <v>6224</v>
+      </c>
+    </row>
+    <row r="6233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6233" t="s">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="6234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6234" t="s">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="6235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6235" t="s">
+        <v>4786</v>
+      </c>
+    </row>
+    <row r="6236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6236" t="s">
+        <v>6226</v>
+      </c>
+    </row>
+    <row r="6237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6237" t="s">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="6238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6238" t="s">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="6239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6239" t="s">
+        <v>6228</v>
+      </c>
+    </row>
+    <row r="6240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6240" t="s">
+        <v>6229</v>
+      </c>
+    </row>
+    <row r="6241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6241" t="s">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="6242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6242" t="s">
+        <v>4768</v>
+      </c>
+    </row>
+    <row r="6243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6243" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="6244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6244" t="s">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="6245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6245" t="s">
+        <v>6231</v>
+      </c>
+    </row>
+    <row r="6246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6246" t="s">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="6247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6247" t="s">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="6248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6248" t="s">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="6249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6249" t="s">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="6250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6250" t="s">
+        <v>6232</v>
+      </c>
+    </row>
+    <row r="6251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6251" t="s">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="6252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6252" t="s">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="6253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6253" t="s">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="6254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6254" t="s">
+        <v>6235</v>
+      </c>
+    </row>
+    <row r="6255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6255" t="s">
+        <v>6236</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A6253" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}"/>
   <conditionalFormatting sqref="A1:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A5688 A5708:A5730 A5790:A5855 A5859:A1048576">
     <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A5688 A5708:A5730 A5790:A5855 A5859:A1048576">
+  <conditionalFormatting sqref="A1:A5730 A5790:A5855 A5859:A1048576">
     <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A5730 A5790:A5855 A5859:A1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+  <conditionalFormatting sqref="A5468:A5492 A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
     <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
     <cfRule type="duplicateValues" dxfId="7" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5468:A5492 A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5468:A5492 A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5468:A5492 A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5468:A5492 A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A239" r:id="rId1" xr:uid="{5825654D-468C-4EC2-A54B-BC3D3242EE16}"/>
-    <hyperlink ref="A478" r:id="rId2" xr:uid="{4B6D3FC0-9F09-4B22-A08E-F37D2B08E6AF}"/>
-    <hyperlink ref="A1283" r:id="rId3" xr:uid="{A3978156-E658-4D25-BFB6-42D123C35BB9}"/>
-    <hyperlink ref="A69" r:id="rId4" xr:uid="{7ACA5F15-BF6F-4E4B-AD53-DCCE6E223598}"/>
-    <hyperlink ref="A497" r:id="rId5" xr:uid="{68CE9F8F-86C4-409D-9B0F-669EC39F478F}"/>
-    <hyperlink ref="A156" r:id="rId6" xr:uid="{4D81D815-B8BA-4D0F-8A3B-5C035B28AD1C}"/>
-    <hyperlink ref="A506" r:id="rId7" xr:uid="{E45DD61B-26FC-42CD-9D4D-97E6B4055B7E}"/>
-    <hyperlink ref="A3668" r:id="rId8" xr:uid="{DFB081C8-AC8D-4EC1-99F6-50EF20493A61}"/>
-    <hyperlink ref="A3681" r:id="rId9" xr:uid="{8B7C7D49-7841-4C78-8298-FE54C61DA3F9}"/>
-    <hyperlink ref="A3498" r:id="rId10" xr:uid="{4C01E9F4-3FC8-4040-AD5E-F6F2446D4A66}"/>
-    <hyperlink ref="A3497" r:id="rId11" xr:uid="{082C214D-81D8-44D2-8487-03B5712CAC45}"/>
-    <hyperlink ref="A3499" r:id="rId12" xr:uid="{D4730765-1B2E-4E89-A8DE-29FD1A5D6C21}"/>
-    <hyperlink ref="A3500" r:id="rId13" xr:uid="{D0FDAFC1-96C3-45CB-AC85-F47EA60E9EBF}"/>
-    <hyperlink ref="A3501" r:id="rId14" xr:uid="{2A5536C7-E6BF-4A6F-AD45-F095183E44B6}"/>
-    <hyperlink ref="A3502" r:id="rId15" xr:uid="{829A3F71-7795-4FCF-A599-DDE9216CFAFA}"/>
-    <hyperlink ref="A3475" r:id="rId16" xr:uid="{5CD8B36C-3D83-401D-84D8-5E96CC251E87}"/>
-    <hyperlink ref="A3474" r:id="rId17" xr:uid="{292473D6-C819-4A5C-8557-9121BD6AB0D8}"/>
-    <hyperlink ref="A3684" r:id="rId18" xr:uid="{41FB7FBE-3725-4EDA-AA31-A5DB43E908F1}"/>
-    <hyperlink ref="A3688" r:id="rId19" xr:uid="{41213A1A-F81C-47D4-A376-D1EAD50BBB07}"/>
-    <hyperlink ref="A3687" r:id="rId20" xr:uid="{3839DB3F-C13D-4A9B-A4AD-42789C809C5D}"/>
-    <hyperlink ref="A3733" r:id="rId21" xr:uid="{EA46BE9F-E700-4516-9421-4A9CB0A51BD3}"/>
-    <hyperlink ref="A3492" r:id="rId22" xr:uid="{77331289-816C-41F7-8CEE-C7A84AEAB0D6}"/>
+    <hyperlink ref="A5949" r:id="rId1" xr:uid="{8681EBBA-BDA4-4DD5-A2FB-F1C90993B2A4}"/>
+    <hyperlink ref="A5945" r:id="rId2" xr:uid="{412DDA07-18C8-4DD7-9613-FAFF500D4CB5}"/>
+    <hyperlink ref="A5926" r:id="rId3" xr:uid="{55CA97C9-5889-4F70-96B2-FB144224C4ED}"/>
+    <hyperlink ref="A5925" r:id="rId4" xr:uid="{099C0C27-4E8D-449B-A779-A487E0430ACC}"/>
+    <hyperlink ref="A5780" r:id="rId5" xr:uid="{27B48887-C0F7-48A8-8B63-55B67D9F7450}"/>
+    <hyperlink ref="A5779" r:id="rId6" xr:uid="{98B712EE-8666-45F4-B74C-5BCF860E749A}"/>
+    <hyperlink ref="A5686" r:id="rId7" xr:uid="{2BC9655B-BE3F-496A-B59B-D8C1438E4197}"/>
+    <hyperlink ref="A5688" r:id="rId8" xr:uid="{7B7F57A8-4B56-4A56-BC38-34AE7BC853CF}"/>
+    <hyperlink ref="A5685" r:id="rId9" xr:uid="{09110F02-EC7F-40FB-A45E-B4BE10DA3269}"/>
+    <hyperlink ref="A5687" r:id="rId10" xr:uid="{FF17001E-1615-4A2D-AF18-E31343AFC48A}"/>
+    <hyperlink ref="A5674" r:id="rId11" xr:uid="{24232EB5-6666-4DF3-B3BA-C359F99538C8}"/>
+    <hyperlink ref="A5658" r:id="rId12" xr:uid="{68D2BC0C-CF43-4618-B4DB-0AF13DC631E8}"/>
+    <hyperlink ref="A5663" r:id="rId13" xr:uid="{411CA869-E24E-4ECA-9B5A-8ACE009C3CC9}"/>
+    <hyperlink ref="A2144" r:id="rId14" xr:uid="{E71AEE6F-BDCA-408B-A2B0-A77CC66D1CFC}"/>
+    <hyperlink ref="A5615" r:id="rId15" xr:uid="{2E274991-8B55-4F06-B04A-C993E4658D54}"/>
+    <hyperlink ref="A5614" r:id="rId16" xr:uid="{64780E9F-5D1D-4E56-AA14-88BB7D6A5BA1}"/>
+    <hyperlink ref="A3848" r:id="rId17" xr:uid="{83469175-B13B-4C0E-9A97-B79F628227E8}"/>
+    <hyperlink ref="A3849" r:id="rId18" xr:uid="{E7743C6A-9C6E-4E73-B866-D9A83320B439}"/>
+    <hyperlink ref="A5595" r:id="rId19" xr:uid="{28BD2FC6-4B6D-4E2C-8262-E8BFEB46AE45}"/>
+    <hyperlink ref="A5488" r:id="rId20" xr:uid="{2DB45347-1050-48DD-B911-A65DA926343D}"/>
+    <hyperlink ref="A5456" r:id="rId21" xr:uid="{78ADDC28-5358-4A00-93D9-BBB59C635549}"/>
+    <hyperlink ref="A5445" r:id="rId22" xr:uid="{065D74C5-2EE9-4382-B98D-4F1A152DC369}"/>
     <hyperlink ref="A4050" r:id="rId23" xr:uid="{DE77D929-5804-4B21-9901-E74AE4EBC0CD}"/>
-    <hyperlink ref="A5445" r:id="rId24" xr:uid="{065D74C5-2EE9-4382-B98D-4F1A152DC369}"/>
-    <hyperlink ref="A5456" r:id="rId25" xr:uid="{78ADDC28-5358-4A00-93D9-BBB59C635549}"/>
-    <hyperlink ref="A5488" r:id="rId26" xr:uid="{2DB45347-1050-48DD-B911-A65DA926343D}"/>
-    <hyperlink ref="A5595" r:id="rId27" xr:uid="{28BD2FC6-4B6D-4E2C-8262-E8BFEB46AE45}"/>
-    <hyperlink ref="A3849" r:id="rId28" xr:uid="{E7743C6A-9C6E-4E73-B866-D9A83320B439}"/>
-    <hyperlink ref="A3848" r:id="rId29" xr:uid="{83469175-B13B-4C0E-9A97-B79F628227E8}"/>
-    <hyperlink ref="A5614" r:id="rId30" xr:uid="{64780E9F-5D1D-4E56-AA14-88BB7D6A5BA1}"/>
-    <hyperlink ref="A5615" r:id="rId31" xr:uid="{2E274991-8B55-4F06-B04A-C993E4658D54}"/>
-    <hyperlink ref="A2144" r:id="rId32" xr:uid="{E71AEE6F-BDCA-408B-A2B0-A77CC66D1CFC}"/>
-    <hyperlink ref="A5663" r:id="rId33" xr:uid="{411CA869-E24E-4ECA-9B5A-8ACE009C3CC9}"/>
-    <hyperlink ref="A5658" r:id="rId34" xr:uid="{68D2BC0C-CF43-4618-B4DB-0AF13DC631E8}"/>
-    <hyperlink ref="A5674" r:id="rId35" xr:uid="{24232EB5-6666-4DF3-B3BA-C359F99538C8}"/>
-    <hyperlink ref="A5687" r:id="rId36" xr:uid="{FF17001E-1615-4A2D-AF18-E31343AFC48A}"/>
-    <hyperlink ref="A5685" r:id="rId37" xr:uid="{09110F02-EC7F-40FB-A45E-B4BE10DA3269}"/>
-    <hyperlink ref="A5688" r:id="rId38" xr:uid="{7B7F57A8-4B56-4A56-BC38-34AE7BC853CF}"/>
-    <hyperlink ref="A5686" r:id="rId39" xr:uid="{2BC9655B-BE3F-496A-B59B-D8C1438E4197}"/>
-    <hyperlink ref="A5779" r:id="rId40" xr:uid="{98B712EE-8666-45F4-B74C-5BCF860E749A}"/>
-    <hyperlink ref="A5780" r:id="rId41" xr:uid="{27B48887-C0F7-48A8-8B63-55B67D9F7450}"/>
-    <hyperlink ref="A5925" r:id="rId42" xr:uid="{099C0C27-4E8D-449B-A779-A487E0430ACC}"/>
-    <hyperlink ref="A5926" r:id="rId43" xr:uid="{55CA97C9-5889-4F70-96B2-FB144224C4ED}"/>
-    <hyperlink ref="A5945" r:id="rId44" xr:uid="{412DDA07-18C8-4DD7-9613-FAFF500D4CB5}"/>
-    <hyperlink ref="A5949" r:id="rId45" xr:uid="{8681EBBA-BDA4-4DD5-A2FB-F1C90993B2A4}"/>
+    <hyperlink ref="A3492" r:id="rId24" xr:uid="{77331289-816C-41F7-8CEE-C7A84AEAB0D6}"/>
+    <hyperlink ref="A3733" r:id="rId25" xr:uid="{EA46BE9F-E700-4516-9421-4A9CB0A51BD3}"/>
+    <hyperlink ref="A3687" r:id="rId26" xr:uid="{3839DB3F-C13D-4A9B-A4AD-42789C809C5D}"/>
+    <hyperlink ref="A3688" r:id="rId27" xr:uid="{41213A1A-F81C-47D4-A376-D1EAD50BBB07}"/>
+    <hyperlink ref="A3684" r:id="rId28" xr:uid="{41FB7FBE-3725-4EDA-AA31-A5DB43E908F1}"/>
+    <hyperlink ref="A3474" r:id="rId29" xr:uid="{292473D6-C819-4A5C-8557-9121BD6AB0D8}"/>
+    <hyperlink ref="A3475" r:id="rId30" xr:uid="{5CD8B36C-3D83-401D-84D8-5E96CC251E87}"/>
+    <hyperlink ref="A3502" r:id="rId31" xr:uid="{829A3F71-7795-4FCF-A599-DDE9216CFAFA}"/>
+    <hyperlink ref="A3501" r:id="rId32" xr:uid="{2A5536C7-E6BF-4A6F-AD45-F095183E44B6}"/>
+    <hyperlink ref="A3500" r:id="rId33" xr:uid="{D0FDAFC1-96C3-45CB-AC85-F47EA60E9EBF}"/>
+    <hyperlink ref="A3499" r:id="rId34" xr:uid="{D4730765-1B2E-4E89-A8DE-29FD1A5D6C21}"/>
+    <hyperlink ref="A3497" r:id="rId35" xr:uid="{082C214D-81D8-44D2-8487-03B5712CAC45}"/>
+    <hyperlink ref="A3498" r:id="rId36" xr:uid="{4C01E9F4-3FC8-4040-AD5E-F6F2446D4A66}"/>
+    <hyperlink ref="A3681" r:id="rId37" xr:uid="{8B7C7D49-7841-4C78-8298-FE54C61DA3F9}"/>
+    <hyperlink ref="A3668" r:id="rId38" xr:uid="{DFB081C8-AC8D-4EC1-99F6-50EF20493A61}"/>
+    <hyperlink ref="A506" r:id="rId39" xr:uid="{E45DD61B-26FC-42CD-9D4D-97E6B4055B7E}"/>
+    <hyperlink ref="A156" r:id="rId40" xr:uid="{4D81D815-B8BA-4D0F-8A3B-5C035B28AD1C}"/>
+    <hyperlink ref="A497" r:id="rId41" xr:uid="{68CE9F8F-86C4-409D-9B0F-669EC39F478F}"/>
+    <hyperlink ref="A69" r:id="rId42" xr:uid="{7ACA5F15-BF6F-4E4B-AD53-DCCE6E223598}"/>
+    <hyperlink ref="A1283" r:id="rId43" xr:uid="{A3978156-E658-4D25-BFB6-42D123C35BB9}"/>
+    <hyperlink ref="A478" r:id="rId44" xr:uid="{4B6D3FC0-9F09-4B22-A08E-F37D2B08E6AF}"/>
+    <hyperlink ref="A239" r:id="rId45" xr:uid="{5825654D-468C-4EC2-A54B-BC3D3242EE16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/job-hunting-emails.xlsx
+++ b/job-hunting-emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695C5B71-F5DE-448F-93F9-3A2EADA1FC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEE8DC7-9370-431C-8644-82E37926B7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A5CFD7E-A949-45E8-80C7-21B41F6C70E4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6527" uniqueCount="6433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6743" uniqueCount="6642">
   <si>
     <t>prerith.s@impetus.com</t>
   </si>
@@ -19337,6 +19337,633 @@
   </si>
   <si>
     <t>harishj@tccomputerservices.com</t>
+  </si>
+  <si>
+    <t>peprathima@deloitte.com</t>
+  </si>
+  <si>
+    <t>mamata.k@acldigital.com</t>
+  </si>
+  <si>
+    <t>BBBStores@brandhouseco.com</t>
+  </si>
+  <si>
+    <t>akritiv@kpit.com</t>
+  </si>
+  <si>
+    <t>jayaprakash.konapur@capco.com</t>
+  </si>
+  <si>
+    <t>suman.ghanty@capco.com</t>
+  </si>
+  <si>
+    <t>Shruti.singh@capco.com</t>
+  </si>
+  <si>
+    <t>priyanka.panda@capco.com</t>
+  </si>
+  <si>
+    <t>geeta.kumari@capco.com</t>
+  </si>
+  <si>
+    <t>g.bindu@capco.com</t>
+  </si>
+  <si>
+    <t>nancy.sylvia@capco.com</t>
+  </si>
+  <si>
+    <t>lakshman.tunk@capco.com</t>
+  </si>
+  <si>
+    <t>santhosh.p@capco.com</t>
+  </si>
+  <si>
+    <t>Sabrish.a@capco.com</t>
+  </si>
+  <si>
+    <t>Himanshu.jain14@capco.com</t>
+  </si>
+  <si>
+    <t>nikhita.potfode@capco.com</t>
+  </si>
+  <si>
+    <t>monica.verma@capco.com</t>
+  </si>
+  <si>
+    <t>abhishek.sinha@capco.com</t>
+  </si>
+  <si>
+    <t>pronoy.roy@capco.com</t>
+  </si>
+  <si>
+    <t>Pasuk.wongviriyamaytee@capco.com</t>
+  </si>
+  <si>
+    <t>amitabh.malhotra@capco.com</t>
+  </si>
+  <si>
+    <t>pranay.dalvi@capco.com</t>
+  </si>
+  <si>
+    <t>avinash.kumar@capco.com</t>
+  </si>
+  <si>
+    <t>elaine.figueiredo@capco.com</t>
+  </si>
+  <si>
+    <t>saroja.khanal@capco.com</t>
+  </si>
+  <si>
+    <t>ravishankar.dey@capco.com</t>
+  </si>
+  <si>
+    <t>sumit.sharma@capco.com</t>
+  </si>
+  <si>
+    <t>kameswarareddy.yennapoosa@capco.com</t>
+  </si>
+  <si>
+    <t>sushree.rout@capco.com</t>
+  </si>
+  <si>
+    <t>chirul.jha@capco.com</t>
+  </si>
+  <si>
+    <t>ravi.preyadarshi@capco.com</t>
+  </si>
+  <si>
+    <t>neha.garg@capco.com</t>
+  </si>
+  <si>
+    <t>abhishek.pal@capco.com</t>
+  </si>
+  <si>
+    <t>Deepthi.bhamidimarri@Capco.com</t>
+  </si>
+  <si>
+    <t>bhushan.dhoke@capco.com</t>
+  </si>
+  <si>
+    <t>vivekkumar.jha@capco.com</t>
+  </si>
+  <si>
+    <t>mitali.sharma@capco.com</t>
+  </si>
+  <si>
+    <t>nicole.lavelle@capco.com</t>
+  </si>
+  <si>
+    <t>bishnu.sharma@blackbuck.com</t>
+  </si>
+  <si>
+    <t>Ghada.megahed@alarabia-group.com</t>
+  </si>
+  <si>
+    <t>Shailly.kumawat@capco.com</t>
+  </si>
+  <si>
+    <t>renita.dsouza@capco.com</t>
+  </si>
+  <si>
+    <t>grishmaravindrar@valuelabs.com</t>
+  </si>
+  <si>
+    <t>garimapant.hr763@webkul.in</t>
+  </si>
+  <si>
+    <t>manish@thecareernext.in</t>
+  </si>
+  <si>
+    <t>nidhi.rai@capco.com</t>
+  </si>
+  <si>
+    <t>priyanka.patnaik@capco.com</t>
+  </si>
+  <si>
+    <t>bhushan.shah@wissen.com</t>
+  </si>
+  <si>
+    <t>pavan.r@siatechsol.com</t>
+  </si>
+  <si>
+    <t>anjali@eliteplacementconsultants.com</t>
+  </si>
+  <si>
+    <t>careers@mind-stream.net</t>
+  </si>
+  <si>
+    <t>srikanth.c@saranshinc.com</t>
+  </si>
+  <si>
+    <t>Gaganshrivastava@techstalwarts.com</t>
+  </si>
+  <si>
+    <t>sumi@dicetekuae.com</t>
+  </si>
+  <si>
+    <t>eswar.p@twsol.com</t>
+  </si>
+  <si>
+    <t>nidhi.verma@cognizant.com</t>
+  </si>
+  <si>
+    <t>bhogal@google.com</t>
+  </si>
+  <si>
+    <t>amazonhiringnow@outlook.com</t>
+  </si>
+  <si>
+    <t>mishasinghal@google.com</t>
+  </si>
+  <si>
+    <t>iliashumailov@google.com</t>
+  </si>
+  <si>
+    <t>charanguru@google.com</t>
+  </si>
+  <si>
+    <t>GoogleCareers@careersgooglegroup.zohodesk.com</t>
+  </si>
+  <si>
+    <t>googlehiringdes.k@outlook.com</t>
+  </si>
+  <si>
+    <t>doconn@google.com</t>
+  </si>
+  <si>
+    <t>parramartin@google.com</t>
+  </si>
+  <si>
+    <t>siddharth.chandel@hcltech.com</t>
+  </si>
+  <si>
+    <t>sichandel@google.com</t>
+  </si>
+  <si>
+    <t>awantikajain@google.com</t>
+  </si>
+  <si>
+    <t>crespojimenez@google.com</t>
+  </si>
+  <si>
+    <t>samruddhi.deshmukh@google.com</t>
+  </si>
+  <si>
+    <t>mendozaherrera@google.com</t>
+  </si>
+  <si>
+    <t>braghiroli@google.com</t>
+  </si>
+  <si>
+    <t>mraquel@google.com</t>
+  </si>
+  <si>
+    <t>kauravn@google.com</t>
+  </si>
+  <si>
+    <t>falanga@google.com</t>
+  </si>
+  <si>
+    <t>crazydonkey@google.com</t>
+  </si>
+  <si>
+    <t>Kuveluno@google.com</t>
+  </si>
+  <si>
+    <t>abdelsalamy@google.com</t>
+  </si>
+  <si>
+    <t>sasha@jobcrystal.com</t>
+  </si>
+  <si>
+    <t>Robertsmeaney@google.com</t>
+  </si>
+  <si>
+    <t>kmetzger@google.com</t>
+  </si>
+  <si>
+    <t>Heather.Samuel@BNY.com</t>
+  </si>
+  <si>
+    <t>shantam.jaiswal@db.com</t>
+  </si>
+  <si>
+    <t>ezhil.castro@db.com</t>
+  </si>
+  <si>
+    <t>abhinav-a.ashok@db.com</t>
+  </si>
+  <si>
+    <t>sakshi-b.gupta@db.com</t>
+  </si>
+  <si>
+    <t>benjamin.saenger@db.com</t>
+  </si>
+  <si>
+    <t>chandana.a@zoomcar.com</t>
+  </si>
+  <si>
+    <t>ravi.jain@zoomcar.com</t>
+  </si>
+  <si>
+    <t>recruitment@zoomcar.com</t>
+  </si>
+  <si>
+    <t>srushti.pathruth@zoomcar.com</t>
+  </si>
+  <si>
+    <t>pragati.biswas@lenskart.com</t>
+  </si>
+  <si>
+    <t>asmita.bhatt@lenskart.com</t>
+  </si>
+  <si>
+    <t>kripanjali.sarma@lenskart.com</t>
+  </si>
+  <si>
+    <t>anugya.nagar@lenskart.com</t>
+  </si>
+  <si>
+    <t>priyanka.agarwal@lenskart.com</t>
+  </si>
+  <si>
+    <t>Jatin.yadav@lenskart.com</t>
+  </si>
+  <si>
+    <t>apurva.bhaduri@lenskart.com</t>
+  </si>
+  <si>
+    <t>doli.kumari@lenskart.com</t>
+  </si>
+  <si>
+    <t>shekhar.rajawat@lenskart.com</t>
+  </si>
+  <si>
+    <t>theja.s@lenskartacademy.com</t>
+  </si>
+  <si>
+    <t>deepakkumar.arya@lenskart.com</t>
+  </si>
+  <si>
+    <t>lawrence.dsouza@lenskartacademy.com</t>
+  </si>
+  <si>
+    <t>anand.jha@lenskart.com</t>
+  </si>
+  <si>
+    <t>swapnali.samel@lenskartacademy.com</t>
+  </si>
+  <si>
+    <t>sheikh.rashid@lenskart.com</t>
+  </si>
+  <si>
+    <t>pranshu.bhatt@lenskart.com</t>
+  </si>
+  <si>
+    <t>mohd.sabir2@lenskart.com</t>
+  </si>
+  <si>
+    <t>khatik.rahul@lenskart.com</t>
+  </si>
+  <si>
+    <t>vishal.sharma1@lenskartacademy.com</t>
+  </si>
+  <si>
+    <t>ayush.gupta1@lenskart.in</t>
+  </si>
+  <si>
+    <t>vidya.lakshmi@dealskart.in</t>
+  </si>
+  <si>
+    <t>anjali.parekh@lenskart.com</t>
+  </si>
+  <si>
+    <t>amar.sharma@lenskart.in</t>
+  </si>
+  <si>
+    <t>narendiran.v@dealskart.in</t>
+  </si>
+  <si>
+    <t>nilanjon.pal@lenskart.com</t>
+  </si>
+  <si>
+    <t>samaksh.panwar@lenskart.com</t>
+  </si>
+  <si>
+    <t>aditi.kumari1@spinny.com</t>
+  </si>
+  <si>
+    <t>harman.kaur@spinny.com</t>
+  </si>
+  <si>
+    <t>anshika.tonk@spinny.com</t>
+  </si>
+  <si>
+    <t>akansha.tripathi@spinny.com</t>
+  </si>
+  <si>
+    <t>Rohan.aggarwal@spinny.com</t>
+  </si>
+  <si>
+    <t>abhijith.es@spinny.com</t>
+  </si>
+  <si>
+    <t>poonam.prakash@spinny.com</t>
+  </si>
+  <si>
+    <t>ritesh.kumar@spinny.com</t>
+  </si>
+  <si>
+    <t>patchikura.santosh@spinny.com</t>
+  </si>
+  <si>
+    <t>pranam.bajpai@spinny.com</t>
+  </si>
+  <si>
+    <t>pritam.kumar1@spinny.com</t>
+  </si>
+  <si>
+    <t>abhishek.kothari@spinny.com</t>
+  </si>
+  <si>
+    <t>kapaganti.guptha@spinny.com</t>
+  </si>
+  <si>
+    <t>neha.tiwari@spinny.com</t>
+  </si>
+  <si>
+    <t>chander.mohan@spinny.com</t>
+  </si>
+  <si>
+    <t>navisha.baid@spinny.com</t>
+  </si>
+  <si>
+    <t>careers@spinny.com</t>
+  </si>
+  <si>
+    <t>rahul.badsiwal@spinny.com</t>
+  </si>
+  <si>
+    <t>vijender.singh@spinny.com</t>
+  </si>
+  <si>
+    <t>deepanshu.gupta@spinny.com</t>
+  </si>
+  <si>
+    <t>vaishali.rathi1@spinny.com</t>
+  </si>
+  <si>
+    <t>kavya.kohli@spinny.com</t>
+  </si>
+  <si>
+    <t>akancha.priya@spinny.com</t>
+  </si>
+  <si>
+    <t>techhr@spinny.com</t>
+  </si>
+  <si>
+    <t>mehak.garg@spinny.com</t>
+  </si>
+  <si>
+    <t>ashi.agarwal@spinny.com</t>
+  </si>
+  <si>
+    <t>shilpa.chhabra@spinny.com</t>
+  </si>
+  <si>
+    <t>nidhi.s@shiprocket.com</t>
+  </si>
+  <si>
+    <t>shradha.sharma@shiprocket.com</t>
+  </si>
+  <si>
+    <t>anku.kumari@shiprocket.com</t>
+  </si>
+  <si>
+    <t>hr@shiprocket.com</t>
+  </si>
+  <si>
+    <t>umesh.chandra@shiprocket.com</t>
+  </si>
+  <si>
+    <t>pawan.dobhal@shiprocket.com</t>
+  </si>
+  <si>
+    <t>atul.mehta@shiprocket.com</t>
+  </si>
+  <si>
+    <t>jisha.bawa@shiprocket.com</t>
+  </si>
+  <si>
+    <t>Nandini.tiwari@shiprocket.com</t>
+  </si>
+  <si>
+    <t>shweta.yadav@shiprocket.com</t>
+  </si>
+  <si>
+    <t>jitender.sharma@shiprocket.com</t>
+  </si>
+  <si>
+    <t>praful.poddar@shiprocket.com</t>
+  </si>
+  <si>
+    <t>ravi.barnwal@shiprocket.com</t>
+  </si>
+  <si>
+    <t>abhinav.nigam@shiprocket.com</t>
+  </si>
+  <si>
+    <t>animesh.pandey@shiprocket.com</t>
+  </si>
+  <si>
+    <t>arnav.jain@shiprocket.com</t>
+  </si>
+  <si>
+    <t>Suraj.gupta@shiprocket.com</t>
+  </si>
+  <si>
+    <t>bhupendra.rawat@shiprocket.com</t>
+  </si>
+  <si>
+    <t>Umakant.gaur@shiprocket.com</t>
+  </si>
+  <si>
+    <t>aditya.gupta@shiprocket.com</t>
+  </si>
+  <si>
+    <t>ajit.verma@shiprocket.com</t>
+  </si>
+  <si>
+    <t>v_ramaswamy@shiprocket.com</t>
+  </si>
+  <si>
+    <t>sahil.agrawal1@pickrr.com</t>
+  </si>
+  <si>
+    <t>anshika.gupta@shiprocket.com</t>
+  </si>
+  <si>
+    <t>nikhilesh.bishoyee@kreditbee.in</t>
+  </si>
+  <si>
+    <t>Aayush.kumar@Kreditbee.in</t>
+  </si>
+  <si>
+    <t>Deekshitha.s@kreditbee.in</t>
+  </si>
+  <si>
+    <t>DM-nalina.k@kreditbee.in</t>
+  </si>
+  <si>
+    <t>sanchita.surbhi@krazybee.com</t>
+  </si>
+  <si>
+    <t>p.preetham@krazybee.com</t>
+  </si>
+  <si>
+    <t>kalpataru.panda@krazybee.com</t>
+  </si>
+  <si>
+    <t>Siddharthkumar.sahu@krazybee.com</t>
+  </si>
+  <si>
+    <t>deekshitha.s@Kreditbee.in</t>
+  </si>
+  <si>
+    <t>sales.hiring@whatfix.com</t>
+  </si>
+  <si>
+    <t>siva.eethamukkala@whatfix.com</t>
+  </si>
+  <si>
+    <t>adlizilikram.ibrahim@sony.com</t>
+  </si>
+  <si>
+    <t>solehah.zainuddin@sony.com</t>
+  </si>
+  <si>
+    <t>muhdikhwan.shariffudin@sony.com</t>
+  </si>
+  <si>
+    <t>VD.Bijoy.Supperwell@sony.com</t>
+  </si>
+  <si>
+    <t>adinda.p@darwinbox.com</t>
+  </si>
+  <si>
+    <t>careers@darwinbox.com</t>
+  </si>
+  <si>
+    <t>sandeepj@sprinto.com</t>
+  </si>
+  <si>
+    <t>zoheb.i@sprinto.com</t>
+  </si>
+  <si>
+    <t>daakshis@sprinto.com</t>
+  </si>
+  <si>
+    <t>sriyas@sprinto.com</t>
+  </si>
+  <si>
+    <t>himanshikaj@sprinto.com</t>
+  </si>
+  <si>
+    <t>aarthi@sprinto.com</t>
+  </si>
+  <si>
+    <t>c_rumman.reza@innovaccer.com</t>
+  </si>
+  <si>
+    <t>a_kritika.saigal@innovaccer.com</t>
+  </si>
+  <si>
+    <t>ankita.agarwal@innovaccer.com</t>
+  </si>
+  <si>
+    <t>jyoti.kaushik@innovaccer.com</t>
+  </si>
+  <si>
+    <t>c_rahul.singh@innovaccer.com</t>
+  </si>
+  <si>
+    <t>shruti.sinha1@rategain.com</t>
+  </si>
+  <si>
+    <t>karnika.daniel@rategain.com</t>
+  </si>
+  <si>
+    <t>francis.sirus@rategain.com</t>
+  </si>
+  <si>
+    <t>manpreet.anand@rategain.com</t>
+  </si>
+  <si>
+    <t>prateek.panjwani@rategain.com</t>
+  </si>
+  <si>
+    <t>ruchika.sharma@rategain.com</t>
+  </si>
+  <si>
+    <t>ta@rategain.com</t>
+  </si>
+  <si>
+    <t>sahil.sharma@rategain.com</t>
+  </si>
+  <si>
+    <t>roshni.jad@rategain.com</t>
+  </si>
+  <si>
+    <t>khubtarin.ahmed2@rategain.com</t>
+  </si>
+  <si>
+    <t>anjali.sharma1@rategain.com</t>
+  </si>
+  <si>
+    <t>vyas.ahuja@rategain.com</t>
+  </si>
+  <si>
+    <t>abha.chhabra@rategain.com</t>
   </si>
 </sst>
 </file>
@@ -19382,12 +20009,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -19403,11 +20036,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -19914,15 +20549,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE582D-56BF-4E9A-BE40-352846C8501D}">
-  <dimension ref="A1:C6426"/>
+  <dimension ref="A1:C6642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6418" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6426" sqref="B6426"/>
+    <sheetView tabSelected="1" topLeftCell="A6635" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6644" sqref="B6644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="61.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="39.5546875" customWidth="1"/>
     <col min="3" max="3" width="43.109375" customWidth="1"/>
   </cols>
@@ -21292,8 +21927,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" s="2" t="s">
+    <row r="250" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="4" t="s">
         <v>248</v>
       </c>
     </row>
@@ -22542,8 +23177,8 @@
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A500" s="2" t="s">
+    <row r="500" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A500" s="4" t="s">
         <v>498</v>
       </c>
     </row>
@@ -23792,8 +24427,8 @@
         <v>742</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A750" s="2" t="s">
+    <row r="750" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A750" s="4" t="s">
         <v>743</v>
       </c>
     </row>
@@ -26293,7 +26928,7 @@
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1250" s="2" t="s">
+      <c r="A1250" s="4" t="s">
         <v>1239</v>
       </c>
     </row>
@@ -52183,58 +52818,1138 @@
         <v>6432</v>
       </c>
     </row>
+    <row r="6427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6427" s="2" t="s">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="6428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6428" s="2" t="s">
+        <v>6434</v>
+      </c>
+    </row>
+    <row r="6429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6429" s="2" t="s">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="6430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6430" s="2" t="s">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="6431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6431" s="2" t="s">
+        <v>6437</v>
+      </c>
+    </row>
+    <row r="6432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6432" s="2" t="s">
+        <v>6438</v>
+      </c>
+    </row>
+    <row r="6433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6433" s="2" t="s">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="6434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6434" s="2" t="s">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="6435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6435" s="2" t="s">
+        <v>6441</v>
+      </c>
+    </row>
+    <row r="6436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6436" s="2" t="s">
+        <v>6442</v>
+      </c>
+    </row>
+    <row r="6437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6437" s="2" t="s">
+        <v>6443</v>
+      </c>
+    </row>
+    <row r="6438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6438" s="2" t="s">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="6439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6439" s="2" t="s">
+        <v>6445</v>
+      </c>
+    </row>
+    <row r="6440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6440" s="2" t="s">
+        <v>6446</v>
+      </c>
+    </row>
+    <row r="6441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6441" s="2" t="s">
+        <v>6447</v>
+      </c>
+    </row>
+    <row r="6442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6442" s="2" t="s">
+        <v>6448</v>
+      </c>
+    </row>
+    <row r="6443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6443" s="2" t="s">
+        <v>6449</v>
+      </c>
+    </row>
+    <row r="6444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6444" s="2" t="s">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="6445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6445" s="2" t="s">
+        <v>6451</v>
+      </c>
+    </row>
+    <row r="6446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6446" s="2" t="s">
+        <v>6452</v>
+      </c>
+    </row>
+    <row r="6447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6447" s="2" t="s">
+        <v>6453</v>
+      </c>
+    </row>
+    <row r="6448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6448" s="2" t="s">
+        <v>6454</v>
+      </c>
+    </row>
+    <row r="6449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6449" s="2" t="s">
+        <v>6455</v>
+      </c>
+    </row>
+    <row r="6450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6450" s="2" t="s">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="6451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6451" s="2" t="s">
+        <v>6457</v>
+      </c>
+    </row>
+    <row r="6452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6452" s="2" t="s">
+        <v>6458</v>
+      </c>
+    </row>
+    <row r="6453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6453" s="2" t="s">
+        <v>6459</v>
+      </c>
+    </row>
+    <row r="6454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6454" s="2" t="s">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="6455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6455" s="2" t="s">
+        <v>6461</v>
+      </c>
+    </row>
+    <row r="6456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6456" s="2" t="s">
+        <v>6462</v>
+      </c>
+    </row>
+    <row r="6457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6457" s="2" t="s">
+        <v>6463</v>
+      </c>
+    </row>
+    <row r="6458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6458" s="2" t="s">
+        <v>6464</v>
+      </c>
+    </row>
+    <row r="6459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6459" s="2" t="s">
+        <v>6465</v>
+      </c>
+    </row>
+    <row r="6460" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6460" s="2" t="s">
+        <v>6466</v>
+      </c>
+    </row>
+    <row r="6461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6461" s="2" t="s">
+        <v>6467</v>
+      </c>
+    </row>
+    <row r="6462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6462" s="2" t="s">
+        <v>6468</v>
+      </c>
+    </row>
+    <row r="6463" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6463" s="2" t="s">
+        <v>6469</v>
+      </c>
+    </row>
+    <row r="6464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6464" s="2" t="s">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="6465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6465" s="2" t="s">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="6466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6466" s="2" t="s">
+        <v>6472</v>
+      </c>
+    </row>
+    <row r="6467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6467" s="2" t="s">
+        <v>6473</v>
+      </c>
+    </row>
+    <row r="6468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6468" s="2" t="s">
+        <v>6474</v>
+      </c>
+    </row>
+    <row r="6469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6469" s="2" t="s">
+        <v>6475</v>
+      </c>
+    </row>
+    <row r="6470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6470" s="2" t="s">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="6471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6471" s="2" t="s">
+        <v>6477</v>
+      </c>
+    </row>
+    <row r="6472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6472" s="2" t="s">
+        <v>6478</v>
+      </c>
+    </row>
+    <row r="6473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6473" s="2" t="s">
+        <v>6479</v>
+      </c>
+    </row>
+    <row r="6474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6474" s="2" t="s">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="6475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6475" s="2" t="s">
+        <v>6481</v>
+      </c>
+    </row>
+    <row r="6476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6476" s="2" t="s">
+        <v>6482</v>
+      </c>
+    </row>
+    <row r="6477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6477" s="2" t="s">
+        <v>6483</v>
+      </c>
+    </row>
+    <row r="6478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6478" s="2" t="s">
+        <v>6484</v>
+      </c>
+    </row>
+    <row r="6479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6479" s="2" t="s">
+        <v>6485</v>
+      </c>
+    </row>
+    <row r="6480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6480" s="2" t="s">
+        <v>6486</v>
+      </c>
+    </row>
+    <row r="6481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6481" s="2" t="s">
+        <v>6487</v>
+      </c>
+    </row>
+    <row r="6482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6482" s="2" t="s">
+        <v>6488</v>
+      </c>
+    </row>
+    <row r="6483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6483" s="2" t="s">
+        <v>6489</v>
+      </c>
+    </row>
+    <row r="6484" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6484" s="2" t="s">
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="6485" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6485" s="2" t="s">
+        <v>6491</v>
+      </c>
+    </row>
+    <row r="6486" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6486" s="2" t="s">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="6487" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6487" s="2" t="s">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="6488" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6488" s="2" t="s">
+        <v>6494</v>
+      </c>
+    </row>
+    <row r="6489" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6489" s="2" t="s">
+        <v>6495</v>
+      </c>
+    </row>
+    <row r="6490" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6490" s="2" t="s">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="6491" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6491" s="2" t="s">
+        <v>6497</v>
+      </c>
+    </row>
+    <row r="6492" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6492" s="2" t="s">
+        <v>6498</v>
+      </c>
+    </row>
+    <row r="6493" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6493" s="2" t="s">
+        <v>6499</v>
+      </c>
+    </row>
+    <row r="6494" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6494" s="2" t="s">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="6495" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6495" s="2" t="s">
+        <v>6501</v>
+      </c>
+    </row>
+    <row r="6496" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6496" s="2" t="s">
+        <v>6502</v>
+      </c>
+    </row>
+    <row r="6497" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6497" s="2" t="s">
+        <v>6503</v>
+      </c>
+    </row>
+    <row r="6498" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6498" s="2" t="s">
+        <v>6504</v>
+      </c>
+    </row>
+    <row r="6499" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6499" s="2" t="s">
+        <v>6505</v>
+      </c>
+    </row>
+    <row r="6500" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6500" s="2" t="s">
+        <v>6506</v>
+      </c>
+    </row>
+    <row r="6501" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6501" s="2" t="s">
+        <v>6507</v>
+      </c>
+    </row>
+    <row r="6502" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6502" s="2" t="s">
+        <v>6508</v>
+      </c>
+    </row>
+    <row r="6503" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6503" s="2" t="s">
+        <v>6509</v>
+      </c>
+    </row>
+    <row r="6504" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6504" s="2" t="s">
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="6505" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6505" s="2" t="s">
+        <v>6511</v>
+      </c>
+    </row>
+    <row r="6506" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6506" s="2" t="s">
+        <v>6512</v>
+      </c>
+    </row>
+    <row r="6507" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6507" s="2" t="s">
+        <v>6513</v>
+      </c>
+    </row>
+    <row r="6508" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6508" s="2" t="s">
+        <v>6514</v>
+      </c>
+    </row>
+    <row r="6509" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6509" s="2" t="s">
+        <v>6515</v>
+      </c>
+    </row>
+    <row r="6510" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6510" s="2" t="s">
+        <v>6516</v>
+      </c>
+    </row>
+    <row r="6511" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6511" s="2" t="s">
+        <v>6517</v>
+      </c>
+    </row>
+    <row r="6512" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6512" s="2" t="s">
+        <v>6518</v>
+      </c>
+    </row>
+    <row r="6513" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6513" s="2" t="s">
+        <v>6519</v>
+      </c>
+    </row>
+    <row r="6514" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6514" s="2" t="s">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="6515" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6515" s="2" t="s">
+        <v>6521</v>
+      </c>
+    </row>
+    <row r="6516" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6516" s="2" t="s">
+        <v>6522</v>
+      </c>
+    </row>
+    <row r="6517" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6517" s="2" t="s">
+        <v>6523</v>
+      </c>
+    </row>
+    <row r="6518" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6518" s="2" t="s">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="6519" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6519" s="2" t="s">
+        <v>6525</v>
+      </c>
+    </row>
+    <row r="6520" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6520" s="2" t="s">
+        <v>6526</v>
+      </c>
+    </row>
+    <row r="6521" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6521" s="2" t="s">
+        <v>6527</v>
+      </c>
+    </row>
+    <row r="6522" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6522" s="2" t="s">
+        <v>6528</v>
+      </c>
+    </row>
+    <row r="6523" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6523" s="2" t="s">
+        <v>6529</v>
+      </c>
+    </row>
+    <row r="6524" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6524" s="2" t="s">
+        <v>6530</v>
+      </c>
+    </row>
+    <row r="6525" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6525" s="2" t="s">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="6526" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6526" s="2" t="s">
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="6527" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6527" s="2" t="s">
+        <v>6533</v>
+      </c>
+    </row>
+    <row r="6528" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6528" s="2" t="s">
+        <v>6534</v>
+      </c>
+    </row>
+    <row r="6529" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6529" s="2" t="s">
+        <v>6535</v>
+      </c>
+    </row>
+    <row r="6530" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6530" s="2" t="s">
+        <v>6536</v>
+      </c>
+    </row>
+    <row r="6531" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6531" s="2" t="s">
+        <v>6537</v>
+      </c>
+    </row>
+    <row r="6532" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6532" s="2" t="s">
+        <v>6538</v>
+      </c>
+    </row>
+    <row r="6533" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6533" s="2" t="s">
+        <v>6539</v>
+      </c>
+    </row>
+    <row r="6534" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6534" s="2" t="s">
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="6535" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6535" s="2" t="s">
+        <v>6541</v>
+      </c>
+    </row>
+    <row r="6536" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6536" s="2" t="s">
+        <v>6542</v>
+      </c>
+    </row>
+    <row r="6537" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6537" s="2" t="s">
+        <v>6543</v>
+      </c>
+    </row>
+    <row r="6538" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6538" s="2" t="s">
+        <v>6544</v>
+      </c>
+    </row>
+    <row r="6539" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6539" s="2" t="s">
+        <v>6545</v>
+      </c>
+    </row>
+    <row r="6540" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6540" s="2" t="s">
+        <v>6546</v>
+      </c>
+    </row>
+    <row r="6541" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6541" s="2" t="s">
+        <v>6547</v>
+      </c>
+    </row>
+    <row r="6542" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6542" s="2" t="s">
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="6543" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6543" s="2" t="s">
+        <v>6549</v>
+      </c>
+    </row>
+    <row r="6544" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6544" s="2" t="s">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="6545" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6545" s="2" t="s">
+        <v>6551</v>
+      </c>
+    </row>
+    <row r="6546" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6546" s="2" t="s">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="6547" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6547" s="2" t="s">
+        <v>6553</v>
+      </c>
+    </row>
+    <row r="6548" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6548" s="2" t="s">
+        <v>6554</v>
+      </c>
+    </row>
+    <row r="6549" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6549" s="2" t="s">
+        <v>6555</v>
+      </c>
+    </row>
+    <row r="6550" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6550" s="2" t="s">
+        <v>6556</v>
+      </c>
+    </row>
+    <row r="6551" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6551" s="2" t="s">
+        <v>6557</v>
+      </c>
+    </row>
+    <row r="6552" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6552" s="2" t="s">
+        <v>6558</v>
+      </c>
+    </row>
+    <row r="6553" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6553" s="2" t="s">
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="6554" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6554" s="2" t="s">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="6555" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6555" s="2" t="s">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="6556" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6556" s="2" t="s">
+        <v>6562</v>
+      </c>
+    </row>
+    <row r="6557" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6557" s="2" t="s">
+        <v>6563</v>
+      </c>
+    </row>
+    <row r="6558" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6558" s="2" t="s">
+        <v>6564</v>
+      </c>
+    </row>
+    <row r="6559" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6559" s="2" t="s">
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="6560" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6560" s="2" t="s">
+        <v>6566</v>
+      </c>
+    </row>
+    <row r="6561" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6561" s="2" t="s">
+        <v>6567</v>
+      </c>
+    </row>
+    <row r="6562" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6562" s="2" t="s">
+        <v>6568</v>
+      </c>
+    </row>
+    <row r="6563" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6563" s="2" t="s">
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="6564" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6564" s="2" t="s">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="6565" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6565" s="2" t="s">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="6566" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6566" s="2" t="s">
+        <v>6572</v>
+      </c>
+    </row>
+    <row r="6567" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6567" s="2" t="s">
+        <v>6573</v>
+      </c>
+    </row>
+    <row r="6568" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6568" s="2" t="s">
+        <v>6574</v>
+      </c>
+    </row>
+    <row r="6569" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6569" s="2" t="s">
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="6570" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6570" s="2" t="s">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="6571" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6571" s="2" t="s">
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="6572" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6572" s="2" t="s">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="6573" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6573" s="2" t="s">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="6574" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6574" s="2" t="s">
+        <v>6580</v>
+      </c>
+    </row>
+    <row r="6575" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6575" s="2" t="s">
+        <v>6581</v>
+      </c>
+    </row>
+    <row r="6576" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6576" s="2" t="s">
+        <v>6582</v>
+      </c>
+    </row>
+    <row r="6577" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6577" s="2" t="s">
+        <v>6583</v>
+      </c>
+    </row>
+    <row r="6578" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6578" s="2" t="s">
+        <v>6584</v>
+      </c>
+    </row>
+    <row r="6579" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6579" s="2" t="s">
+        <v>6585</v>
+      </c>
+    </row>
+    <row r="6580" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6580" s="2" t="s">
+        <v>6586</v>
+      </c>
+    </row>
+    <row r="6581" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6581" s="2" t="s">
+        <v>6587</v>
+      </c>
+    </row>
+    <row r="6582" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6582" s="2" t="s">
+        <v>6588</v>
+      </c>
+    </row>
+    <row r="6583" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6583" s="2" t="s">
+        <v>6589</v>
+      </c>
+    </row>
+    <row r="6584" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6584" s="2" t="s">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="6585" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6585" s="2" t="s">
+        <v>6591</v>
+      </c>
+    </row>
+    <row r="6586" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6586" s="2" t="s">
+        <v>6592</v>
+      </c>
+    </row>
+    <row r="6587" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6587" s="2" t="s">
+        <v>6593</v>
+      </c>
+    </row>
+    <row r="6588" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6588" s="2" t="s">
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="6589" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6589" s="2" t="s">
+        <v>6595</v>
+      </c>
+    </row>
+    <row r="6590" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6590" s="2" t="s">
+        <v>6596</v>
+      </c>
+    </row>
+    <row r="6591" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6591" s="2" t="s">
+        <v>6597</v>
+      </c>
+    </row>
+    <row r="6592" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6592" s="2" t="s">
+        <v>6598</v>
+      </c>
+    </row>
+    <row r="6593" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6593" s="2" t="s">
+        <v>6599</v>
+      </c>
+    </row>
+    <row r="6594" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6594" s="2" t="s">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="6595" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6595" s="2" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="6596" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6596" s="2" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="6597" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6597" s="2" t="s">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="6598" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6598" s="2" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="6599" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6599" s="2" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="6600" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6600" s="2" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="6601" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6601" s="2" t="s">
+        <v>6602</v>
+      </c>
+    </row>
+    <row r="6602" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6602" s="2" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="6603" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6603" s="2" t="s">
+        <v>6603</v>
+      </c>
+    </row>
+    <row r="6604" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6604" s="2" t="s">
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="6605" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6605" s="2" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="6606" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6606" s="2" t="s">
+        <v>6605</v>
+      </c>
+    </row>
+    <row r="6607" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6607" s="2" t="s">
+        <v>6606</v>
+      </c>
+    </row>
+    <row r="6608" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6608" s="2" t="s">
+        <v>6607</v>
+      </c>
+    </row>
+    <row r="6609" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6609" s="2" t="s">
+        <v>6608</v>
+      </c>
+    </row>
+    <row r="6610" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6610" s="2" t="s">
+        <v>6609</v>
+      </c>
+    </row>
+    <row r="6611" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6611" s="2" t="s">
+        <v>6610</v>
+      </c>
+    </row>
+    <row r="6612" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6612" s="2" t="s">
+        <v>6611</v>
+      </c>
+    </row>
+    <row r="6613" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6613" s="2" t="s">
+        <v>6612</v>
+      </c>
+    </row>
+    <row r="6614" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6614" s="2" t="s">
+        <v>6613</v>
+      </c>
+    </row>
+    <row r="6615" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6615" s="2" t="s">
+        <v>6614</v>
+      </c>
+    </row>
+    <row r="6616" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6616" s="2" t="s">
+        <v>6615</v>
+      </c>
+    </row>
+    <row r="6617" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6617" s="2" t="s">
+        <v>6616</v>
+      </c>
+    </row>
+    <row r="6618" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6618" s="2" t="s">
+        <v>6617</v>
+      </c>
+    </row>
+    <row r="6619" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6619" s="2" t="s">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="6620" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6620" s="2" t="s">
+        <v>6619</v>
+      </c>
+    </row>
+    <row r="6621" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6621" s="2" t="s">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="6622" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6622" s="2" t="s">
+        <v>6621</v>
+      </c>
+    </row>
+    <row r="6623" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6623" s="2" t="s">
+        <v>6622</v>
+      </c>
+    </row>
+    <row r="6624" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6624" s="2" t="s">
+        <v>6623</v>
+      </c>
+    </row>
+    <row r="6625" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6625" s="2" t="s">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="6626" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6626" s="2" t="s">
+        <v>6625</v>
+      </c>
+    </row>
+    <row r="6627" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6627" s="2" t="s">
+        <v>6626</v>
+      </c>
+    </row>
+    <row r="6628" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6628" s="2" t="s">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="6629" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6629" s="2" t="s">
+        <v>6628</v>
+      </c>
+    </row>
+    <row r="6630" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6630" s="2" t="s">
+        <v>6629</v>
+      </c>
+    </row>
+    <row r="6631" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6631" s="2" t="s">
+        <v>6630</v>
+      </c>
+    </row>
+    <row r="6632" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6632" s="2" t="s">
+        <v>6631</v>
+      </c>
+    </row>
+    <row r="6633" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6633" s="2" t="s">
+        <v>6632</v>
+      </c>
+    </row>
+    <row r="6634" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6634" s="2" t="s">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="6635" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6635" s="2" t="s">
+        <v>6634</v>
+      </c>
+    </row>
+    <row r="6636" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6636" s="2" t="s">
+        <v>6635</v>
+      </c>
+    </row>
+    <row r="6637" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6637" s="2" t="s">
+        <v>6636</v>
+      </c>
+    </row>
+    <row r="6638" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6638" s="2" t="s">
+        <v>6637</v>
+      </c>
+    </row>
+    <row r="6639" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6639" s="2" t="s">
+        <v>6638</v>
+      </c>
+    </row>
+    <row r="6640" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6640" s="2" t="s">
+        <v>6639</v>
+      </c>
+    </row>
+    <row r="6641" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6641" s="2" t="s">
+        <v>6640</v>
+      </c>
+    </row>
+    <row r="6642" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6642" s="2" t="s">
+        <v>6641</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A1:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A5688 A5708:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A1:A5688 A5708:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A1:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A1:A3684 A3702:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A1:A3717 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A1:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2600 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A2634 A2636:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="10" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="13"/>
     <cfRule type="duplicateValues" dxfId="8" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="7" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3531 A3442:A3467 A1012:A1043 A1:A191 A195:A236 A242:A289 A292:A321 A325:A414 A417:A439 A484:A511 A450:A482 A514:A560 A572:A616 A618:A638 A665:A762 A768:A794 A796:A861 A869:A934 A937:A989 A993:A1008 A1046:A1101 A1104:A1196 A1204:A1268 A1270:A1278 A1280:A1283 A1294 A1300:A1302 A1308:A1330 A1348:A1425 A1429 A1432:A1500 A1510:A1550 A1552:A1570 A1578:A1649 A1654:A1764 A1769:A1809 A1816:A1830 A1832:A1851 A1853:A1871 A1908:A2041 A2048:A2065 A2069:A2092 A2114:A2163 A2168:A2179 A2187:A2194 A2200:A2218 A2223:A2228 A2233:A2250 A2256:A2301 A2316:A2319 A2321:A2337 A2377:A2410 A2425:A2435 A2478:A2512 A2521:A2538 A2550:A2598 A2604:A2618 A2626:A2630 A2637:A2687 A2699:A2739 A2769:A2798 A2803:A2833 A2838:A2844 A2847:A2891 A2893:A2957 A2988:A3089 A3100:A3128 A3134:A3150 A3154:A3195 A3203:A3227 A3234:A3253 A3255:A3313 A3315:A3370 A3374:A3395 A3405:A3438 A3472:A3515 A3591:A3612 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="18"/>
     <cfRule type="duplicateValues" dxfId="4" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3586:A3612 A1:A3549 A3640:A3684 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3640:A3684 A1:A3612 A3755:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3706:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5468:A5492 A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A1048576">
+  <conditionalFormatting sqref="A5468:A5492 A3716:A3717 A1:A3684 A3723:A3732 A3743:A3859 A3882:A3899 A3902:A3964 A3971:A3995 A4004:A4006 A4028:A4073 A4076:A4235 A4238:A4264 A4267:A4349 A4360:A4436 A4442:A4495 A4500:A4657 A4666:A4741 A4799:A4865 A4871:A4907 A4912:A5350 A5393:A5394 A5435:A5452 A5500:A5557 A5561:A5647 A5729:A5730 A5790:A5855 A5859:A6209 A6231:A6255 A6260:A6322 A6326:A6327 A6330:A6507 A6586:A6594 A6632:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
